--- a/chalice2sil/doc/report/benchmark.xlsx
+++ b/chalice2sil/doc/report/benchmark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="147">
   <si>
     <t>ToSIL-1</t>
   </si>
@@ -444,6 +444,27 @@
   </si>
   <si>
     <t>running with issue</t>
+  </si>
+  <si>
+    <t>S-rmCh-A</t>
+  </si>
+  <si>
+    <t>C2S-rmCh-A</t>
+  </si>
+  <si>
+    <t>Diff-%</t>
+  </si>
+  <si>
+    <t>Diff-rmCh</t>
+  </si>
+  <si>
+    <t>Diff-rmCh-%</t>
+  </si>
+  <si>
+    <t>diff-%-C2S</t>
+  </si>
+  <si>
+    <t>diff-%-Sili</t>
   </si>
 </sst>
 </file>
@@ -604,7 +625,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -640,6 +661,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -922,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AN87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,10 +974,14 @@
     <col min="27" max="27" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.85546875" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" customWidth="1"/>
+    <col min="34" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="11" t="s">
@@ -1042,11 +1068,32 @@
       <c r="AD1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="AI1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
@@ -1106,56 +1153,80 @@
         <v>0</v>
       </c>
       <c r="U2" s="10">
-        <f>AVERAGE(C2,F2,I2)</f>
+        <f t="shared" ref="U2:U33" si="0">AVERAGE(C2,F2,I2)</f>
         <v>409.66666666666669</v>
       </c>
       <c r="V2" s="9">
-        <f>AVERAGE(D2,G2,J2)</f>
+        <f t="shared" ref="V2:V33" si="1">AVERAGE(D2,G2,J2)</f>
         <v>250</v>
       </c>
       <c r="W2" s="9">
-        <f>AVERAGE(E2,H2,K2)</f>
+        <f t="shared" ref="W2:W33" si="2">AVERAGE(E2,H2,K2)</f>
         <v>407.66666666666669</v>
       </c>
       <c r="X2" s="2">
-        <f>STDEVA(C2,F2,I2)</f>
+        <f t="shared" ref="X2:X33" si="3">STDEVA(C2,F2,I2)</f>
         <v>4.7258156262526088</v>
       </c>
       <c r="Y2" s="2">
-        <f>STDEVA(D2,G2,J2)</f>
+        <f t="shared" ref="Y2:Y33" si="4">STDEVA(D2,G2,J2)</f>
         <v>1.7320508075688772</v>
       </c>
       <c r="Z2" s="2">
-        <f>STDEVA(E2,H2,K2)</f>
+        <f t="shared" ref="Z2:Z33" si="5">STDEVA(E2,H2,K2)</f>
         <v>5.6862407030773268</v>
       </c>
       <c r="AA2" s="9">
-        <f>AVERAGE(C2+D2+E2,F2+G2+H2,I2+J2+K2)</f>
+        <f t="shared" ref="AA2:AA33" si="6">AVERAGE(C2+D2+E2,F2+G2+H2,I2+J2+K2)</f>
         <v>1067.3333333333333</v>
       </c>
       <c r="AB2" s="2">
-        <f>STDEVA(C2+D2+E2,F2+G2+H2,I2+J2+K2)</f>
+        <f t="shared" ref="AB2:AB33" si="7">STDEVA(C2+D2+E2,F2+G2+H2,I2+J2+K2)</f>
         <v>6.6583281184793925</v>
       </c>
       <c r="AC2" s="9">
-        <f>AVERAGE(L2:N2)</f>
+        <f t="shared" ref="AC2:AC33" si="8">AVERAGE(L2:N2)</f>
         <v>650.66666666666663</v>
       </c>
       <c r="AD2" s="2">
-        <f>STDEVA(L2:N2)</f>
+        <f t="shared" ref="AD2:AD33" si="9">STDEVA(L2:N2)</f>
         <v>17.616280348965084</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AG2" s="1">
-        <f>IF(SUM(C2,F2,I2)&gt;0,AA2-AC2,"-")</f>
+      <c r="AE2" s="2">
+        <f>AC2-U2</f>
+        <v>240.99999999999994</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>V2+W2</f>
+        <v>657.66666666666674</v>
+      </c>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="1">
+        <f>IF(SUM(C2,F2,I2)&gt;0,AA2-AC2,"")</f>
         <v>416.66666666666663</v>
       </c>
-      <c r="AH2" s="21">
-        <f>IF(SUM(C2,F2,I2)&gt;0,AA2/AC2,"")</f>
+      <c r="AI2" s="21">
+        <f t="shared" ref="AI2:AI33" si="10">IF(SUM(C2,F2,I2)&gt;0,AA2/AC2,"")</f>
         <v>1.6403688524590163</v>
       </c>
+      <c r="AK2" s="1">
+        <f>IF(Q2,AF2-AE2,"")</f>
+        <v>416.6666666666668</v>
+      </c>
+      <c r="AL2" s="21">
+        <f>IF(Q2,AF2/AE2,"")</f>
+        <v>2.7289073305670826</v>
+      </c>
+      <c r="AM2" s="35">
+        <f>IF(Q2,V2/AF2,"")</f>
+        <v>0.38013177901672573</v>
+      </c>
+      <c r="AN2" s="35">
+        <f>IF(Q2,W2/AF2,"")</f>
+        <v>0.61986822098327421</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>A$2</f>
         <v>Basics</v>
@@ -1212,62 +1283,86 @@
         <v>0</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" ref="T3:T66" si="0">IF(S3="",0,Q3)</f>
+        <f t="shared" ref="T3:T66" si="11">IF(S3="",0,Q3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="10">
-        <f>AVERAGE(C3,F3,I3)</f>
+        <f t="shared" si="0"/>
         <v>465.33333333333331</v>
       </c>
       <c r="V3" s="9">
-        <f>AVERAGE(D3,G3,J3)</f>
+        <f t="shared" si="1"/>
         <v>274.33333333333331</v>
       </c>
       <c r="W3" s="9">
-        <f>AVERAGE(E3,H3,K3)</f>
+        <f t="shared" si="2"/>
         <v>414.33333333333331</v>
       </c>
       <c r="X3" s="2">
-        <f>STDEVA(C3,F3,I3)</f>
+        <f t="shared" si="3"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y3" s="2">
-        <f>STDEVA(D3,G3,J3)</f>
+        <f t="shared" si="4"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Z3" s="2">
-        <f>STDEVA(E3,H3,K3)</f>
+        <f t="shared" si="5"/>
         <v>5.8594652770823155</v>
       </c>
       <c r="AA3" s="9">
-        <f>AVERAGE(C3+D3+E3,F3+G3+H3,I3+J3+K3)</f>
+        <f t="shared" si="6"/>
         <v>1154</v>
       </c>
       <c r="AB3" s="2">
-        <f>STDEVA(C3+D3+E3,F3+G3+H3,I3+J3+K3)</f>
+        <f t="shared" si="7"/>
         <v>5.196152422706632</v>
       </c>
       <c r="AC3" s="9">
-        <f>AVERAGE(L3:N3)</f>
+        <f t="shared" si="8"/>
         <v>707</v>
       </c>
       <c r="AD3" s="2">
-        <f>STDEVA(L3:N3)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AG3" s="1">
-        <f>IF(SUM(C3,F3,I3)&gt;0,AA3-AC3,"-")</f>
+      <c r="AE3" s="2">
+        <f t="shared" ref="AE3:AE66" si="12">AC3-U3</f>
+        <v>241.66666666666669</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF66" si="13">V3+W3</f>
+        <v>688.66666666666663</v>
+      </c>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="1">
+        <f t="shared" ref="AH3:AH66" si="14">IF(SUM(C3,F3,I3)&gt;0,AA3-AC3,"")</f>
         <v>447</v>
       </c>
-      <c r="AH3" s="21">
-        <f>IF(SUM(C3,F3,I3)&gt;0,AA3/AC3,"")</f>
+      <c r="AI3" s="21">
+        <f t="shared" ref="AI3:AI66" si="15">IF(SUM(C3,F3,I3)&gt;0,AA3/AC3,"")</f>
         <v>1.6322489391796322</v>
       </c>
+      <c r="AK3" s="1">
+        <f t="shared" ref="AK3:AK66" si="16">IF(Q3,AF3-AE3,"")</f>
+        <v>446.99999999999994</v>
+      </c>
+      <c r="AL3" s="21">
+        <f t="shared" ref="AL3:AL66" si="17">IF(Q3,AF3/AE3,"")</f>
+        <v>2.8496551724137928</v>
+      </c>
+      <c r="AM3" s="35">
+        <f t="shared" ref="AM3:AM66" si="18">IF(Q3,V3/AF3,"")</f>
+        <v>0.3983543078412391</v>
+      </c>
+      <c r="AN3" s="35">
+        <f t="shared" ref="AN3:AN66" si="19">IF(Q3,W3/AF3,"")</f>
+        <v>0.60164569215876085</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
-        <f t="shared" ref="A4:A14" si="1">A$2</f>
+        <f t="shared" ref="A4:A14" si="20">A$2</f>
         <v>Basics</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1316,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="17">
         <v>0</v>
@@ -1325,62 +1420,86 @@
         <v>43</v>
       </c>
       <c r="T4" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <f>AVERAGE(C4,F4,I4)</f>
         <v>464.33333333333331</v>
       </c>
       <c r="V4" s="9">
-        <f>AVERAGE(D4,G4,J4)</f>
+        <f t="shared" si="1"/>
         <v>279.33333333333331</v>
       </c>
       <c r="W4" s="9">
-        <f>AVERAGE(E4,H4,K4)</f>
+        <f t="shared" si="2"/>
         <v>454</v>
       </c>
       <c r="X4" s="2">
-        <f>STDEVA(C4,F4,I4)</f>
+        <f t="shared" si="3"/>
         <v>8.0829037686547611</v>
       </c>
       <c r="Y4" s="2">
-        <f>STDEVA(D4,G4,J4)</f>
+        <f t="shared" si="4"/>
         <v>3.7859388972001828</v>
       </c>
       <c r="Z4" s="2">
-        <f>STDEVA(E4,H4,K4)</f>
+        <f t="shared" si="5"/>
         <v>14.52583904633395</v>
       </c>
       <c r="AA4" s="9">
-        <f>AVERAGE(C4+D4+E4,F4+G4+H4,I4+J4+K4)</f>
+        <f t="shared" si="6"/>
         <v>1197.6666666666667</v>
       </c>
       <c r="AB4" s="2">
-        <f>STDEVA(C4+D4+E4,F4+G4+H4,I4+J4+K4)</f>
+        <f t="shared" si="7"/>
         <v>25.106440076867397</v>
       </c>
       <c r="AC4" s="9">
-        <f>AVERAGE(L4:N4)</f>
+        <f t="shared" si="8"/>
         <v>713.33333333333337</v>
       </c>
       <c r="AD4" s="2">
-        <f>STDEVA(L4:N4)</f>
+        <f t="shared" si="9"/>
         <v>17.897858344878401</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AG4" s="1">
-        <f>IF(SUM(C4,F4,I4)&gt;0,AA4-AC4,"-")</f>
+      <c r="AE4" s="2">
+        <f t="shared" si="12"/>
+        <v>249.00000000000006</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="13"/>
+        <v>733.33333333333326</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="1">
+        <f t="shared" si="14"/>
         <v>484.33333333333337</v>
       </c>
-      <c r="AH4" s="21">
-        <f>IF(SUM(C4,F4,I4)&gt;0,AA4/AC4,"")</f>
+      <c r="AI4" s="21">
+        <f t="shared" si="15"/>
         <v>1.6789719626168225</v>
       </c>
+      <c r="AK4" s="1">
+        <f t="shared" si="16"/>
+        <v>484.3333333333332</v>
+      </c>
+      <c r="AL4" s="21">
+        <f t="shared" si="17"/>
+        <v>2.9451137884872813</v>
+      </c>
+      <c r="AM4" s="35">
+        <f t="shared" si="18"/>
+        <v>0.38090909090909092</v>
+      </c>
+      <c r="AN4" s="35">
+        <f t="shared" si="19"/>
+        <v>0.61909090909090914</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1435,62 +1554,86 @@
         <v>0</v>
       </c>
       <c r="T5" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <f>AVERAGE(C5,F5,I5)</f>
         <v>359.33333333333331</v>
       </c>
       <c r="V5" s="9">
-        <f>AVERAGE(D5,G5,J5)</f>
+        <f t="shared" si="1"/>
         <v>260.33333333333331</v>
       </c>
       <c r="W5" s="9">
-        <f>AVERAGE(E5,H5,K5)</f>
+        <f t="shared" si="2"/>
         <v>354</v>
       </c>
       <c r="X5" s="2">
-        <f>STDEVA(C5,F5,I5)</f>
+        <f t="shared" si="3"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y5" s="2">
-        <f>STDEVA(D5,G5,J5)</f>
+        <f t="shared" si="4"/>
         <v>17.897858344878397</v>
       </c>
       <c r="Z5" s="2">
-        <f>STDEVA(E5,H5,K5)</f>
+        <f t="shared" si="5"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA5" s="9">
-        <f>AVERAGE(C5+D5+E5,F5+G5+H5,I5+J5+K5)</f>
+        <f t="shared" si="6"/>
         <v>973.66666666666663</v>
       </c>
       <c r="AB5" s="2">
-        <f>STDEVA(C5+D5+E5,F5+G5+H5,I5+J5+K5)</f>
+        <f t="shared" si="7"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AC5" s="9">
-        <f>AVERAGE(L5:N5)</f>
+        <f t="shared" si="8"/>
         <v>547</v>
       </c>
       <c r="AD5" s="2">
-        <f>STDEVA(L5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
-      <c r="AG5" s="1">
-        <f>IF(SUM(C5,F5,I5)&gt;0,AA5-AC5,"-")</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="12"/>
+        <v>187.66666666666669</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" si="13"/>
+        <v>614.33333333333326</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="1">
+        <f t="shared" si="14"/>
         <v>426.66666666666663</v>
       </c>
-      <c r="AH5" s="21">
-        <f>IF(SUM(C5,F5,I5)&gt;0,AA5/AC5,"")</f>
+      <c r="AI5" s="21">
+        <f t="shared" si="15"/>
         <v>1.7800121876904327</v>
       </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="16"/>
+        <v>426.66666666666657</v>
+      </c>
+      <c r="AL5" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2735346358792179</v>
+      </c>
+      <c r="AM5" s="35">
+        <f t="shared" si="18"/>
+        <v>0.42376559956592513</v>
+      </c>
+      <c r="AN5" s="35">
+        <f t="shared" si="19"/>
+        <v>0.57623440043407492</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1545,62 +1688,86 @@
         <v>0</v>
       </c>
       <c r="T6" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="10">
-        <f>AVERAGE(C6,F6,I6)</f>
         <v>390.33333333333331</v>
       </c>
       <c r="V6" s="9">
-        <f>AVERAGE(D6,G6,J6)</f>
+        <f t="shared" si="1"/>
         <v>260.33333333333331</v>
       </c>
       <c r="W6" s="9">
-        <f>AVERAGE(E6,H6,K6)</f>
+        <f t="shared" si="2"/>
         <v>416.66666666666669</v>
       </c>
       <c r="X6" s="2">
-        <f>STDEVA(C6,F6,I6)</f>
+        <f t="shared" si="3"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y6" s="2">
-        <f>STDEVA(D6,G6,J6)</f>
+        <f t="shared" si="4"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Z6" s="2">
-        <f>STDEVA(E6,H6,K6)</f>
+        <f t="shared" si="5"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA6" s="9">
-        <f>AVERAGE(C6+D6+E6,F6+G6+H6,I6+J6+K6)</f>
+        <f t="shared" si="6"/>
         <v>1067.3333333333333</v>
       </c>
       <c r="AB6" s="2">
-        <f>STDEVA(C6+D6+E6,F6+G6+H6,I6+J6+K6)</f>
+        <f t="shared" si="7"/>
         <v>10.115993936995679</v>
       </c>
       <c r="AC6" s="9">
-        <f>AVERAGE(L6:N6)</f>
+        <f t="shared" si="8"/>
         <v>609.66666666666663</v>
       </c>
       <c r="AD6" s="2">
-        <f>STDEVA(L6:N6)</f>
+        <f t="shared" si="9"/>
         <v>15.50268793897798</v>
       </c>
-      <c r="AE6" s="2"/>
-      <c r="AG6" s="1">
-        <f>IF(SUM(C6,F6,I6)&gt;0,AA6-AC6,"-")</f>
+      <c r="AE6" s="2">
+        <f t="shared" si="12"/>
+        <v>219.33333333333331</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="13"/>
+        <v>677</v>
+      </c>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="1">
+        <f t="shared" si="14"/>
         <v>457.66666666666663</v>
       </c>
-      <c r="AH6" s="21">
-        <f>IF(SUM(C6,F6,I6)&gt;0,AA6/AC6,"")</f>
+      <c r="AI6" s="21">
+        <f t="shared" si="15"/>
         <v>1.750683433570257</v>
       </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="16"/>
+        <v>457.66666666666669</v>
+      </c>
+      <c r="AL6" s="21">
+        <f t="shared" si="17"/>
+        <v>3.0866261398176293</v>
+      </c>
+      <c r="AM6" s="35">
+        <f t="shared" si="18"/>
+        <v>0.3845396356474643</v>
+      </c>
+      <c r="AN6" s="35">
+        <f t="shared" si="19"/>
+        <v>0.6154603643525357</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1655,62 +1822,86 @@
         <v>0</v>
       </c>
       <c r="T7" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <f>AVERAGE(C7,F7,I7)</f>
         <v>497.66666666666669</v>
       </c>
       <c r="V7" s="9">
-        <f>AVERAGE(D7,G7,J7)</f>
+        <f t="shared" si="1"/>
         <v>333.33333333333331</v>
       </c>
       <c r="W7" s="9">
-        <f>AVERAGE(E7,H7,K7)</f>
+        <f t="shared" si="2"/>
         <v>526</v>
       </c>
       <c r="X7" s="2">
-        <f>STDEVA(C7,F7,I7)</f>
+        <f t="shared" si="3"/>
         <v>4.0414518843273806</v>
       </c>
       <c r="Y7" s="2">
-        <f>STDEVA(D7,G7,J7)</f>
+        <f t="shared" si="4"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Z7" s="2">
-        <f>STDEVA(E7,H7,K7)</f>
+        <f t="shared" si="5"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA7" s="9">
-        <f>AVERAGE(C7+D7+E7,F7+G7+H7,I7+J7+K7)</f>
+        <f t="shared" si="6"/>
         <v>1357</v>
       </c>
       <c r="AB7" s="2">
-        <f>STDEVA(C7+D7+E7,F7+G7+H7,I7+J7+K7)</f>
+        <f t="shared" si="7"/>
         <v>19.078784028338912</v>
       </c>
       <c r="AC7" s="9">
-        <f>AVERAGE(L7:N7)</f>
+        <f t="shared" si="8"/>
         <v>849</v>
       </c>
       <c r="AD7" s="2">
-        <f>STDEVA(L7:N7)</f>
+        <f t="shared" si="9"/>
         <v>4.358898943540674</v>
       </c>
-      <c r="AE7" s="2"/>
-      <c r="AG7" s="1">
-        <f>IF(SUM(C7,F7,I7)&gt;0,AA7-AC7,"-")</f>
+      <c r="AE7" s="2">
+        <f t="shared" si="12"/>
+        <v>351.33333333333331</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="13"/>
+        <v>859.33333333333326</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="1">
+        <f t="shared" si="14"/>
         <v>508</v>
       </c>
-      <c r="AH7" s="21">
-        <f>IF(SUM(C7,F7,I7)&gt;0,AA7/AC7,"")</f>
+      <c r="AI7" s="21">
+        <f t="shared" si="15"/>
         <v>1.5983510011778563</v>
       </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="16"/>
+        <v>507.99999999999994</v>
+      </c>
+      <c r="AL7" s="21">
+        <f t="shared" si="17"/>
+        <v>2.445920303605313</v>
+      </c>
+      <c r="AM7" s="35">
+        <f t="shared" si="18"/>
+        <v>0.38789759503491078</v>
+      </c>
+      <c r="AN7" s="35">
+        <f t="shared" si="19"/>
+        <v>0.61210240496508928</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1765,62 +1956,86 @@
         <v>0</v>
       </c>
       <c r="T8" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="10">
-        <f>AVERAGE(C8,F8,I8)</f>
         <v>359.33333333333331</v>
       </c>
       <c r="V8" s="9">
-        <f>AVERAGE(D8,G8,J8)</f>
+        <f t="shared" si="1"/>
         <v>229</v>
       </c>
       <c r="W8" s="9">
-        <f>AVERAGE(E8,H8,K8)</f>
+        <f t="shared" si="2"/>
         <v>317.66666666666669</v>
       </c>
       <c r="X8" s="2">
-        <f>STDEVA(C8,F8,I8)</f>
+        <f t="shared" si="3"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y8" s="2">
-        <f>STDEVA(D8,G8,J8)</f>
+        <f t="shared" si="4"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Z8" s="2">
-        <f>STDEVA(E8,H8,K8)</f>
+        <f t="shared" si="5"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA8" s="9">
-        <f>AVERAGE(C8+D8+E8,F8+G8+H8,I8+J8+K8)</f>
+        <f t="shared" si="6"/>
         <v>906</v>
       </c>
       <c r="AB8" s="2">
-        <f>STDEVA(C8+D8+E8,F8+G8+H8,I8+J8+K8)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AC8" s="9">
-        <f>AVERAGE(L8:N8)</f>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
       <c r="AD8" s="2">
-        <f>STDEVA(L8:N8)</f>
+        <f t="shared" si="9"/>
         <v>9.5393920141694561</v>
       </c>
-      <c r="AE8" s="2"/>
-      <c r="AG8" s="1">
-        <f>IF(SUM(C8,F8,I8)&gt;0,AA8-AC8,"-")</f>
+      <c r="AE8" s="2">
+        <f t="shared" si="12"/>
+        <v>192.66666666666669</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="13"/>
+        <v>546.66666666666674</v>
+      </c>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="1">
+        <f t="shared" si="14"/>
         <v>354</v>
       </c>
-      <c r="AH8" s="21">
-        <f>IF(SUM(C8,F8,I8)&gt;0,AA8/AC8,"")</f>
+      <c r="AI8" s="21">
+        <f t="shared" si="15"/>
         <v>1.6413043478260869</v>
       </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="16"/>
+        <v>354.00000000000006</v>
+      </c>
+      <c r="AL8" s="21">
+        <f t="shared" si="17"/>
+        <v>2.8373702422145328</v>
+      </c>
+      <c r="AM8" s="35">
+        <f t="shared" si="18"/>
+        <v>0.41890243902439017</v>
+      </c>
+      <c r="AN8" s="35">
+        <f t="shared" si="19"/>
+        <v>0.58109756097560972</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1851,62 +2066,86 @@
         <v>36</v>
       </c>
       <c r="T9" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="10" t="e">
-        <f>AVERAGE(C9,F9,I9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V9" s="9" t="e">
-        <f>AVERAGE(D9,G9,J9)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W9" s="9" t="e">
-        <f>AVERAGE(E9,H9,K9)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X9" s="2" t="e">
-        <f>STDEVA(C9,F9,I9)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y9" s="2" t="e">
-        <f>STDEVA(D9,G9,J9)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z9" s="2" t="e">
-        <f>STDEVA(E9,H9,K9)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA9" s="9">
-        <f>AVERAGE(C9+D9+E9,F9+G9+H9,I9+J9+K9)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <f>STDEVA(C9+D9+E9,F9+G9+H9,I9+J9+K9)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC9" s="9">
-        <f>AVERAGE(L9:N9)</f>
+        <f t="shared" si="8"/>
         <v>827.66666666666663</v>
       </c>
       <c r="AD9" s="2">
-        <f>STDEVA(L9:N9)</f>
+        <f t="shared" si="9"/>
         <v>27.209067116190024</v>
       </c>
-      <c r="AE9" s="2"/>
-      <c r="AG9" s="1" t="str">
-        <f>IF(SUM(C9,F9,I9)&gt;0,AA9-AC9,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH9" s="21" t="str">
-        <f>IF(SUM(C9,F9,I9)&gt;0,AA9/AC9,"")</f>
+      <c r="AE9" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF9" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI9" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK9" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL9" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM9" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN9" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1961,62 +2200,86 @@
         <v>0</v>
       </c>
       <c r="T10" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
-        <f>AVERAGE(C10,F10,I10)</f>
         <v>416.66666666666669</v>
       </c>
       <c r="V10" s="9">
-        <f>AVERAGE(D10,G10,J10)</f>
+        <f t="shared" si="1"/>
         <v>275.66666666666669</v>
       </c>
       <c r="W10" s="9">
-        <f>AVERAGE(E10,H10,K10)</f>
+        <f t="shared" si="2"/>
         <v>422.33333333333331</v>
       </c>
       <c r="X10" s="2">
-        <f>STDEVA(C10,F10,I10)</f>
+        <f t="shared" si="3"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Y10" s="2">
-        <f>STDEVA(D10,G10,J10)</f>
+        <f t="shared" si="4"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Z10" s="2">
-        <f>STDEVA(E10,H10,K10)</f>
+        <f t="shared" si="5"/>
         <v>15.50268793897798</v>
       </c>
       <c r="AA10" s="9">
-        <f>AVERAGE(C10+D10+E10,F10+G10+H10,I10+J10+K10)</f>
+        <f t="shared" si="6"/>
         <v>1114.6666666666667</v>
       </c>
       <c r="AB10" s="2">
-        <f>STDEVA(C10+D10+E10,F10+G10+H10,I10+J10+K10)</f>
+        <f t="shared" si="7"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AC10" s="9">
-        <f>AVERAGE(L10:N10)</f>
+        <f t="shared" si="8"/>
         <v>677.33333333333337</v>
       </c>
       <c r="AD10" s="2">
-        <f>STDEVA(L10:N10)</f>
+        <f t="shared" si="9"/>
         <v>9.2376043070340135</v>
       </c>
-      <c r="AE10" s="2"/>
-      <c r="AG10" s="1">
-        <f>IF(SUM(C10,F10,I10)&gt;0,AA10-AC10,"-")</f>
+      <c r="AE10" s="2">
+        <f t="shared" si="12"/>
+        <v>260.66666666666669</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="13"/>
+        <v>698</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="1">
+        <f t="shared" si="14"/>
         <v>437.33333333333337</v>
       </c>
-      <c r="AH10" s="21">
-        <f>IF(SUM(C10,F10,I10)&gt;0,AA10/AC10,"")</f>
+      <c r="AI10" s="21">
+        <f t="shared" si="15"/>
         <v>1.6456692913385826</v>
       </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="16"/>
+        <v>437.33333333333331</v>
+      </c>
+      <c r="AL10" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6777493606138107</v>
+      </c>
+      <c r="AM10" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39493791786055399</v>
+      </c>
+      <c r="AN10" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60506208213944601</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2071,62 +2334,86 @@
         <v>0</v>
       </c>
       <c r="T11" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="10">
-        <f>AVERAGE(C11,F11,I11)</f>
         <v>437.33333333333331</v>
       </c>
       <c r="V11" s="9">
-        <f>AVERAGE(D11,G11,J11)</f>
+        <f t="shared" si="1"/>
         <v>258</v>
       </c>
       <c r="W11" s="9">
-        <f>AVERAGE(E11,H11,K11)</f>
+        <f t="shared" si="2"/>
         <v>334</v>
       </c>
       <c r="X11" s="2">
-        <f>STDEVA(C11,F11,I11)</f>
+        <f t="shared" si="3"/>
         <v>15.50268793897798</v>
       </c>
       <c r="Y11" s="2">
-        <f>STDEVA(D11,G11,J11)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="Z11" s="2">
-        <f>STDEVA(E11,H11,K11)</f>
+        <f t="shared" si="5"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA11" s="9">
-        <f>AVERAGE(C11+D11+E11,F11+G11+H11,I11+J11+K11)</f>
+        <f t="shared" si="6"/>
         <v>1029.3333333333333</v>
       </c>
       <c r="AB11" s="2">
-        <f>STDEVA(C11+D11+E11,F11+G11+H11,I11+J11+K11)</f>
+        <f t="shared" si="7"/>
         <v>15.695009822658072</v>
       </c>
       <c r="AC11" s="9">
-        <f>AVERAGE(L11:N11)</f>
+        <f t="shared" si="8"/>
         <v>614.66666666666663</v>
       </c>
       <c r="AD11" s="2">
-        <f>STDEVA(L11:N11)</f>
+        <f t="shared" si="9"/>
         <v>8.9628864398325021</v>
       </c>
-      <c r="AE11" s="2"/>
-      <c r="AG11" s="1">
-        <f>IF(SUM(C11,F11,I11)&gt;0,AA11-AC11,"-")</f>
+      <c r="AE11" s="2">
+        <f t="shared" si="12"/>
+        <v>177.33333333333331</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="13"/>
+        <v>592</v>
+      </c>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="1">
+        <f t="shared" si="14"/>
         <v>414.66666666666663</v>
       </c>
-      <c r="AH11" s="21">
-        <f>IF(SUM(C11,F11,I11)&gt;0,AA11/AC11,"")</f>
+      <c r="AI11" s="21">
+        <f t="shared" si="15"/>
         <v>1.6746203904555315</v>
       </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="16"/>
+        <v>414.66666666666669</v>
+      </c>
+      <c r="AL11" s="21">
+        <f t="shared" si="17"/>
+        <v>3.3383458646616546</v>
+      </c>
+      <c r="AM11" s="35">
+        <f t="shared" si="18"/>
+        <v>0.4358108108108108</v>
+      </c>
+      <c r="AN11" s="35">
+        <f t="shared" si="19"/>
+        <v>0.56418918918918914</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2181,62 +2468,86 @@
         <v>0</v>
       </c>
       <c r="T12" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="10">
-        <f>AVERAGE(C12,F12,I12)</f>
         <v>422</v>
       </c>
       <c r="V12" s="9">
-        <f>AVERAGE(D12,G12,J12)</f>
+        <f t="shared" si="1"/>
         <v>270.33333333333331</v>
       </c>
       <c r="W12" s="9">
-        <f>AVERAGE(E12,H12,K12)</f>
+        <f t="shared" si="2"/>
         <v>380</v>
       </c>
       <c r="X12" s="2">
-        <f>STDEVA(C12,F12,I12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <f>STDEVA(D12,G12,J12)</f>
+        <f t="shared" si="4"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Z12" s="2">
-        <f>STDEVA(E12,H12,K12)</f>
+        <f t="shared" si="5"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA12" s="9">
-        <f>AVERAGE(C12+D12+E12,F12+G12+H12,I12+J12+K12)</f>
+        <f t="shared" si="6"/>
         <v>1072.3333333333333</v>
       </c>
       <c r="AB12" s="2">
-        <f>STDEVA(C12+D12+E12,F12+G12+H12,I12+J12+K12)</f>
+        <f t="shared" si="7"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AC12" s="9">
-        <f>AVERAGE(L12:N12)</f>
+        <f t="shared" si="8"/>
         <v>630.33333333333337</v>
       </c>
       <c r="AD12" s="2">
-        <f>STDEVA(L12:N12)</f>
+        <f t="shared" si="9"/>
         <v>9.2376043070340135</v>
       </c>
-      <c r="AE12" s="2"/>
-      <c r="AG12" s="1">
-        <f>IF(SUM(C12,F12,I12)&gt;0,AA12-AC12,"-")</f>
+      <c r="AE12" s="2">
+        <f t="shared" si="12"/>
+        <v>208.33333333333337</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="13"/>
+        <v>650.33333333333326</v>
+      </c>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="1">
+        <f t="shared" si="14"/>
         <v>441.99999999999989</v>
       </c>
-      <c r="AH12" s="21">
-        <f>IF(SUM(C12,F12,I12)&gt;0,AA12/AC12,"")</f>
+      <c r="AI12" s="21">
+        <f t="shared" si="15"/>
         <v>1.7012162876784769</v>
       </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="16"/>
+        <v>441.99999999999989</v>
+      </c>
+      <c r="AL12" s="21">
+        <f t="shared" si="17"/>
+        <v>3.121599999999999</v>
+      </c>
+      <c r="AM12" s="35">
+        <f t="shared" si="18"/>
+        <v>0.41568426447975398</v>
+      </c>
+      <c r="AN12" s="35">
+        <f t="shared" si="19"/>
+        <v>0.58431573552024607</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2291,62 +2602,86 @@
         <v>0</v>
       </c>
       <c r="T13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="10">
-        <f>AVERAGE(C13,F13,I13)</f>
         <v>455.66666666666669</v>
       </c>
       <c r="V13" s="9">
-        <f>AVERAGE(D13,G13,J13)</f>
+        <f t="shared" si="1"/>
         <v>344</v>
       </c>
       <c r="W13" s="9">
-        <f>AVERAGE(E13,H13,K13)</f>
+        <f t="shared" si="2"/>
         <v>541.33333333333337</v>
       </c>
       <c r="X13" s="2">
-        <f>STDEVA(C13,F13,I13)</f>
+        <f t="shared" si="3"/>
         <v>11.239810200058242</v>
       </c>
       <c r="Y13" s="2">
-        <f>STDEVA(D13,G13,J13)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <f>STDEVA(E13,H13,K13)</f>
+        <f t="shared" si="5"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA13" s="9">
-        <f>AVERAGE(C13+D13+E13,F13+G13+H13,I13+J13+K13)</f>
+        <f t="shared" si="6"/>
         <v>1341</v>
       </c>
       <c r="AB13" s="2">
-        <f>STDEVA(C13+D13+E13,F13+G13+H13,I13+J13+K13)</f>
+        <f t="shared" si="7"/>
         <v>3.4641016151377544</v>
       </c>
       <c r="AC13" s="9">
-        <f>AVERAGE(L13:N13)</f>
+        <f t="shared" si="8"/>
         <v>760.33333333333337</v>
       </c>
       <c r="AD13" s="2">
-        <f>STDEVA(L13:N13)</f>
+        <f t="shared" si="9"/>
         <v>17.897858344878401</v>
       </c>
-      <c r="AE13" s="2"/>
-      <c r="AG13" s="1">
-        <f>IF(SUM(C13,F13,I13)&gt;0,AA13-AC13,"-")</f>
+      <c r="AE13" s="2">
+        <f t="shared" si="12"/>
+        <v>304.66666666666669</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="13"/>
+        <v>885.33333333333337</v>
+      </c>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="1">
+        <f t="shared" si="14"/>
         <v>580.66666666666663</v>
       </c>
-      <c r="AH13" s="21">
-        <f>IF(SUM(C13,F13,I13)&gt;0,AA13/AC13,"")</f>
+      <c r="AI13" s="21">
+        <f t="shared" si="15"/>
         <v>1.7637001315212626</v>
       </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="16"/>
+        <v>580.66666666666674</v>
+      </c>
+      <c r="AL13" s="21">
+        <f t="shared" si="17"/>
+        <v>2.9059080962800876</v>
+      </c>
+      <c r="AM13" s="35">
+        <f t="shared" si="18"/>
+        <v>0.38855421686746988</v>
+      </c>
+      <c r="AN13" s="35">
+        <f t="shared" si="19"/>
+        <v>0.61144578313253017</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Basics</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2401,60 +2736,84 @@
         <v>0</v>
       </c>
       <c r="T14" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="10">
-        <f>AVERAGE(C14,F14,I14)</f>
         <v>437.33333333333331</v>
       </c>
       <c r="V14" s="9">
-        <f>AVERAGE(D14,G14,J14)</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="W14" s="9">
-        <f>AVERAGE(E14,H14,K14)</f>
+        <f t="shared" si="2"/>
         <v>604</v>
       </c>
       <c r="X14" s="2">
-        <f>STDEVA(C14,F14,I14)</f>
+        <f t="shared" si="3"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y14" s="2">
-        <f>STDEVA(D14,G14,J14)</f>
+        <f t="shared" si="4"/>
         <v>13.114877048604001</v>
       </c>
       <c r="Z14" s="2">
-        <f>STDEVA(E14,H14,K14)</f>
+        <f t="shared" si="5"/>
         <v>18.193405398660254</v>
       </c>
       <c r="AA14" s="9">
-        <f>AVERAGE(C14+D14+E14,F14+G14+H14,I14+J14+K14)</f>
+        <f t="shared" si="6"/>
         <v>1399.3333333333333</v>
       </c>
       <c r="AB14" s="2">
-        <f>STDEVA(C14+D14+E14,F14+G14+H14,I14+J14+K14)</f>
+        <f t="shared" si="7"/>
         <v>29.143323992525858</v>
       </c>
       <c r="AC14" s="9">
-        <f>AVERAGE(L14:N14)</f>
+        <f t="shared" si="8"/>
         <v>734.33333333333337</v>
       </c>
       <c r="AD14" s="2">
-        <f>STDEVA(L14:N14)</f>
+        <f t="shared" si="9"/>
         <v>16.010413278030438</v>
       </c>
-      <c r="AE14" s="2"/>
-      <c r="AG14" s="1">
-        <f>IF(SUM(C14,F14,I14)&gt;0,AA14-AC14,"-")</f>
+      <c r="AE14" s="2">
+        <f t="shared" si="12"/>
+        <v>297.00000000000006</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="13"/>
+        <v>962</v>
+      </c>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="1">
+        <f t="shared" si="14"/>
         <v>664.99999999999989</v>
       </c>
-      <c r="AH14" s="21">
-        <f>IF(SUM(C14,F14,I14)&gt;0,AA14/AC14,"")</f>
+      <c r="AI14" s="21">
+        <f t="shared" si="15"/>
         <v>1.9055832955061278</v>
       </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="16"/>
+        <v>665</v>
+      </c>
+      <c r="AL14" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2390572390572383</v>
+      </c>
+      <c r="AM14" s="35">
+        <f t="shared" si="18"/>
+        <v>0.37214137214137216</v>
+      </c>
+      <c r="AN14" s="35">
+        <f t="shared" si="19"/>
+        <v>0.62785862785862789</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>62</v>
       </c>
@@ -2513,60 +2872,84 @@
         <v>47</v>
       </c>
       <c r="T15" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="10">
-        <f>AVERAGE(C15,F15,I15)</f>
         <v>432</v>
       </c>
       <c r="V15" s="9">
-        <f>AVERAGE(D15,G15,J15)</f>
+        <f t="shared" si="1"/>
         <v>268.33333333333331</v>
       </c>
       <c r="W15" s="9">
-        <f>AVERAGE(E15,H15,K15)</f>
+        <f t="shared" si="2"/>
         <v>312.33333333333331</v>
       </c>
       <c r="X15" s="2">
-        <f>STDEVA(C15,F15,I15)</f>
+        <f t="shared" si="3"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Y15" s="2">
-        <f>STDEVA(D15,G15,J15)</f>
+        <f t="shared" si="4"/>
         <v>4.0414518843273806</v>
       </c>
       <c r="Z15" s="2">
-        <f>STDEVA(E15,H15,K15)</f>
+        <f t="shared" si="5"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="AA15" s="9">
-        <f>AVERAGE(C15+D15+E15,F15+G15+H15,I15+J15+K15)</f>
+        <f t="shared" si="6"/>
         <v>1012.6666666666666</v>
       </c>
       <c r="AB15" s="2">
-        <f>STDEVA(C15+D15+E15,F15+G15+H15,I15+J15+K15)</f>
+        <f t="shared" si="7"/>
         <v>11.372481406154654</v>
       </c>
       <c r="AC15" s="9">
-        <f>AVERAGE(L15:N15)</f>
+        <f t="shared" si="8"/>
         <v>591.33333333333337</v>
       </c>
       <c r="AD15" s="2">
-        <f>STDEVA(L15:N15)</f>
+        <f t="shared" si="9"/>
         <v>2.5166114784235836</v>
       </c>
-      <c r="AE15" s="2"/>
-      <c r="AG15" s="1">
-        <f>IF(SUM(C15,F15,I15)&gt;0,AA15-AC15,"-")</f>
+      <c r="AE15" s="2">
+        <f t="shared" si="12"/>
+        <v>159.33333333333337</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="13"/>
+        <v>580.66666666666663</v>
+      </c>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="1">
+        <f t="shared" si="14"/>
         <v>421.33333333333326</v>
       </c>
-      <c r="AH15" s="21">
-        <f>IF(SUM(C15,F15,I15)&gt;0,AA15/AC15,"")</f>
+      <c r="AI15" s="21">
+        <f t="shared" si="15"/>
         <v>1.7125140924464486</v>
       </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="16"/>
+        <v>421.33333333333326</v>
+      </c>
+      <c r="AL15" s="21">
+        <f t="shared" si="17"/>
+        <v>3.6443514644351453</v>
+      </c>
+      <c r="AM15" s="35">
+        <f t="shared" si="18"/>
+        <v>0.46211251435132034</v>
+      </c>
+      <c r="AN15" s="35">
+        <f t="shared" si="19"/>
+        <v>0.53788748564867972</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f>A$15</f>
         <v>Branching</v>
@@ -2594,62 +2977,86 @@
         <v>45</v>
       </c>
       <c r="T16" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="10" t="e">
-        <f>AVERAGE(C16,F16,I16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="9" t="e">
-        <f>AVERAGE(D16,G16,J16)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W16" s="9" t="e">
-        <f>AVERAGE(E16,H16,K16)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X16" s="2" t="e">
-        <f>STDEVA(C16,F16,I16)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y16" s="2" t="e">
-        <f>STDEVA(D16,G16,J16)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="2" t="e">
-        <f>STDEVA(E16,H16,K16)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA16" s="9">
-        <f>AVERAGE(C16+D16+E16,F16+G16+H16,I16+J16+K16)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <f>STDEVA(C16+D16+E16,F16+G16+H16,I16+J16+K16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC16" s="9" t="e">
-        <f>AVERAGE(L16:N16)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD16" s="2" t="e">
-        <f>STDEVA(L16:N16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="2"/>
-      <c r="AG16" s="1" t="str">
-        <f>IF(SUM(C16,F16,I16)&gt;0,AA16-AC16,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH16" s="21" t="str">
-        <f>IF(SUM(C16,F16,I16)&gt;0,AA16/AC16,"")</f>
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF16" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI16" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK16" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL16" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM16" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN16" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
-        <f t="shared" ref="A17:A22" si="2">A$15</f>
+        <f t="shared" ref="A17:A22" si="21">A$15</f>
         <v>Branching</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2707,62 +3114,86 @@
         <v>47</v>
       </c>
       <c r="T17" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="10">
-        <f>AVERAGE(C17,F17,I17)</f>
         <v>516</v>
       </c>
       <c r="V17" s="9">
-        <f>AVERAGE(D17,G17,J17)</f>
+        <f t="shared" si="1"/>
         <v>359.33333333333331</v>
       </c>
       <c r="W17" s="9">
-        <f>AVERAGE(E17,H17,K17)</f>
+        <f t="shared" si="2"/>
         <v>437.66666666666669</v>
       </c>
       <c r="X17" s="2">
-        <f>STDEVA(C17,F17,I17)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="Y17" s="2">
-        <f>STDEVA(D17,G17,J17)</f>
+        <f t="shared" si="4"/>
         <v>15.50268793897798</v>
       </c>
       <c r="Z17" s="2">
-        <f>STDEVA(E17,H17,K17)</f>
+        <f t="shared" si="5"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="AA17" s="9">
-        <f>AVERAGE(C17+D17+E17,F17+G17+H17,I17+J17+K17)</f>
+        <f t="shared" si="6"/>
         <v>1313</v>
       </c>
       <c r="AB17" s="2">
-        <f>STDEVA(C17+D17+E17,F17+G17+H17,I17+J17+K17)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AC17" s="9">
-        <f>AVERAGE(L17:N17)</f>
+        <f t="shared" si="8"/>
         <v>864.66666666666663</v>
       </c>
       <c r="AD17" s="2">
-        <f>STDEVA(L17:N17)</f>
+        <f t="shared" si="9"/>
         <v>24.006943440041116</v>
       </c>
-      <c r="AE17" s="2"/>
-      <c r="AG17" s="1">
-        <f>IF(SUM(C17,F17,I17)&gt;0,AA17-AC17,"-")</f>
+      <c r="AE17" s="2">
+        <f t="shared" si="12"/>
+        <v>348.66666666666663</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="13"/>
+        <v>797</v>
+      </c>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="1">
+        <f t="shared" si="14"/>
         <v>448.33333333333337</v>
       </c>
-      <c r="AH17" s="21">
-        <f>IF(SUM(C17,F17,I17)&gt;0,AA17/AC17,"")</f>
+      <c r="AI17" s="21">
+        <f t="shared" si="15"/>
         <v>1.5185042405551272</v>
       </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="16"/>
+        <v>448.33333333333337</v>
+      </c>
+      <c r="AL17" s="21">
+        <f t="shared" si="17"/>
+        <v>2.2858508604206502</v>
+      </c>
+      <c r="AM17" s="35">
+        <f t="shared" si="18"/>
+        <v>0.45085738184859891</v>
+      </c>
+      <c r="AN17" s="35">
+        <f t="shared" si="19"/>
+        <v>0.54914261815140109</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>Branching</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2817,62 +3248,86 @@
         <v>0</v>
       </c>
       <c r="T18" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="10">
-        <f>AVERAGE(C18,F18,I18)</f>
         <v>510</v>
       </c>
       <c r="V18" s="9">
-        <f>AVERAGE(D18,G18,J18)</f>
+        <f t="shared" si="1"/>
         <v>354</v>
       </c>
       <c r="W18" s="9">
-        <f>AVERAGE(E18,H18,K18)</f>
+        <f t="shared" si="2"/>
         <v>703</v>
       </c>
       <c r="X18" s="2">
-        <f>STDEVA(C18,F18,I18)</f>
+        <f t="shared" si="3"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Y18" s="2">
-        <f>STDEVA(D18,G18,J18)</f>
+        <f t="shared" si="4"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Z18" s="2">
-        <f>STDEVA(E18,H18,K18)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA18" s="9">
-        <f>AVERAGE(C18+D18+E18,F18+G18+H18,I18+J18+K18)</f>
+        <f t="shared" si="6"/>
         <v>1567</v>
       </c>
       <c r="AB18" s="2">
-        <f>STDEVA(C18+D18+E18,F18+G18+H18,I18+J18+K18)</f>
+        <f t="shared" si="7"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="AC18" s="9">
-        <f>AVERAGE(L18:N18)</f>
+        <f t="shared" si="8"/>
         <v>906.33333333333337</v>
       </c>
       <c r="AD18" s="2">
-        <f>STDEVA(L18:N18)</f>
+        <f t="shared" si="9"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AE18" s="2"/>
-      <c r="AG18" s="1">
-        <f>IF(SUM(C18,F18,I18)&gt;0,AA18-AC18,"-")</f>
+      <c r="AE18" s="2">
+        <f t="shared" si="12"/>
+        <v>396.33333333333337</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="13"/>
+        <v>1057</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="1">
+        <f t="shared" si="14"/>
         <v>660.66666666666663</v>
       </c>
-      <c r="AH18" s="21">
-        <f>IF(SUM(C18,F18,I18)&gt;0,AA18/AC18,"")</f>
+      <c r="AI18" s="21">
+        <f t="shared" si="15"/>
         <v>1.7289444648767929</v>
       </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="16"/>
+        <v>660.66666666666663</v>
+      </c>
+      <c r="AL18" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6669470142977287</v>
+      </c>
+      <c r="AM18" s="35">
+        <f t="shared" si="18"/>
+        <v>0.33491012298959316</v>
+      </c>
+      <c r="AN18" s="35">
+        <f t="shared" si="19"/>
+        <v>0.66508987701040678</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>Branching</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2904,62 +3359,86 @@
         <v>36</v>
       </c>
       <c r="T19" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="10" t="e">
-        <f>AVERAGE(C19,F19,I19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V19" s="9" t="e">
-        <f>AVERAGE(D19,G19,J19)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W19" s="9" t="e">
-        <f>AVERAGE(E19,H19,K19)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X19" s="2" t="e">
-        <f>STDEVA(C19,F19,I19)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y19" s="2" t="e">
-        <f>STDEVA(D19,G19,J19)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z19" s="2" t="e">
-        <f>STDEVA(E19,H19,K19)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA19" s="9">
-        <f>AVERAGE(C19+D19+E19,F19+G19+H19,I19+J19+K19)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB19" s="2">
-        <f>STDEVA(C19+D19+E19,F19+G19+H19,I19+J19+K19)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC19" s="9">
-        <f>AVERAGE(L19:N19)</f>
+        <f t="shared" si="8"/>
         <v>661.66666666666663</v>
       </c>
       <c r="AD19" s="2">
-        <f>STDEVA(L19:N19)</f>
+        <f t="shared" si="9"/>
         <v>8.9628864398325021</v>
       </c>
-      <c r="AE19" s="2"/>
-      <c r="AG19" s="1" t="str">
-        <f>IF(SUM(C19,F19,I19)&gt;0,AA19-AC19,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH19" s="21" t="str">
-        <f>IF(SUM(C19,F19,I19)&gt;0,AA19/AC19,"")</f>
+      <c r="AE19" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF19" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI19" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK19" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL19" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM19" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN19" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>Branching</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2991,62 +3470,86 @@
         <v>36</v>
       </c>
       <c r="T20" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="10" t="e">
-        <f>AVERAGE(C20,F20,I20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V20" s="9" t="e">
-        <f>AVERAGE(D20,G20,J20)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W20" s="9" t="e">
-        <f>AVERAGE(E20,H20,K20)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X20" s="2" t="e">
-        <f>STDEVA(C20,F20,I20)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y20" s="2" t="e">
-        <f>STDEVA(D20,G20,J20)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z20" s="2" t="e">
-        <f>STDEVA(E20,H20,K20)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA20" s="9">
-        <f>AVERAGE(C20+D20+E20,F20+G20+H20,I20+J20+K20)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB20" s="2">
-        <f>STDEVA(C20+D20+E20,F20+G20+H20,I20+J20+K20)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC20" s="9">
-        <f>AVERAGE(L20:N20)</f>
+        <f t="shared" si="8"/>
         <v>795.66666666666663</v>
       </c>
       <c r="AD20" s="2">
-        <f>STDEVA(L20:N20)</f>
+        <f t="shared" si="9"/>
         <v>17.473789896108212</v>
       </c>
-      <c r="AE20" s="2"/>
-      <c r="AG20" s="1" t="str">
-        <f>IF(SUM(C20,F20,I20)&gt;0,AA20-AC20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH20" s="21" t="str">
-        <f>IF(SUM(C20,F20,I20)&gt;0,AA20/AC20,"")</f>
+      <c r="AE20" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF20" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI20" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK20" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL20" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM20" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN20" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>Branching</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3101,62 +3604,86 @@
         <v>0</v>
       </c>
       <c r="T21" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
-        <f>AVERAGE(C21,F21,I21)</f>
         <v>401</v>
       </c>
       <c r="V21" s="9">
-        <f>AVERAGE(D21,G21,J21)</f>
+        <f t="shared" si="1"/>
         <v>240.33333333333334</v>
       </c>
       <c r="W21" s="9">
-        <f>AVERAGE(E21,H21,K21)</f>
+        <f t="shared" si="2"/>
         <v>349.33333333333331</v>
       </c>
       <c r="X21" s="2">
-        <f>STDEVA(C21,F21,I21)</f>
+        <f t="shared" si="3"/>
         <v>18.193405398660254</v>
       </c>
       <c r="Y21" s="2">
-        <f>STDEVA(D21,G21,J21)</f>
+        <f t="shared" si="4"/>
         <v>8.5049005481153817</v>
       </c>
       <c r="Z21" s="2">
-        <f>STDEVA(E21,H21,K21)</f>
+        <f t="shared" si="5"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA21" s="9">
-        <f>AVERAGE(C21+D21+E21,F21+G21+H21,I21+J21+K21)</f>
+        <f t="shared" si="6"/>
         <v>990.66666666666663</v>
       </c>
       <c r="AB21" s="2">
-        <f>STDEVA(C21+D21+E21,F21+G21+H21,I21+J21+K21)</f>
+        <f t="shared" si="7"/>
         <v>18.823743871327334</v>
       </c>
       <c r="AC21" s="9">
-        <f>AVERAGE(L21:N21)</f>
+        <f t="shared" si="8"/>
         <v>584</v>
       </c>
       <c r="AD21" s="2">
-        <f>STDEVA(L21:N21)</f>
+        <f t="shared" si="9"/>
         <v>10.583005244258363</v>
       </c>
-      <c r="AE21" s="2"/>
-      <c r="AG21" s="1">
-        <f>IF(SUM(C21,F21,I21)&gt;0,AA21-AC21,"-")</f>
+      <c r="AE21" s="2">
+        <f t="shared" si="12"/>
+        <v>183</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="13"/>
+        <v>589.66666666666663</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="1">
+        <f t="shared" si="14"/>
         <v>406.66666666666663</v>
       </c>
-      <c r="AH21" s="21">
-        <f>IF(SUM(C21,F21,I21)&gt;0,AA21/AC21,"")</f>
+      <c r="AI21" s="21">
+        <f t="shared" si="15"/>
         <v>1.6963470319634704</v>
       </c>
+      <c r="AK21" s="1">
+        <f t="shared" si="16"/>
+        <v>406.66666666666663</v>
+      </c>
+      <c r="AL21" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2222222222222219</v>
+      </c>
+      <c r="AM21" s="35">
+        <f t="shared" si="18"/>
+        <v>0.4075749010740532</v>
+      </c>
+      <c r="AN21" s="35">
+        <f t="shared" si="19"/>
+        <v>0.59242509892594686</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>Branching</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3211,60 +3738,84 @@
         <v>0</v>
       </c>
       <c r="T22" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
-        <f>AVERAGE(C22,F22,I22)</f>
         <v>412.33333333333331</v>
       </c>
       <c r="V22" s="9">
-        <f>AVERAGE(D22,G22,J22)</f>
+        <f t="shared" si="1"/>
         <v>273.66666666666669</v>
       </c>
       <c r="W22" s="9">
-        <f>AVERAGE(E22,H22,K22)</f>
+        <f t="shared" si="2"/>
         <v>460</v>
       </c>
       <c r="X22" s="2">
-        <f>STDEVA(C22,F22,I22)</f>
+        <f t="shared" si="3"/>
         <v>3.214550253664318</v>
       </c>
       <c r="Y22" s="2">
-        <f>STDEVA(D22,G22,J22)</f>
+        <f t="shared" si="4"/>
         <v>3.7859388972001824</v>
       </c>
       <c r="Z22" s="2">
-        <f>STDEVA(E22,H22,K22)</f>
+        <f t="shared" si="5"/>
         <v>6.2449979983983983</v>
       </c>
       <c r="AA22" s="9">
-        <f>AVERAGE(C22+D22+E22,F22+G22+H22,I22+J22+K22)</f>
+        <f t="shared" si="6"/>
         <v>1146</v>
       </c>
       <c r="AB22" s="2">
-        <f>STDEVA(C22+D22+E22,F22+G22+H22,I22+J22+K22)</f>
+        <f t="shared" si="7"/>
         <v>13.228756555322953</v>
       </c>
       <c r="AC22" s="9">
-        <f>AVERAGE(L22:N22)</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
       <c r="AD22" s="2">
-        <f>STDEVA(L22:N22)</f>
+        <f t="shared" si="9"/>
         <v>9.5393920141694561</v>
       </c>
-      <c r="AE22" s="2"/>
-      <c r="AG22" s="1">
-        <f>IF(SUM(C22,F22,I22)&gt;0,AA22-AC22,"-")</f>
+      <c r="AE22" s="2">
+        <f t="shared" si="12"/>
+        <v>160.66666666666669</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="13"/>
+        <v>733.66666666666674</v>
+      </c>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="1">
+        <f t="shared" si="14"/>
         <v>573</v>
       </c>
-      <c r="AH22" s="21">
-        <f>IF(SUM(C22,F22,I22)&gt;0,AA22/AC22,"")</f>
+      <c r="AI22" s="21">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
+      <c r="AK22" s="1">
+        <f t="shared" si="16"/>
+        <v>573</v>
+      </c>
+      <c r="AL22" s="21">
+        <f t="shared" si="17"/>
+        <v>4.5663900414937757</v>
+      </c>
+      <c r="AM22" s="35">
+        <f t="shared" si="18"/>
+        <v>0.37301226715129487</v>
+      </c>
+      <c r="AN22" s="35">
+        <f t="shared" si="19"/>
+        <v>0.62698773284870501</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>61</v>
       </c>
@@ -3297,60 +3848,84 @@
         <v>35</v>
       </c>
       <c r="T23" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="10" t="e">
-        <f>AVERAGE(C23,F23,I23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V23" s="9" t="e">
-        <f>AVERAGE(D23,G23,J23)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W23" s="9" t="e">
-        <f>AVERAGE(E23,H23,K23)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X23" s="2" t="e">
-        <f>STDEVA(C23,F23,I23)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y23" s="2" t="e">
-        <f>STDEVA(D23,G23,J23)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z23" s="2" t="e">
-        <f>STDEVA(E23,H23,K23)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="9">
-        <f>AVERAGE(C23+D23+E23,F23+G23+H23,I23+J23+K23)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB23" s="2">
-        <f>STDEVA(C23+D23+E23,F23+G23+H23,I23+J23+K23)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC23" s="9">
-        <f>AVERAGE(L23:N23)</f>
+        <f t="shared" si="8"/>
         <v>1333.3333333333333</v>
       </c>
       <c r="AD23" s="2">
-        <f>STDEVA(L23:N23)</f>
+        <f t="shared" si="9"/>
         <v>24.440403706431148</v>
       </c>
-      <c r="AE23" s="2"/>
-      <c r="AG23" s="1" t="str">
-        <f>IF(SUM(C23,F23,I23)&gt;0,AA23-AC23,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH23" s="21" t="str">
-        <f>IF(SUM(C23,F23,I23)&gt;0,AA23/AC23,"")</f>
+      <c r="AE23" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF23" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI23" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK23" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL23" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM23" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN23" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f>A$23</f>
         <v>ForkJoin</v>
@@ -3407,62 +3982,86 @@
         <v>0</v>
       </c>
       <c r="T24" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="10">
-        <f>AVERAGE(C24,F24,I24)</f>
         <v>359.66666666666669</v>
       </c>
       <c r="V24" s="9">
-        <f>AVERAGE(D24,G24,J24)</f>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="W24" s="9">
-        <f>AVERAGE(E24,H24,K24)</f>
+        <f t="shared" si="2"/>
         <v>536.66666666666663</v>
       </c>
       <c r="X24" s="2">
-        <f>STDEVA(C24,F24,I24)</f>
+        <f t="shared" si="3"/>
         <v>15.50268793897798</v>
       </c>
       <c r="Y24" s="2">
-        <f>STDEVA(D24,G24,J24)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <f>STDEVA(E24,H24,K24)</f>
+        <f t="shared" si="5"/>
         <v>8.0829037686547611</v>
       </c>
       <c r="AA24" s="9">
-        <f>AVERAGE(C24+D24+E24,F24+G24+H24,I24+J24+K24)</f>
+        <f t="shared" si="6"/>
         <v>1193.3333333333333</v>
       </c>
       <c r="AB24" s="2">
-        <f>STDEVA(C24+D24+E24,F24+G24+H24,I24+J24+K24)</f>
+        <f t="shared" si="7"/>
         <v>9.2915732431775684</v>
       </c>
       <c r="AC24" s="9">
-        <f>AVERAGE(L24:N24)</f>
+        <f t="shared" si="8"/>
         <v>546.66666666666663</v>
       </c>
       <c r="AD24" s="2">
-        <f>STDEVA(L24:N24)</f>
+        <f t="shared" si="9"/>
         <v>27.135462651912409</v>
       </c>
-      <c r="AE24" s="2"/>
-      <c r="AG24" s="1">
-        <f>IF(SUM(C24,F24,I24)&gt;0,AA24-AC24,"-")</f>
+      <c r="AE24" s="2">
+        <f t="shared" si="12"/>
+        <v>186.99999999999994</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="13"/>
+        <v>833.66666666666663</v>
+      </c>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="1">
+        <f t="shared" si="14"/>
         <v>646.66666666666663</v>
       </c>
-      <c r="AH24" s="21">
-        <f>IF(SUM(C24,F24,I24)&gt;0,AA24/AC24,"")</f>
+      <c r="AI24" s="21">
+        <f t="shared" si="15"/>
         <v>2.1829268292682928</v>
       </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="16"/>
+        <v>646.66666666666674</v>
+      </c>
+      <c r="AL24" s="21">
+        <f t="shared" si="17"/>
+        <v>4.4581105169340471</v>
+      </c>
+      <c r="AM24" s="35">
+        <f t="shared" si="18"/>
+        <v>0.35625749700119952</v>
+      </c>
+      <c r="AN24" s="35">
+        <f t="shared" si="19"/>
+        <v>0.64374250299880043</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
-        <f t="shared" ref="A25:A28" si="3">A$23</f>
+        <f t="shared" ref="A25:A28" si="22">A$23</f>
         <v>ForkJoin</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -3520,62 +4119,86 @@
         <v>47</v>
       </c>
       <c r="T25" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U25" s="10">
-        <f>AVERAGE(C25,F25,I25)</f>
         <v>474.33333333333331</v>
       </c>
       <c r="V25" s="9">
-        <f>AVERAGE(D25,G25,J25)</f>
+        <f t="shared" si="1"/>
         <v>425.33333333333331</v>
       </c>
       <c r="W25" s="9">
-        <f>AVERAGE(E25,H25,K25)</f>
+        <f t="shared" si="2"/>
         <v>922</v>
       </c>
       <c r="X25" s="2">
-        <f>STDEVA(C25,F25,I25)</f>
+        <f t="shared" si="3"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Y25" s="2">
-        <f>STDEVA(D25,G25,J25)</f>
+        <f t="shared" si="4"/>
         <v>24.378952670968726</v>
       </c>
       <c r="Z25" s="2">
-        <f>STDEVA(E25,H25,K25)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA25" s="9">
-        <f>AVERAGE(C25+D25+E25,F25+G25+H25,I25+J25+K25)</f>
+        <f t="shared" si="6"/>
         <v>1821.6666666666667</v>
       </c>
       <c r="AB25" s="2">
-        <f>STDEVA(C25+D25+E25,F25+G25+H25,I25+J25+K25)</f>
+        <f t="shared" si="7"/>
         <v>23.028967265887832</v>
       </c>
       <c r="AC25" s="9">
-        <f>AVERAGE(L25:N25)</f>
+        <f t="shared" si="8"/>
         <v>760.66666666666663</v>
       </c>
       <c r="AD25" s="2">
-        <f>STDEVA(L25:N25)</f>
+        <f t="shared" si="9"/>
         <v>23.459184413217208</v>
       </c>
-      <c r="AE25" s="2"/>
-      <c r="AG25" s="1">
-        <f>IF(SUM(C25,F25,I25)&gt;0,AA25-AC25,"-")</f>
+      <c r="AE25" s="2">
+        <f t="shared" si="12"/>
+        <v>286.33333333333331</v>
+      </c>
+      <c r="AF25" s="2">
+        <f t="shared" si="13"/>
+        <v>1347.3333333333333</v>
+      </c>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="1">
+        <f t="shared" si="14"/>
         <v>1061</v>
       </c>
-      <c r="AH25" s="21">
-        <f>IF(SUM(C25,F25,I25)&gt;0,AA25/AC25,"")</f>
+      <c r="AI25" s="21">
+        <f t="shared" si="15"/>
         <v>2.3948290972830852</v>
       </c>
+      <c r="AK25" s="1">
+        <f t="shared" si="16"/>
+        <v>1061</v>
+      </c>
+      <c r="AL25" s="21">
+        <f t="shared" si="17"/>
+        <v>4.7054714784633296</v>
+      </c>
+      <c r="AM25" s="35">
+        <f t="shared" si="18"/>
+        <v>0.31568530430479963</v>
+      </c>
+      <c r="AN25" s="35">
+        <f t="shared" si="19"/>
+        <v>0.68431469569520043</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>ForkJoin</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -3630,62 +4253,86 @@
         <v>0</v>
       </c>
       <c r="T26" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="10">
-        <f>AVERAGE(C26,F26,I26)</f>
         <v>474</v>
       </c>
       <c r="V26" s="9">
-        <f>AVERAGE(D26,G26,J26)</f>
+        <f t="shared" si="1"/>
         <v>382.66666666666669</v>
       </c>
       <c r="W26" s="9">
-        <f>AVERAGE(E26,H26,K26)</f>
+        <f t="shared" si="2"/>
         <v>740</v>
       </c>
       <c r="X26" s="2">
-        <f>STDEVA(C26,F26,I26)</f>
+        <f t="shared" si="3"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Y26" s="2">
-        <f>STDEVA(D26,G26,J26)</f>
+        <f t="shared" si="4"/>
         <v>13.279056191361391</v>
       </c>
       <c r="Z26" s="2">
-        <f>STDEVA(E26,H26,K26)</f>
+        <f t="shared" si="5"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA26" s="9">
-        <f>AVERAGE(C26+D26+E26,F26+G26+H26,I26+J26+K26)</f>
+        <f t="shared" si="6"/>
         <v>1596.6666666666667</v>
       </c>
       <c r="AB26" s="2">
-        <f>STDEVA(C26+D26+E26,F26+G26+H26,I26+J26+K26)</f>
+        <f t="shared" si="7"/>
         <v>15.947831618540915</v>
       </c>
       <c r="AC26" s="9">
-        <f>AVERAGE(L26:N26)</f>
+        <f t="shared" si="8"/>
         <v>674.33333333333337</v>
       </c>
       <c r="AD26" s="2">
-        <f>STDEVA(L26:N26)</f>
+        <f t="shared" si="9"/>
         <v>4.9328828623162471</v>
       </c>
-      <c r="AE26" s="2"/>
-      <c r="AG26" s="1">
-        <f>IF(SUM(C26,F26,I26)&gt;0,AA26-AC26,"-")</f>
+      <c r="AE26" s="2">
+        <f t="shared" si="12"/>
+        <v>200.33333333333337</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="13"/>
+        <v>1122.6666666666667</v>
+      </c>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="1">
+        <f t="shared" si="14"/>
         <v>922.33333333333337</v>
       </c>
-      <c r="AH26" s="21">
-        <f>IF(SUM(C26,F26,I26)&gt;0,AA26/AC26,"")</f>
+      <c r="AI26" s="21">
+        <f t="shared" si="15"/>
         <v>2.3677706376668315</v>
       </c>
+      <c r="AK26" s="1">
+        <f t="shared" si="16"/>
+        <v>922.33333333333337</v>
+      </c>
+      <c r="AL26" s="21">
+        <f t="shared" si="17"/>
+        <v>5.6039933444259562</v>
+      </c>
+      <c r="AM26" s="35">
+        <f t="shared" si="18"/>
+        <v>0.34085510688836101</v>
+      </c>
+      <c r="AN26" s="35">
+        <f t="shared" si="19"/>
+        <v>0.65914489311163893</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>ForkJoin</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -3740,62 +4387,86 @@
         <v>0</v>
       </c>
       <c r="T27" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="10">
-        <f>AVERAGE(C27,F27,I27)</f>
         <v>541.66666666666663</v>
       </c>
       <c r="V27" s="9">
-        <f>AVERAGE(D27,G27,J27)</f>
+        <f t="shared" si="1"/>
         <v>571.33333333333337</v>
       </c>
       <c r="W27" s="9">
-        <f>AVERAGE(E27,H27,K27)</f>
+        <f t="shared" si="2"/>
         <v>2145.6666666666665</v>
       </c>
       <c r="X27" s="2">
-        <f>STDEVA(C27,F27,I27)</f>
+        <f t="shared" si="3"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Y27" s="2">
-        <f>STDEVA(D27,G27,J27)</f>
+        <f t="shared" si="4"/>
         <v>15.30795000427338</v>
       </c>
       <c r="Z27" s="2">
-        <f>STDEVA(E27,H27,K27)</f>
+        <f t="shared" si="5"/>
         <v>17.897858344878397</v>
       </c>
       <c r="AA27" s="9">
-        <f>AVERAGE(C27+D27+E27,F27+G27+H27,I27+J27+K27)</f>
+        <f t="shared" si="6"/>
         <v>3258.6666666666665</v>
       </c>
       <c r="AB27" s="2">
-        <f>STDEVA(C27+D27+E27,F27+G27+H27,I27+J27+K27)</f>
+        <f t="shared" si="7"/>
         <v>29.704096238285612</v>
       </c>
       <c r="AC27" s="9">
-        <f>AVERAGE(L27:N27)</f>
+        <f t="shared" si="8"/>
         <v>1151.6666666666667</v>
       </c>
       <c r="AD27" s="2">
-        <f>STDEVA(L27:N27)</f>
+        <f t="shared" si="9"/>
         <v>17.616280348965084</v>
       </c>
-      <c r="AE27" s="2"/>
-      <c r="AG27" s="1">
-        <f>IF(SUM(C27,F27,I27)&gt;0,AA27-AC27,"-")</f>
+      <c r="AE27" s="2">
+        <f t="shared" si="12"/>
+        <v>610.00000000000011</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="13"/>
+        <v>2717</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="1">
+        <f t="shared" si="14"/>
         <v>2107</v>
       </c>
-      <c r="AH27" s="21">
-        <f>IF(SUM(C27,F27,I27)&gt;0,AA27/AC27,"")</f>
+      <c r="AI27" s="21">
+        <f t="shared" si="15"/>
         <v>2.8295224312590443</v>
       </c>
+      <c r="AK27" s="1">
+        <f t="shared" si="16"/>
+        <v>2107</v>
+      </c>
+      <c r="AL27" s="21">
+        <f t="shared" si="17"/>
+        <v>4.4540983606557365</v>
+      </c>
+      <c r="AM27" s="35">
+        <f t="shared" si="18"/>
+        <v>0.2102809471230524</v>
+      </c>
+      <c r="AN27" s="35">
+        <f t="shared" si="19"/>
+        <v>0.78971905287694755</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>ForkJoin</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -3850,60 +4521,84 @@
         <v>0</v>
       </c>
       <c r="T28" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="10">
-        <f>AVERAGE(C28,F28,I28)</f>
         <v>485.66666666666669</v>
       </c>
       <c r="V28" s="9">
-        <f>AVERAGE(D28,G28,J28)</f>
+        <f t="shared" si="1"/>
         <v>455.66666666666669</v>
       </c>
       <c r="W28" s="9">
-        <f>AVERAGE(E28,H28,K28)</f>
+        <f t="shared" si="2"/>
         <v>1672</v>
       </c>
       <c r="X28" s="2">
-        <f>STDEVA(C28,F28,I28)</f>
+        <f t="shared" si="3"/>
         <v>1.5275252316519465</v>
       </c>
       <c r="Y28" s="2">
-        <f>STDEVA(D28,G28,J28)</f>
+        <f t="shared" si="4"/>
         <v>10.785793124908958</v>
       </c>
       <c r="Z28" s="2">
-        <f>STDEVA(E28,H28,K28)</f>
+        <f t="shared" si="5"/>
         <v>41.388404173149752</v>
       </c>
       <c r="AA28" s="9">
-        <f>AVERAGE(C28+D28+E28,F28+G28+H28,I28+J28+K28)</f>
+        <f t="shared" si="6"/>
         <v>2613.3333333333335</v>
       </c>
       <c r="AB28" s="2">
-        <f>STDEVA(C28+D28+E28,F28+G28+H28,I28+J28+K28)</f>
+        <f t="shared" si="7"/>
         <v>50.242744086418426</v>
       </c>
       <c r="AC28" s="9">
-        <f>AVERAGE(L28:N28)</f>
+        <f t="shared" si="8"/>
         <v>708</v>
       </c>
       <c r="AD28" s="2">
-        <f>STDEVA(L28:N28)</f>
+        <f t="shared" si="9"/>
         <v>8.6602540378443873</v>
       </c>
-      <c r="AE28" s="2"/>
-      <c r="AG28" s="1">
-        <f>IF(SUM(C28,F28,I28)&gt;0,AA28-AC28,"-")</f>
+      <c r="AE28" s="2">
+        <f t="shared" si="12"/>
+        <v>222.33333333333331</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="13"/>
+        <v>2127.6666666666665</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="1">
+        <f t="shared" si="14"/>
         <v>1905.3333333333335</v>
       </c>
-      <c r="AH28" s="21">
-        <f>IF(SUM(C28,F28,I28)&gt;0,AA28/AC28,"")</f>
+      <c r="AI28" s="21">
+        <f t="shared" si="15"/>
         <v>3.6911487758945389</v>
       </c>
+      <c r="AK28" s="1">
+        <f t="shared" si="16"/>
+        <v>1905.3333333333333</v>
+      </c>
+      <c r="AL28" s="21">
+        <f t="shared" si="17"/>
+        <v>9.5697151424287856</v>
+      </c>
+      <c r="AM28" s="35">
+        <f t="shared" si="18"/>
+        <v>0.21416261945793516</v>
+      </c>
+      <c r="AN28" s="35">
+        <f t="shared" si="19"/>
+        <v>0.78583738054206487</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>60</v>
       </c>
@@ -3962,60 +4657,84 @@
         <v>47</v>
       </c>
       <c r="T29" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U29" s="10">
-        <f>AVERAGE(C29,F29,I29)</f>
         <v>584</v>
       </c>
       <c r="V29" s="9">
-        <f>AVERAGE(D29,G29,J29)</f>
+        <f t="shared" si="1"/>
         <v>692.66666666666663</v>
       </c>
       <c r="W29" s="9">
-        <f>AVERAGE(E29,H29,K29)</f>
+        <f t="shared" si="2"/>
         <v>4755</v>
       </c>
       <c r="X29" s="2">
-        <f>STDEVA(C29,F29,I29)</f>
+        <f t="shared" si="3"/>
         <v>8.717797887081348</v>
       </c>
       <c r="Y29" s="2">
-        <f>STDEVA(D29,G29,J29)</f>
+        <f t="shared" si="4"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Z29" s="2">
-        <f>STDEVA(E29,H29,K29)</f>
+        <f t="shared" si="5"/>
         <v>54.671747731346578</v>
       </c>
       <c r="AA29" s="9">
-        <f>AVERAGE(C29+D29+E29,F29+G29+H29,I29+J29+K29)</f>
+        <f t="shared" si="6"/>
         <v>6031.666666666667</v>
       </c>
       <c r="AB29" s="2">
-        <f>STDEVA(C29+D29+E29,F29+G29+H29,I29+J29+K29)</f>
+        <f t="shared" si="7"/>
         <v>62.010751755911919</v>
       </c>
       <c r="AC29" s="9">
-        <f>AVERAGE(L29:N29)</f>
+        <f t="shared" si="8"/>
         <v>1201</v>
       </c>
       <c r="AD29" s="2">
-        <f>STDEVA(L29:N29)</f>
+        <f t="shared" si="9"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="AE29" s="2"/>
-      <c r="AG29" s="1">
-        <f>IF(SUM(C29,F29,I29)&gt;0,AA29-AC29,"-")</f>
+      <c r="AE29" s="2">
+        <f t="shared" si="12"/>
+        <v>617</v>
+      </c>
+      <c r="AF29" s="2">
+        <f t="shared" si="13"/>
+        <v>5447.666666666667</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="1">
+        <f t="shared" si="14"/>
         <v>4830.666666666667</v>
       </c>
-      <c r="AH29" s="21">
-        <f>IF(SUM(C29,F29,I29)&gt;0,AA29/AC29,"")</f>
+      <c r="AI29" s="21">
+        <f t="shared" si="15"/>
         <v>5.0222037191229534</v>
       </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="16"/>
+        <v>4830.666666666667</v>
+      </c>
+      <c r="AL29" s="21">
+        <f t="shared" si="17"/>
+        <v>8.8292814694759603</v>
+      </c>
+      <c r="AM29" s="35">
+        <f t="shared" si="18"/>
+        <v>0.12714923820595972</v>
+      </c>
+      <c r="AN29" s="35">
+        <f t="shared" si="19"/>
+        <v>0.8728507617940402</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f>A$29</f>
         <v>PermissionModel</v>
@@ -4075,62 +4794,86 @@
         <v>66</v>
       </c>
       <c r="T30" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U30" s="10">
-        <f>AVERAGE(C30,F30,I30)</f>
         <v>448</v>
       </c>
       <c r="V30" s="9">
-        <f>AVERAGE(D30,G30,J30)</f>
+        <f t="shared" si="1"/>
         <v>260.33333333333331</v>
       </c>
       <c r="W30" s="9">
-        <f>AVERAGE(E30,H30,K30)</f>
+        <f t="shared" si="2"/>
         <v>302.33333333333331</v>
       </c>
       <c r="X30" s="2">
-        <f>STDEVA(C30,F30,I30)</f>
+        <f t="shared" si="3"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Y30" s="2">
-        <f>STDEVA(D30,G30,J30)</f>
+        <f t="shared" si="4"/>
         <v>17.897858344878397</v>
       </c>
       <c r="Z30" s="2">
-        <f>STDEVA(E30,H30,K30)</f>
+        <f t="shared" si="5"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA30" s="9">
-        <f>AVERAGE(C30+D30+E30,F30+G30+H30,I30+J30+K30)</f>
+        <f t="shared" si="6"/>
         <v>1010.6666666666666</v>
       </c>
       <c r="AB30" s="2">
-        <f>STDEVA(C30+D30+E30,F30+G30+H30,I30+J30+K30)</f>
+        <f t="shared" si="7"/>
         <v>8.3864970836060841</v>
       </c>
       <c r="AC30" s="9">
-        <f>AVERAGE(L30:N30)</f>
+        <f t="shared" si="8"/>
         <v>651</v>
       </c>
       <c r="AD30" s="2">
-        <f>STDEVA(L30:N30)</f>
+        <f t="shared" si="9"/>
         <v>8.6602540378443873</v>
       </c>
-      <c r="AE30" s="2"/>
-      <c r="AG30" s="1">
-        <f>IF(SUM(C30,F30,I30)&gt;0,AA30-AC30,"-")</f>
+      <c r="AE30" s="2">
+        <f t="shared" si="12"/>
+        <v>203</v>
+      </c>
+      <c r="AF30" s="2">
+        <f t="shared" si="13"/>
+        <v>562.66666666666663</v>
+      </c>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="1">
+        <f t="shared" si="14"/>
         <v>359.66666666666663</v>
       </c>
-      <c r="AH30" s="21">
-        <f>IF(SUM(C30,F30,I30)&gt;0,AA30/AC30,"")</f>
+      <c r="AI30" s="21">
+        <f t="shared" si="15"/>
         <v>1.5524833589349718</v>
       </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="16"/>
+        <v>359.66666666666663</v>
+      </c>
+      <c r="AL30" s="21">
+        <f t="shared" si="17"/>
+        <v>2.7717569786535301</v>
+      </c>
+      <c r="AM30" s="35">
+        <f t="shared" si="18"/>
+        <v>0.46267772511848343</v>
+      </c>
+      <c r="AN30" s="35">
+        <f t="shared" si="19"/>
+        <v>0.53732227488151663</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
-        <f t="shared" ref="A31:A35" si="4">A$29</f>
+        <f t="shared" ref="A31:A35" si="23">A$29</f>
         <v>PermissionModel</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -4156,62 +4899,86 @@
         <v>68</v>
       </c>
       <c r="T31" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="10" t="e">
-        <f>AVERAGE(C31,F31,I31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V31" s="9" t="e">
-        <f>AVERAGE(D31,G31,J31)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W31" s="9" t="e">
-        <f>AVERAGE(E31,H31,K31)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X31" s="2" t="e">
-        <f>STDEVA(C31,F31,I31)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y31" s="2" t="e">
-        <f>STDEVA(D31,G31,J31)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z31" s="2" t="e">
-        <f>STDEVA(E31,H31,K31)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="9">
-        <f>AVERAGE(C31+D31+E31,F31+G31+H31,I31+J31+K31)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB31" s="2">
-        <f>STDEVA(C31+D31+E31,F31+G31+H31,I31+J31+K31)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC31" s="9" t="e">
-        <f>AVERAGE(L31:N31)</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31" s="2" t="e">
-        <f>STDEVA(L31:N31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE31" s="2"/>
-      <c r="AG31" s="1" t="str">
-        <f>IF(SUM(C31,F31,I31)&gt;0,AA31-AC31,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH31" s="21" t="str">
-        <f>IF(SUM(C31,F31,I31)&gt;0,AA31/AC31,"")</f>
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE31" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF31" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI31" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK31" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL31" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM31" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN31" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>PermissionModel</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -4266,62 +5033,86 @@
         <v>0</v>
       </c>
       <c r="T32" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="10">
-        <f>AVERAGE(C32,F32,I32)</f>
         <v>523.66666666666663</v>
       </c>
       <c r="V32" s="9">
-        <f>AVERAGE(D32,G32,J32)</f>
+        <f t="shared" si="1"/>
         <v>443.33333333333331</v>
       </c>
       <c r="W32" s="9">
-        <f>AVERAGE(E32,H32,K32)</f>
+        <f t="shared" si="2"/>
         <v>698</v>
       </c>
       <c r="X32" s="2">
-        <f>STDEVA(C32,F32,I32)</f>
+        <f t="shared" si="3"/>
         <v>20.599352740640501</v>
       </c>
       <c r="Y32" s="2">
-        <f>STDEVA(D32,G32,J32)</f>
+        <f t="shared" si="4"/>
         <v>69.716090921202067</v>
       </c>
       <c r="Z32" s="2">
-        <f>STDEVA(E32,H32,K32)</f>
+        <f t="shared" si="5"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="AA32" s="9">
-        <f>AVERAGE(C32+D32+E32,F32+G32+H32,I32+J32+K32)</f>
+        <f t="shared" si="6"/>
         <v>1665</v>
       </c>
       <c r="AB32" s="2">
-        <f>STDEVA(C32+D32+E32,F32+G32+H32,I32+J32+K32)</f>
+        <f t="shared" si="7"/>
         <v>67.734776887504395</v>
       </c>
       <c r="AC32" s="9">
-        <f>AVERAGE(L32:N32)</f>
+        <f t="shared" si="8"/>
         <v>818</v>
       </c>
       <c r="AD32" s="2">
-        <f>STDEVA(L32:N32)</f>
+        <f t="shared" si="9"/>
         <v>5.5677643628300215</v>
       </c>
-      <c r="AE32" s="2"/>
-      <c r="AG32" s="1">
-        <f>IF(SUM(C32,F32,I32)&gt;0,AA32-AC32,"-")</f>
+      <c r="AE32" s="2">
+        <f t="shared" si="12"/>
+        <v>294.33333333333337</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" si="13"/>
+        <v>1141.3333333333333</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="1">
+        <f t="shared" si="14"/>
         <v>847</v>
       </c>
-      <c r="AH32" s="21">
-        <f>IF(SUM(C32,F32,I32)&gt;0,AA32/AC32,"")</f>
+      <c r="AI32" s="21">
+        <f t="shared" si="15"/>
         <v>2.0354523227383865</v>
       </c>
+      <c r="AK32" s="1">
+        <f t="shared" si="16"/>
+        <v>846.99999999999989</v>
+      </c>
+      <c r="AL32" s="21">
+        <f t="shared" si="17"/>
+        <v>3.8776896942242347</v>
+      </c>
+      <c r="AM32" s="35">
+        <f t="shared" si="18"/>
+        <v>0.38843457943925236</v>
+      </c>
+      <c r="AN32" s="35">
+        <f t="shared" si="19"/>
+        <v>0.6115654205607477</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>PermissionModel</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -4379,62 +5170,86 @@
         <v>71</v>
       </c>
       <c r="T33" s="20">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="10">
-        <f>AVERAGE(C33,F33,I33)</f>
         <v>536.66666666666663</v>
       </c>
       <c r="V33" s="9">
-        <f>AVERAGE(D33,G33,J33)</f>
+        <f t="shared" si="1"/>
         <v>390.66666666666669</v>
       </c>
       <c r="W33" s="9">
-        <f>AVERAGE(E33,H33,K33)</f>
+        <f t="shared" si="2"/>
         <v>833.33333333333337</v>
       </c>
       <c r="X33" s="2">
-        <f>STDEVA(C33,F33,I33)</f>
+        <f t="shared" si="3"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Y33" s="2">
-        <f>STDEVA(D33,G33,J33)</f>
+        <f t="shared" si="4"/>
         <v>16.010413278030438</v>
       </c>
       <c r="Z33" s="2">
-        <f>STDEVA(E33,H33,K33)</f>
+        <f t="shared" si="5"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA33" s="9">
-        <f>AVERAGE(C33+D33+E33,F33+G33+H33,I33+J33+K33)</f>
+        <f t="shared" si="6"/>
         <v>1760.6666666666667</v>
       </c>
       <c r="AB33" s="2">
-        <f>STDEVA(C33+D33+E33,F33+G33+H33,I33+J33+K33)</f>
+        <f t="shared" si="7"/>
         <v>9.2915732431775684</v>
       </c>
       <c r="AC33" s="9">
-        <f>AVERAGE(L33:N33)</f>
+        <f t="shared" si="8"/>
         <v>1229</v>
       </c>
       <c r="AD33" s="2">
-        <f>STDEVA(L33:N33)</f>
+        <f t="shared" si="9"/>
         <v>8.6602540378443873</v>
       </c>
-      <c r="AE33" s="2"/>
-      <c r="AG33" s="1">
-        <f>IF(SUM(C33,F33,I33)&gt;0,AA33-AC33,"-")</f>
+      <c r="AE33" s="2">
+        <f t="shared" si="12"/>
+        <v>692.33333333333337</v>
+      </c>
+      <c r="AF33" s="2">
+        <f t="shared" si="13"/>
+        <v>1224</v>
+      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="1">
+        <f t="shared" si="14"/>
         <v>531.66666666666674</v>
       </c>
-      <c r="AH33" s="21">
-        <f>IF(SUM(C33,F33,I33)&gt;0,AA33/AC33,"")</f>
+      <c r="AI33" s="21">
+        <f t="shared" si="15"/>
         <v>1.4326010306482235</v>
       </c>
+      <c r="AK33" s="1">
+        <f t="shared" si="16"/>
+        <v>531.66666666666663</v>
+      </c>
+      <c r="AL33" s="21">
+        <f t="shared" si="17"/>
+        <v>1.7679345209436688</v>
+      </c>
+      <c r="AM33" s="35">
+        <f t="shared" si="18"/>
+        <v>0.31917211328976036</v>
+      </c>
+      <c r="AN33" s="35">
+        <f t="shared" si="19"/>
+        <v>0.68082788671023964</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>PermissionModel</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -4489,62 +5304,86 @@
         <v>0</v>
       </c>
       <c r="T34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U34" s="10">
-        <f>AVERAGE(C34,F34,I34)</f>
+        <f t="shared" ref="U34:U70" si="24">AVERAGE(C34,F34,I34)</f>
         <v>521</v>
       </c>
       <c r="V34" s="9">
-        <f>AVERAGE(D34,G34,J34)</f>
+        <f t="shared" ref="V34:V70" si="25">AVERAGE(D34,G34,J34)</f>
         <v>354</v>
       </c>
       <c r="W34" s="9">
-        <f>AVERAGE(E34,H34,K34)</f>
+        <f t="shared" ref="W34:W70" si="26">AVERAGE(E34,H34,K34)</f>
         <v>692.66666666666663</v>
       </c>
       <c r="X34" s="2">
-        <f>STDEVA(C34,F34,I34)</f>
+        <f t="shared" ref="X34:X70" si="27">STDEVA(C34,F34,I34)</f>
         <v>8.6602540378443873</v>
       </c>
       <c r="Y34" s="2">
-        <f>STDEVA(D34,G34,J34)</f>
+        <f t="shared" ref="Y34:Y70" si="28">STDEVA(D34,G34,J34)</f>
         <v>8.6602540378443873</v>
       </c>
       <c r="Z34" s="2">
-        <f>STDEVA(E34,H34,K34)</f>
+        <f t="shared" ref="Z34:Z70" si="29">STDEVA(E34,H34,K34)</f>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA34" s="9">
-        <f>AVERAGE(C34+D34+E34,F34+G34+H34,I34+J34+K34)</f>
+        <f t="shared" ref="AA34:AA70" si="30">AVERAGE(C34+D34+E34,F34+G34+H34,I34+J34+K34)</f>
         <v>1567.6666666666667</v>
       </c>
       <c r="AB34" s="2">
-        <f>STDEVA(C34+D34+E34,F34+G34+H34,I34+J34+K34)</f>
+        <f t="shared" ref="AB34:AB70" si="31">STDEVA(C34+D34+E34,F34+G34+H34,I34+J34+K34)</f>
         <v>23.35237318418266</v>
       </c>
       <c r="AC34" s="9">
-        <f>AVERAGE(L34:N34)</f>
+        <f t="shared" ref="AC34:AC70" si="32">AVERAGE(L34:N34)</f>
         <v>916.33333333333337</v>
       </c>
       <c r="AD34" s="2">
-        <f>STDEVA(L34:N34)</f>
+        <f t="shared" ref="AD34:AD70" si="33">STDEVA(L34:N34)</f>
         <v>17.897858344878401</v>
       </c>
-      <c r="AE34" s="2"/>
-      <c r="AG34" s="1">
-        <f>IF(SUM(C34,F34,I34)&gt;0,AA34-AC34,"-")</f>
+      <c r="AE34" s="2">
+        <f t="shared" si="12"/>
+        <v>395.33333333333337</v>
+      </c>
+      <c r="AF34" s="2">
+        <f t="shared" si="13"/>
+        <v>1046.6666666666665</v>
+      </c>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="1">
+        <f t="shared" si="14"/>
         <v>651.33333333333337</v>
       </c>
-      <c r="AH34" s="21">
-        <f>IF(SUM(C34,F34,I34)&gt;0,AA34/AC34,"")</f>
+      <c r="AI34" s="21">
+        <f t="shared" si="15"/>
         <v>1.7108039287013459</v>
       </c>
+      <c r="AK34" s="1">
+        <f t="shared" si="16"/>
+        <v>651.33333333333314</v>
+      </c>
+      <c r="AL34" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6475548060708256</v>
+      </c>
+      <c r="AM34" s="35">
+        <f t="shared" si="18"/>
+        <v>0.33821656050955418</v>
+      </c>
+      <c r="AN34" s="35">
+        <f t="shared" si="19"/>
+        <v>0.66178343949044593</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>PermissionModel</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -4570,60 +5409,84 @@
         <v>68</v>
       </c>
       <c r="T35" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U35" s="10" t="e">
-        <f>AVERAGE(C35,F35,I35)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="9" t="e">
-        <f>AVERAGE(D35,G35,J35)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="9" t="e">
-        <f>AVERAGE(E35,H35,K35)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X35" s="2" t="e">
-        <f>STDEVA(C35,F35,I35)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y35" s="2" t="e">
-        <f>STDEVA(D35,G35,J35)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z35" s="2" t="e">
-        <f>STDEVA(E35,H35,K35)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="9">
-        <f>AVERAGE(C35+D35+E35,F35+G35+H35,I35+J35+K35)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <f>STDEVA(C35+D35+E35,F35+G35+H35,I35+J35+K35)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC35" s="9" t="e">
-        <f>AVERAGE(L35:N35)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD35" s="2" t="e">
-        <f>STDEVA(L35:N35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE35" s="2"/>
-      <c r="AG35" s="1" t="str">
-        <f>IF(SUM(C35,F35,I35)&gt;0,AA35-AC35,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH35" s="21" t="str">
-        <f>IF(SUM(C35,F35,I35)&gt;0,AA35/AC35,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE35" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF35" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI35" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK35" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL35" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM35" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN35" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
@@ -4679,60 +5542,84 @@
         <v>0</v>
       </c>
       <c r="T36" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U36" s="10">
-        <f>AVERAGE(C36,F36,I36)</f>
+        <f t="shared" si="24"/>
         <v>588.33333333333337</v>
       </c>
       <c r="V36" s="9">
-        <f>AVERAGE(D36,G36,J36)</f>
+        <f t="shared" si="25"/>
         <v>359</v>
       </c>
       <c r="W36" s="9">
-        <f>AVERAGE(E36,H36,K36)</f>
+        <f t="shared" si="26"/>
         <v>729.33333333333337</v>
       </c>
       <c r="X36" s="2">
-        <f>STDEVA(C36,F36,I36)</f>
+        <f t="shared" si="27"/>
         <v>17.897858344878401</v>
       </c>
       <c r="Y36" s="2">
-        <f>STDEVA(D36,G36,J36)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <f>STDEVA(E36,H36,K36)</f>
+        <f t="shared" si="29"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA36" s="9">
-        <f>AVERAGE(C36+D36+E36,F36+G36+H36,I36+J36+K36)</f>
+        <f t="shared" si="30"/>
         <v>1676.6666666666667</v>
       </c>
       <c r="AB36" s="2">
-        <f>STDEVA(C36+D36+E36,F36+G36+H36,I36+J36+K36)</f>
+        <f t="shared" si="31"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AC36" s="9">
-        <f>AVERAGE(L36:N36)</f>
+        <f t="shared" si="32"/>
         <v>1479.3333333333333</v>
       </c>
       <c r="AD36" s="2">
-        <f>STDEVA(L36:N36)</f>
+        <f t="shared" si="33"/>
         <v>8.9628864398325021</v>
       </c>
-      <c r="AE36" s="2"/>
-      <c r="AG36" s="1">
-        <f>IF(SUM(C36,F36,I36)&gt;0,AA36-AC36,"-")</f>
+      <c r="AE36" s="2">
+        <f t="shared" si="12"/>
+        <v>890.99999999999989</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="13"/>
+        <v>1088.3333333333335</v>
+      </c>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="1">
+        <f t="shared" si="14"/>
         <v>197.33333333333348</v>
       </c>
-      <c r="AH36" s="21">
-        <f>IF(SUM(C36,F36,I36)&gt;0,AA36/AC36,"")</f>
+      <c r="AI36" s="21">
+        <f t="shared" si="15"/>
         <v>1.1333934204596667</v>
       </c>
+      <c r="AK36" s="1">
+        <f t="shared" si="16"/>
+        <v>197.3333333333336</v>
+      </c>
+      <c r="AL36" s="21">
+        <f t="shared" si="17"/>
+        <v>1.2214739992517774</v>
+      </c>
+      <c r="AM36" s="35">
+        <f t="shared" si="18"/>
+        <v>0.32986217457886674</v>
+      </c>
+      <c r="AN36" s="35">
+        <f t="shared" si="19"/>
+        <v>0.6701378254211332</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f>A$36</f>
         <v>Heaps</v>
@@ -4792,62 +5679,86 @@
         <v>77</v>
       </c>
       <c r="T37" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U37" s="10">
-        <f>AVERAGE(C37,F37,I37)</f>
+        <f t="shared" si="24"/>
         <v>579.66666666666663</v>
       </c>
       <c r="V37" s="9">
-        <f>AVERAGE(D37,G37,J37)</f>
+        <f t="shared" si="25"/>
         <v>336</v>
       </c>
       <c r="W37" s="9">
-        <f>AVERAGE(E37,H37,K37)</f>
+        <f t="shared" si="26"/>
         <v>514.66666666666663</v>
       </c>
       <c r="X37" s="2">
-        <f>STDEVA(C37,F37,I37)</f>
+        <f t="shared" si="27"/>
         <v>29.005746557076122</v>
       </c>
       <c r="Y37" s="2">
-        <f>STDEVA(D37,G37,J37)</f>
+        <f t="shared" si="28"/>
         <v>12.124355652982141</v>
       </c>
       <c r="Z37" s="2">
-        <f>STDEVA(E37,H37,K37)</f>
+        <f t="shared" si="29"/>
         <v>15.56705923844749</v>
       </c>
       <c r="AA37" s="9">
-        <f>AVERAGE(C37+D37+E37,F37+G37+H37,I37+J37+K37)</f>
+        <f t="shared" si="30"/>
         <v>1430.3333333333333</v>
       </c>
       <c r="AB37" s="2">
-        <f>STDEVA(C37+D37+E37,F37+G37+H37,I37+J37+K37)</f>
+        <f t="shared" si="31"/>
         <v>49.034001808269061</v>
       </c>
       <c r="AC37" s="9">
-        <f>AVERAGE(L37:N37)</f>
+        <f t="shared" si="32"/>
         <v>1139</v>
       </c>
       <c r="AD37" s="2">
-        <f>STDEVA(L37:N37)</f>
+        <f t="shared" si="33"/>
         <v>12.165525060596439</v>
       </c>
-      <c r="AE37" s="2"/>
-      <c r="AG37" s="1">
-        <f>IF(SUM(C37,F37,I37)&gt;0,AA37-AC37,"-")</f>
+      <c r="AE37" s="2">
+        <f t="shared" si="12"/>
+        <v>559.33333333333337</v>
+      </c>
+      <c r="AF37" s="2">
+        <f t="shared" si="13"/>
+        <v>850.66666666666663</v>
+      </c>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="1">
+        <f t="shared" si="14"/>
         <v>291.33333333333326</v>
       </c>
-      <c r="AH37" s="21">
-        <f>IF(SUM(C37,F37,I37)&gt;0,AA37/AC37,"")</f>
+      <c r="AI37" s="21">
+        <f t="shared" si="15"/>
         <v>1.2557799239098624</v>
       </c>
+      <c r="AK37" s="1">
+        <f t="shared" si="16"/>
+        <v>291.33333333333326</v>
+      </c>
+      <c r="AL37" s="21">
+        <f t="shared" si="17"/>
+        <v>1.5208581644815256</v>
+      </c>
+      <c r="AM37" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39498432601880878</v>
+      </c>
+      <c r="AN37" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60501567398119116</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
-        <f t="shared" ref="A38:A50" si="5">A$36</f>
+        <f t="shared" ref="A38:A50" si="34">A$36</f>
         <v>Heaps</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -4902,62 +5813,86 @@
         <v>0</v>
       </c>
       <c r="T38" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U38" s="10">
-        <f>AVERAGE(C38,F38,I38)</f>
+        <f t="shared" si="24"/>
         <v>458.33333333333331</v>
       </c>
       <c r="V38" s="9">
-        <f>AVERAGE(D38,G38,J38)</f>
+        <f t="shared" si="25"/>
         <v>255.33333333333334</v>
       </c>
       <c r="W38" s="9">
-        <f>AVERAGE(E38,H38,K38)</f>
+        <f t="shared" si="26"/>
         <v>322.66666666666669</v>
       </c>
       <c r="X38" s="2">
-        <f>STDEVA(C38,F38,I38)</f>
+        <f t="shared" si="27"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Y38" s="2">
-        <f>STDEVA(D38,G38,J38)</f>
+        <f t="shared" si="28"/>
         <v>9.2376043070340117</v>
       </c>
       <c r="Z38" s="2">
-        <f>STDEVA(E38,H38,K38)</f>
+        <f t="shared" si="29"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA38" s="9">
-        <f>AVERAGE(C38+D38+E38,F38+G38+H38,I38+J38+K38)</f>
+        <f t="shared" si="30"/>
         <v>1036.3333333333333</v>
       </c>
       <c r="AB38" s="2">
-        <f>STDEVA(C38+D38+E38,F38+G38+H38,I38+J38+K38)</f>
+        <f t="shared" si="31"/>
         <v>9.2376043070340117</v>
       </c>
       <c r="AC38" s="9">
-        <f>AVERAGE(L38:N38)</f>
+        <f t="shared" si="32"/>
         <v>672</v>
       </c>
       <c r="AD38" s="2">
-        <f>STDEVA(L38:N38)</f>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="AE38" s="2"/>
-      <c r="AG38" s="1">
-        <f>IF(SUM(C38,F38,I38)&gt;0,AA38-AC38,"-")</f>
+      <c r="AE38" s="2">
+        <f t="shared" si="12"/>
+        <v>213.66666666666669</v>
+      </c>
+      <c r="AF38" s="2">
+        <f t="shared" si="13"/>
+        <v>578</v>
+      </c>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="1">
+        <f t="shared" si="14"/>
         <v>364.33333333333326</v>
       </c>
-      <c r="AH38" s="21">
-        <f>IF(SUM(C38,F38,I38)&gt;0,AA38/AC38,"")</f>
+      <c r="AI38" s="21">
+        <f t="shared" si="15"/>
         <v>1.5421626984126984</v>
       </c>
+      <c r="AK38" s="1">
+        <f t="shared" si="16"/>
+        <v>364.33333333333331</v>
+      </c>
+      <c r="AL38" s="21">
+        <f t="shared" si="17"/>
+        <v>2.705148205928237</v>
+      </c>
+      <c r="AM38" s="35">
+        <f t="shared" si="18"/>
+        <v>0.4417531718569781</v>
+      </c>
+      <c r="AN38" s="35">
+        <f t="shared" si="19"/>
+        <v>0.55824682814302196</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -5015,62 +5950,86 @@
         <v>91</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U39" s="10">
-        <f>AVERAGE(C39,F39,I39)</f>
+        <f t="shared" si="24"/>
         <v>476.33333333333331</v>
       </c>
       <c r="V39" s="9">
-        <f>AVERAGE(D39,G39,J39)</f>
+        <f t="shared" si="25"/>
         <v>276.33333333333331</v>
       </c>
       <c r="W39" s="9">
-        <f>AVERAGE(E39,H39,K39)</f>
+        <f t="shared" si="26"/>
         <v>478.33333333333331</v>
       </c>
       <c r="X39" s="2">
-        <f>STDEVA(C39,F39,I39)</f>
+        <f t="shared" si="27"/>
         <v>1.5275252316519465</v>
       </c>
       <c r="Y39" s="2">
-        <f>STDEVA(D39,G39,J39)</f>
+        <f t="shared" si="28"/>
         <v>2.0816659994661326</v>
       </c>
       <c r="Z39" s="2">
-        <f>STDEVA(E39,H39,K39)</f>
+        <f t="shared" si="29"/>
         <v>8.3864970836060841</v>
       </c>
       <c r="AA39" s="9">
-        <f>AVERAGE(C39+D39+E39,F39+G39+H39,I39+J39+K39)</f>
+        <f t="shared" si="30"/>
         <v>1231</v>
       </c>
       <c r="AB39" s="2">
-        <f>STDEVA(C39+D39+E39,F39+G39+H39,I39+J39+K39)</f>
+        <f t="shared" si="31"/>
         <v>10.148891565092219</v>
       </c>
       <c r="AC39" s="9">
-        <f>AVERAGE(L39:N39)</f>
+        <f t="shared" si="32"/>
         <v>826</v>
       </c>
       <c r="AD39" s="2">
-        <f>STDEVA(L39:N39)</f>
+        <f t="shared" si="33"/>
         <v>11.532562594670797</v>
       </c>
-      <c r="AE39" s="2"/>
-      <c r="AG39" s="1">
-        <f>IF(SUM(C39,F39,I39)&gt;0,AA39-AC39,"-")</f>
+      <c r="AE39" s="2">
+        <f t="shared" si="12"/>
+        <v>349.66666666666669</v>
+      </c>
+      <c r="AF39" s="2">
+        <f t="shared" si="13"/>
+        <v>754.66666666666663</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="1">
+        <f t="shared" si="14"/>
         <v>405</v>
       </c>
-      <c r="AH39" s="21">
-        <f>IF(SUM(C39,F39,I39)&gt;0,AA39/AC39,"")</f>
+      <c r="AI39" s="21">
+        <f t="shared" si="15"/>
         <v>1.4903147699757868</v>
       </c>
+      <c r="AK39" s="1">
+        <f t="shared" si="16"/>
+        <v>404.99999999999994</v>
+      </c>
+      <c r="AL39" s="21">
+        <f t="shared" si="17"/>
+        <v>2.1582459485224019</v>
+      </c>
+      <c r="AM39" s="35">
+        <f t="shared" si="18"/>
+        <v>0.36616607773851589</v>
+      </c>
+      <c r="AN39" s="35">
+        <f t="shared" si="19"/>
+        <v>0.63383392226148405</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -5125,62 +6084,86 @@
         <v>0</v>
       </c>
       <c r="T40" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U40" s="10">
-        <f>AVERAGE(C40,F40,I40)</f>
+        <f t="shared" si="24"/>
         <v>487.33333333333331</v>
       </c>
       <c r="V40" s="9">
-        <f>AVERAGE(D40,G40,J40)</f>
+        <f t="shared" si="25"/>
         <v>303.33333333333331</v>
       </c>
       <c r="W40" s="9">
-        <f>AVERAGE(E40,H40,K40)</f>
+        <f t="shared" si="26"/>
         <v>415.33333333333331</v>
       </c>
       <c r="X40" s="2">
-        <f>STDEVA(C40,F40,I40)</f>
+        <f t="shared" si="27"/>
         <v>11.676186592091328</v>
       </c>
       <c r="Y40" s="2">
-        <f>STDEVA(D40,G40,J40)</f>
+        <f t="shared" si="28"/>
         <v>10.969655114602888</v>
       </c>
       <c r="Z40" s="2">
-        <f>STDEVA(E40,H40,K40)</f>
+        <f t="shared" si="29"/>
         <v>8.3266639978645323</v>
       </c>
       <c r="AA40" s="9">
-        <f>AVERAGE(C40+D40+E40,F40+G40+H40,I40+J40+K40)</f>
+        <f t="shared" si="30"/>
         <v>1206</v>
       </c>
       <c r="AB40" s="2">
-        <f>STDEVA(C40+D40+E40,F40+G40+H40,I40+J40+K40)</f>
+        <f t="shared" si="31"/>
         <v>16.093476939431081</v>
       </c>
       <c r="AC40" s="9">
-        <f>AVERAGE(L40:N40)</f>
+        <f t="shared" si="32"/>
         <v>765.66666666666663</v>
       </c>
       <c r="AD40" s="2">
-        <f>STDEVA(L40:N40)</f>
+        <f t="shared" si="33"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AE40" s="2"/>
-      <c r="AG40" s="1">
-        <f>IF(SUM(C40,F40,I40)&gt;0,AA40-AC40,"-")</f>
+      <c r="AE40" s="2">
+        <f t="shared" si="12"/>
+        <v>278.33333333333331</v>
+      </c>
+      <c r="AF40" s="2">
+        <f t="shared" si="13"/>
+        <v>718.66666666666663</v>
+      </c>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="1">
+        <f t="shared" si="14"/>
         <v>440.33333333333337</v>
       </c>
-      <c r="AH40" s="21">
-        <f>IF(SUM(C40,F40,I40)&gt;0,AA40/AC40,"")</f>
+      <c r="AI40" s="21">
+        <f t="shared" si="15"/>
         <v>1.5750979538528516</v>
       </c>
+      <c r="AK40" s="1">
+        <f t="shared" si="16"/>
+        <v>440.33333333333331</v>
+      </c>
+      <c r="AL40" s="21">
+        <f t="shared" si="17"/>
+        <v>2.5820359281437124</v>
+      </c>
+      <c r="AM40" s="35">
+        <f t="shared" si="18"/>
+        <v>0.42207792207792205</v>
+      </c>
+      <c r="AN40" s="35">
+        <f t="shared" si="19"/>
+        <v>0.57792207792207795</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -5235,62 +6218,86 @@
         <v>0</v>
       </c>
       <c r="T41" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f>AVERAGE(C41,F41,I41)</f>
+        <f t="shared" si="24"/>
         <v>286.66666666666669</v>
       </c>
       <c r="V41" s="9">
-        <f>AVERAGE(D41,G41,J41)</f>
+        <f t="shared" si="25"/>
         <v>109.33333333333333</v>
       </c>
       <c r="W41" s="9">
-        <f>AVERAGE(E41,H41,K41)</f>
+        <f t="shared" si="26"/>
         <v>88.666666666666671</v>
       </c>
       <c r="X41" s="2">
-        <f>STDEVA(C41,F41,I41)</f>
+        <f t="shared" si="27"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Y41" s="2">
-        <f>STDEVA(D41,G41,J41)</f>
+        <f t="shared" si="28"/>
         <v>0.57735026918962573</v>
       </c>
       <c r="Z41" s="2">
-        <f>STDEVA(E41,H41,K41)</f>
+        <f t="shared" si="29"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA41" s="9">
-        <f>AVERAGE(C41+D41+E41,F41+G41+H41,I41+J41+K41)</f>
+        <f t="shared" si="30"/>
         <v>484.66666666666669</v>
       </c>
       <c r="AB41" s="2">
-        <f>STDEVA(C41+D41+E41,F41+G41+H41,I41+J41+K41)</f>
+        <f t="shared" si="31"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="AC41" s="9">
-        <f>AVERAGE(L41:N41)</f>
+        <f t="shared" si="32"/>
         <v>484</v>
       </c>
       <c r="AD41" s="2">
-        <f>STDEVA(L41:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="2"/>
-      <c r="AG41" s="1">
-        <f>IF(SUM(C41,F41,I41)&gt;0,AA41-AC41,"-")</f>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" si="12"/>
+        <v>197.33333333333331</v>
+      </c>
+      <c r="AF41" s="2">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="1">
+        <f t="shared" si="14"/>
         <v>0.66666666666668561</v>
       </c>
-      <c r="AH41" s="21">
-        <f>IF(SUM(C41,F41,I41)&gt;0,AA41/AC41,"")</f>
+      <c r="AI41" s="21">
+        <f t="shared" si="15"/>
         <v>1.0013774104683195</v>
       </c>
+      <c r="AK41" s="1">
+        <f t="shared" si="16"/>
+        <v>0.66666666666668561</v>
+      </c>
+      <c r="AL41" s="21">
+        <f t="shared" si="17"/>
+        <v>1.0033783783783785</v>
+      </c>
+      <c r="AM41" s="35">
+        <f t="shared" si="18"/>
+        <v>0.55218855218855212</v>
+      </c>
+      <c r="AN41" s="35">
+        <f t="shared" si="19"/>
+        <v>0.44781144781144783</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5345,62 +6352,86 @@
         <v>0</v>
       </c>
       <c r="T42" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U42" s="10">
-        <f>AVERAGE(C42,F42,I42)</f>
+        <f t="shared" si="24"/>
         <v>484.33333333333331</v>
       </c>
       <c r="V42" s="9">
-        <f>AVERAGE(D42,G42,J42)</f>
+        <f t="shared" si="25"/>
         <v>286.66666666666669</v>
       </c>
       <c r="W42" s="9">
-        <f>AVERAGE(E42,H42,K42)</f>
+        <f t="shared" si="26"/>
         <v>432.66666666666669</v>
       </c>
       <c r="X42" s="2">
-        <f>STDEVA(C42,F42,I42)</f>
+        <f t="shared" si="27"/>
         <v>27.42869543622761</v>
       </c>
       <c r="Y42" s="2">
-        <f>STDEVA(D42,G42,J42)</f>
+        <f t="shared" si="28"/>
         <v>24.006943440041116</v>
       </c>
       <c r="Z42" s="2">
-        <f>STDEVA(E42,H42,K42)</f>
+        <f t="shared" si="29"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA42" s="9">
-        <f>AVERAGE(C42+D42+E42,F42+G42+H42,I42+J42+K42)</f>
+        <f t="shared" si="30"/>
         <v>1203.6666666666667</v>
       </c>
       <c r="AB42" s="2">
-        <f>STDEVA(C42+D42+E42,F42+G42+H42,I42+J42+K42)</f>
+        <f t="shared" si="31"/>
         <v>56.862407030773269</v>
       </c>
       <c r="AC42" s="9">
-        <f>AVERAGE(L42:N42)</f>
+        <f t="shared" si="32"/>
         <v>708.33333333333337</v>
       </c>
       <c r="AD42" s="2">
-        <f>STDEVA(L42:N42)</f>
+        <f t="shared" si="33"/>
         <v>18.475208614068027</v>
       </c>
-      <c r="AE42" s="2"/>
-      <c r="AG42" s="1">
-        <f>IF(SUM(C42,F42,I42)&gt;0,AA42-AC42,"-")</f>
+      <c r="AE42" s="2">
+        <f t="shared" si="12"/>
+        <v>224.00000000000006</v>
+      </c>
+      <c r="AF42" s="2">
+        <f t="shared" si="13"/>
+        <v>719.33333333333337</v>
+      </c>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="1">
+        <f t="shared" si="14"/>
         <v>495.33333333333337</v>
       </c>
-      <c r="AH42" s="21">
-        <f>IF(SUM(C42,F42,I42)&gt;0,AA42/AC42,"")</f>
+      <c r="AI42" s="21">
+        <f t="shared" si="15"/>
         <v>1.6992941176470588</v>
       </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="16"/>
+        <v>495.33333333333331</v>
+      </c>
+      <c r="AL42" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2113095238095233</v>
+      </c>
+      <c r="AM42" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39851714550509731</v>
+      </c>
+      <c r="AN42" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60148285449490269</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -5455,62 +6486,86 @@
         <v>0</v>
       </c>
       <c r="T43" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U43" s="10">
-        <f>AVERAGE(C43,F43,I43)</f>
+        <f t="shared" si="24"/>
         <v>457</v>
       </c>
       <c r="V43" s="9">
-        <f>AVERAGE(D43,G43,J43)</f>
+        <f t="shared" si="25"/>
         <v>263.66666666666669</v>
       </c>
       <c r="W43" s="9">
-        <f>AVERAGE(E43,H43,K43)</f>
+        <f t="shared" si="26"/>
         <v>430.66666666666669</v>
       </c>
       <c r="X43" s="2">
-        <f>STDEVA(C43,F43,I43)</f>
+        <f t="shared" si="27"/>
         <v>9.8488578017961039</v>
       </c>
       <c r="Y43" s="2">
-        <f>STDEVA(D43,G43,J43)</f>
+        <f t="shared" si="28"/>
         <v>12.423096769056148</v>
       </c>
       <c r="Z43" s="2">
-        <f>STDEVA(E43,H43,K43)</f>
+        <f t="shared" si="29"/>
         <v>5.5075705472861021</v>
       </c>
       <c r="AA43" s="9">
-        <f>AVERAGE(C43+D43+E43,F43+G43+H43,I43+J43+K43)</f>
+        <f t="shared" si="30"/>
         <v>1151.3333333333333</v>
       </c>
       <c r="AB43" s="2">
-        <f>STDEVA(C43+D43+E43,F43+G43+H43,I43+J43+K43)</f>
+        <f t="shared" si="31"/>
         <v>19.857828011475309</v>
       </c>
       <c r="AC43" s="9">
-        <f>AVERAGE(L43:N43)</f>
+        <f t="shared" si="32"/>
         <v>621</v>
       </c>
       <c r="AD43" s="2">
-        <f>STDEVA(L43:N43)</f>
+        <f t="shared" si="33"/>
         <v>114.3153532995459</v>
       </c>
-      <c r="AE43" s="2"/>
-      <c r="AG43" s="1">
-        <f>IF(SUM(C43,F43,I43)&gt;0,AA43-AC43,"-")</f>
+      <c r="AE43" s="2">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="AF43" s="2">
+        <f t="shared" si="13"/>
+        <v>694.33333333333337</v>
+      </c>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="1">
+        <f t="shared" si="14"/>
         <v>530.33333333333326</v>
       </c>
-      <c r="AH43" s="21">
-        <f>IF(SUM(C43,F43,I43)&gt;0,AA43/AC43,"")</f>
+      <c r="AI43" s="21">
+        <f t="shared" si="15"/>
         <v>1.8539989264626944</v>
       </c>
+      <c r="AK43" s="1">
+        <f t="shared" si="16"/>
+        <v>530.33333333333337</v>
+      </c>
+      <c r="AL43" s="21">
+        <f t="shared" si="17"/>
+        <v>4.2337398373983746</v>
+      </c>
+      <c r="AM43" s="35">
+        <f t="shared" si="18"/>
+        <v>0.37974075852136341</v>
+      </c>
+      <c r="AN43" s="35">
+        <f t="shared" si="19"/>
+        <v>0.62025924147863654</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -5565,62 +6620,86 @@
         <v>0</v>
       </c>
       <c r="T44" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U44" s="10">
-        <f>AVERAGE(C44,F44,I44)</f>
+        <f t="shared" si="24"/>
         <v>511.33333333333331</v>
       </c>
       <c r="V44" s="9">
-        <f>AVERAGE(D44,G44,J44)</f>
+        <f t="shared" si="25"/>
         <v>384.66666666666669</v>
       </c>
       <c r="W44" s="9">
-        <f>AVERAGE(E44,H44,K44)</f>
+        <f t="shared" si="26"/>
         <v>761</v>
       </c>
       <c r="X44" s="2">
-        <f>STDEVA(C44,F44,I44)</f>
+        <f t="shared" si="27"/>
         <v>17.097758137642881</v>
       </c>
       <c r="Y44" s="2">
-        <f>STDEVA(D44,G44,J44)</f>
+        <f t="shared" si="28"/>
         <v>8.5049005481153834</v>
       </c>
       <c r="Z44" s="2">
-        <f>STDEVA(E44,H44,K44)</f>
+        <f t="shared" si="29"/>
         <v>7.810249675906654</v>
       </c>
       <c r="AA44" s="9">
-        <f>AVERAGE(C44+D44+E44,F44+G44+H44,I44+J44+K44)</f>
+        <f t="shared" si="30"/>
         <v>1657</v>
       </c>
       <c r="AB44" s="2">
-        <f>STDEVA(C44+D44+E44,F44+G44+H44,I44+J44+K44)</f>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="AC44" s="9">
-        <f>AVERAGE(L44:N44)</f>
+        <f t="shared" si="32"/>
         <v>864.33333333333337</v>
       </c>
       <c r="AD44" s="2">
-        <f>STDEVA(L44:N44)</f>
+        <f t="shared" si="33"/>
         <v>9.2376043070340135</v>
       </c>
-      <c r="AE44" s="2"/>
-      <c r="AG44" s="1">
-        <f>IF(SUM(C44,F44,I44)&gt;0,AA44-AC44,"-")</f>
+      <c r="AE44" s="2">
+        <f t="shared" si="12"/>
+        <v>353.00000000000006</v>
+      </c>
+      <c r="AF44" s="2">
+        <f t="shared" si="13"/>
+        <v>1145.6666666666667</v>
+      </c>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="1">
+        <f t="shared" si="14"/>
         <v>792.66666666666663</v>
       </c>
-      <c r="AH44" s="21">
-        <f>IF(SUM(C44,F44,I44)&gt;0,AA44/AC44,"")</f>
+      <c r="AI44" s="21">
+        <f t="shared" si="15"/>
         <v>1.9170844581565754</v>
       </c>
+      <c r="AK44" s="1">
+        <f t="shared" si="16"/>
+        <v>792.66666666666674</v>
+      </c>
+      <c r="AL44" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2455146364494802</v>
+      </c>
+      <c r="AM44" s="35">
+        <f t="shared" si="18"/>
+        <v>0.33575792842595287</v>
+      </c>
+      <c r="AN44" s="35">
+        <f t="shared" si="19"/>
+        <v>0.66424207157404713</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -5678,62 +6757,86 @@
         <v>86</v>
       </c>
       <c r="T45" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U45" s="10">
-        <f>AVERAGE(C45,F45,I45)</f>
+        <f t="shared" si="24"/>
         <v>509.33333333333331</v>
       </c>
       <c r="V45" s="9">
-        <f>AVERAGE(D45,G45,J45)</f>
+        <f t="shared" si="25"/>
         <v>392</v>
       </c>
       <c r="W45" s="9">
-        <f>AVERAGE(E45,H45,K45)</f>
+        <f t="shared" si="26"/>
         <v>875.66666666666663</v>
       </c>
       <c r="X45" s="2">
-        <f>STDEVA(C45,F45,I45)</f>
+        <f t="shared" si="27"/>
         <v>4.5092497528228943</v>
       </c>
       <c r="Y45" s="2">
-        <f>STDEVA(D45,G45,J45)</f>
+        <f t="shared" si="28"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Z45" s="2">
-        <f>STDEVA(E45,H45,K45)</f>
+        <f t="shared" si="29"/>
         <v>11.718930554164631</v>
       </c>
       <c r="AA45" s="9">
-        <f>AVERAGE(C45+D45+E45,F45+G45+H45,I45+J45+K45)</f>
+        <f t="shared" si="30"/>
         <v>1777</v>
       </c>
       <c r="AB45" s="2">
-        <f>STDEVA(C45+D45+E45,F45+G45+H45,I45+J45+K45)</f>
+        <f t="shared" si="31"/>
         <v>25.119713374160941</v>
       </c>
       <c r="AC45" s="9">
-        <f>AVERAGE(L45:N45)</f>
+        <f t="shared" si="32"/>
         <v>953.66666666666663</v>
       </c>
       <c r="AD45" s="2">
-        <f>STDEVA(L45:N45)</f>
+        <f t="shared" si="33"/>
         <v>8.7368949480541058</v>
       </c>
-      <c r="AE45" s="2"/>
-      <c r="AG45" s="1">
-        <f>IF(SUM(C45,F45,I45)&gt;0,AA45-AC45,"-")</f>
+      <c r="AE45" s="2">
+        <f t="shared" si="12"/>
+        <v>444.33333333333331</v>
+      </c>
+      <c r="AF45" s="2">
+        <f t="shared" si="13"/>
+        <v>1267.6666666666665</v>
+      </c>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="1">
+        <f t="shared" si="14"/>
         <v>823.33333333333337</v>
       </c>
-      <c r="AH45" s="21">
-        <f>IF(SUM(C45,F45,I45)&gt;0,AA45/AC45,"")</f>
+      <c r="AI45" s="21">
+        <f t="shared" si="15"/>
         <v>1.8633344984271234</v>
       </c>
+      <c r="AK45" s="1">
+        <f t="shared" si="16"/>
+        <v>823.33333333333326</v>
+      </c>
+      <c r="AL45" s="21">
+        <f t="shared" si="17"/>
+        <v>2.8529632408102024</v>
+      </c>
+      <c r="AM45" s="35">
+        <f t="shared" si="18"/>
+        <v>0.30922955561398902</v>
+      </c>
+      <c r="AN45" s="35">
+        <f t="shared" si="19"/>
+        <v>0.6907704443860111</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -5788,62 +6891,86 @@
         <v>0</v>
       </c>
       <c r="T46" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U46" s="10">
-        <f>AVERAGE(C46,F46,I46)</f>
+        <f t="shared" si="24"/>
         <v>448</v>
       </c>
       <c r="V46" s="9">
-        <f>AVERAGE(D46,G46,J46)</f>
+        <f t="shared" si="25"/>
         <v>299.66666666666669</v>
       </c>
       <c r="W46" s="9">
-        <f>AVERAGE(E46,H46,K46)</f>
+        <f t="shared" si="26"/>
         <v>468.66666666666669</v>
       </c>
       <c r="X46" s="2">
-        <f>STDEVA(C46,F46,I46)</f>
+        <f t="shared" si="27"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Y46" s="2">
-        <f>STDEVA(D46,G46,J46)</f>
+        <f t="shared" si="28"/>
         <v>10.969655114602888</v>
       </c>
       <c r="Z46" s="2">
-        <f>STDEVA(E46,H46,K46)</f>
+        <f t="shared" si="29"/>
         <v>15.50268793897798</v>
       </c>
       <c r="AA46" s="9">
-        <f>AVERAGE(C46+D46+E46,F46+G46+H46,I46+J46+K46)</f>
+        <f t="shared" si="30"/>
         <v>1216.3333333333333</v>
       </c>
       <c r="AB46" s="2">
-        <f>STDEVA(C46+D46+E46,F46+G46+H46,I46+J46+K46)</f>
+        <f t="shared" si="31"/>
         <v>13.576941236277534</v>
       </c>
       <c r="AC46" s="9">
-        <f>AVERAGE(L46:N46)</f>
+        <f t="shared" si="32"/>
         <v>672.33333333333337</v>
       </c>
       <c r="AD46" s="2">
-        <f>STDEVA(L46:N46)</f>
+        <f t="shared" si="33"/>
         <v>15.50268793897798</v>
       </c>
-      <c r="AE46" s="2"/>
-      <c r="AG46" s="1">
-        <f>IF(SUM(C46,F46,I46)&gt;0,AA46-AC46,"-")</f>
+      <c r="AE46" s="2">
+        <f t="shared" si="12"/>
+        <v>224.33333333333337</v>
+      </c>
+      <c r="AF46" s="2">
+        <f t="shared" si="13"/>
+        <v>768.33333333333337</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="1">
+        <f t="shared" si="14"/>
         <v>543.99999999999989</v>
       </c>
-      <c r="AH46" s="21">
-        <f>IF(SUM(C46,F46,I46)&gt;0,AA46/AC46,"")</f>
+      <c r="AI46" s="21">
+        <f t="shared" si="15"/>
         <v>1.8091224590976696</v>
       </c>
+      <c r="AK46" s="1">
+        <f t="shared" si="16"/>
+        <v>544</v>
+      </c>
+      <c r="AL46" s="21">
+        <f t="shared" si="17"/>
+        <v>3.4249628528974734</v>
+      </c>
+      <c r="AM46" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39002169197396963</v>
+      </c>
+      <c r="AN46" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60997830802603037</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -5898,62 +7025,86 @@
         <v>0</v>
       </c>
       <c r="T47" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U47" s="10">
-        <f>AVERAGE(C47,F47,I47)</f>
+        <f t="shared" si="24"/>
         <v>449.33333333333331</v>
       </c>
       <c r="V47" s="9">
-        <f>AVERAGE(D47,G47,J47)</f>
+        <f t="shared" si="25"/>
         <v>255.66666666666666</v>
       </c>
       <c r="W47" s="9">
-        <f>AVERAGE(E47,H47,K47)</f>
+        <f t="shared" si="26"/>
         <v>326</v>
       </c>
       <c r="X47" s="2">
-        <f>STDEVA(C47,F47,I47)</f>
+        <f t="shared" si="27"/>
         <v>8.3864970836060841</v>
       </c>
       <c r="Y47" s="2">
-        <f>STDEVA(D47,G47,J47)</f>
+        <f t="shared" si="28"/>
         <v>1.1547005383792515</v>
       </c>
       <c r="Z47" s="2">
-        <f>STDEVA(E47,H47,K47)</f>
+        <f t="shared" si="29"/>
         <v>1.7320508075688772</v>
       </c>
       <c r="AA47" s="9">
-        <f>AVERAGE(C47+D47+E47,F47+G47+H47,I47+J47+K47)</f>
+        <f t="shared" si="30"/>
         <v>1031</v>
       </c>
       <c r="AB47" s="2">
-        <f>STDEVA(C47+D47+E47,F47+G47+H47,I47+J47+K47)</f>
+        <f t="shared" si="31"/>
         <v>6.0827625302982193</v>
       </c>
       <c r="AC47" s="9">
-        <f>AVERAGE(L47:N47)</f>
+        <f t="shared" si="32"/>
         <v>656</v>
       </c>
       <c r="AD47" s="2">
-        <f>STDEVA(L47:N47)</f>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
-      <c r="AE47" s="2"/>
-      <c r="AG47" s="1">
-        <f>IF(SUM(C47,F47,I47)&gt;0,AA47-AC47,"-")</f>
+      <c r="AE47" s="2">
+        <f t="shared" si="12"/>
+        <v>206.66666666666669</v>
+      </c>
+      <c r="AF47" s="2">
+        <f t="shared" si="13"/>
+        <v>581.66666666666663</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="1">
+        <f t="shared" si="14"/>
         <v>375</v>
       </c>
-      <c r="AH47" s="21">
-        <f>IF(SUM(C47,F47,I47)&gt;0,AA47/AC47,"")</f>
+      <c r="AI47" s="21">
+        <f t="shared" si="15"/>
         <v>1.5716463414634145</v>
       </c>
+      <c r="AK47" s="1">
+        <f t="shared" si="16"/>
+        <v>374.99999999999994</v>
+      </c>
+      <c r="AL47" s="21">
+        <f t="shared" si="17"/>
+        <v>2.8145161290322576</v>
+      </c>
+      <c r="AM47" s="35">
+        <f t="shared" si="18"/>
+        <v>0.43954154727793698</v>
+      </c>
+      <c r="AN47" s="35">
+        <f t="shared" si="19"/>
+        <v>0.56045845272206307</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -5979,62 +7130,86 @@
         <v>68</v>
       </c>
       <c r="T48" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U48" s="10" t="e">
-        <f>AVERAGE(C48,F48,I48)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V48" s="9" t="e">
-        <f>AVERAGE(D48,G48,J48)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W48" s="9" t="e">
-        <f>AVERAGE(E48,H48,K48)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X48" s="2" t="e">
-        <f>STDEVA(C48,F48,I48)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y48" s="2" t="e">
-        <f>STDEVA(D48,G48,J48)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z48" s="2" t="e">
-        <f>STDEVA(E48,H48,K48)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA48" s="9">
-        <f>AVERAGE(C48+D48+E48,F48+G48+H48,I48+J48+K48)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB48" s="2">
-        <f>STDEVA(C48+D48+E48,F48+G48+H48,I48+J48+K48)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC48" s="9" t="e">
-        <f>AVERAGE(L48:N48)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD48" s="2" t="e">
-        <f>STDEVA(L48:N48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE48" s="2"/>
-      <c r="AG48" s="1" t="str">
-        <f>IF(SUM(C48,F48,I48)&gt;0,AA48-AC48,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH48" s="21" t="str">
-        <f>IF(SUM(C48,F48,I48)&gt;0,AA48/AC48,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE48" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF48" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI48" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK48" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL48" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM48" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN48" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -6092,62 +7267,86 @@
         <v>92</v>
       </c>
       <c r="T49" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U49" s="10">
-        <f>AVERAGE(C49,F49,I49)</f>
+        <f t="shared" si="24"/>
         <v>473.66666666666669</v>
       </c>
       <c r="V49" s="9">
-        <f>AVERAGE(D49,G49,J49)</f>
+        <f t="shared" si="25"/>
         <v>294</v>
       </c>
       <c r="W49" s="9">
-        <f>AVERAGE(E49,H49,K49)</f>
+        <f t="shared" si="26"/>
         <v>494</v>
       </c>
       <c r="X49" s="2">
-        <f>STDEVA(C49,F49,I49)</f>
+        <f t="shared" si="27"/>
         <v>3.7859388972001828</v>
       </c>
       <c r="Y49" s="2">
-        <f>STDEVA(D49,G49,J49)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Z49" s="2">
-        <f>STDEVA(E49,H49,K49)</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="AA49" s="9">
-        <f>AVERAGE(C49+D49+E49,F49+G49+H49,I49+J49+K49)</f>
+        <f t="shared" si="30"/>
         <v>1261.6666666666667</v>
       </c>
       <c r="AB49" s="2">
-        <f>STDEVA(C49+D49+E49,F49+G49+H49,I49+J49+K49)</f>
+        <f t="shared" si="31"/>
         <v>10.692676621563626</v>
       </c>
       <c r="AC49" s="9">
-        <f>AVERAGE(L49:N49)</f>
+        <f t="shared" si="32"/>
         <v>775.66666666666663</v>
       </c>
       <c r="AD49" s="2">
-        <f>STDEVA(L49:N49)</f>
+        <f t="shared" si="33"/>
         <v>14.364307617610162</v>
       </c>
-      <c r="AE49" s="2"/>
-      <c r="AG49" s="1">
-        <f>IF(SUM(C49,F49,I49)&gt;0,AA49-AC49,"-")</f>
+      <c r="AE49" s="2">
+        <f t="shared" si="12"/>
+        <v>301.99999999999994</v>
+      </c>
+      <c r="AF49" s="2">
+        <f t="shared" si="13"/>
+        <v>788</v>
+      </c>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="1">
+        <f t="shared" si="14"/>
         <v>486.00000000000011</v>
       </c>
-      <c r="AH49" s="21">
-        <f>IF(SUM(C49,F49,I49)&gt;0,AA49/AC49,"")</f>
+      <c r="AI49" s="21">
+        <f t="shared" si="15"/>
         <v>1.6265577997421574</v>
       </c>
+      <c r="AK49" s="1">
+        <f t="shared" si="16"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="AL49" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6092715231788084</v>
+      </c>
+      <c r="AM49" s="35">
+        <f t="shared" si="18"/>
+        <v>0.37309644670050762</v>
+      </c>
+      <c r="AN49" s="35">
+        <f t="shared" si="19"/>
+        <v>0.62690355329949243</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v>Heaps</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -6173,60 +7372,84 @@
         <v>68</v>
       </c>
       <c r="T50" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U50" s="10" t="e">
-        <f>AVERAGE(C50,F50,I50)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V50" s="9" t="e">
-        <f>AVERAGE(D50,G50,J50)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W50" s="9" t="e">
-        <f>AVERAGE(E50,H50,K50)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X50" s="2" t="e">
-        <f>STDEVA(C50,F50,I50)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y50" s="2" t="e">
-        <f>STDEVA(D50,G50,J50)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z50" s="2" t="e">
-        <f>STDEVA(E50,H50,K50)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA50" s="9">
-        <f>AVERAGE(C50+D50+E50,F50+G50+H50,I50+J50+K50)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB50" s="2">
-        <f>STDEVA(C50+D50+E50,F50+G50+H50,I50+J50+K50)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC50" s="9" t="e">
-        <f>AVERAGE(L50:N50)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD50" s="2" t="e">
-        <f>STDEVA(L50:N50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE50" s="2"/>
-      <c r="AG50" s="1" t="str">
-        <f>IF(SUM(C50,F50,I50)&gt;0,AA50-AC50,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH50" s="21" t="str">
-        <f>IF(SUM(C50,F50,I50)&gt;0,AA50/AC50,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE50" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF50" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI50" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK50" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL50" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM50" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN50" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>94</v>
       </c>
@@ -6282,60 +7505,84 @@
         <v>0</v>
       </c>
       <c r="T51" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U51" s="10">
-        <f>AVERAGE(C51,F51,I51)</f>
+        <f t="shared" si="24"/>
         <v>484.66666666666669</v>
       </c>
       <c r="V51" s="9">
-        <f>AVERAGE(D51,G51,J51)</f>
+        <f t="shared" si="25"/>
         <v>307.33333333333331</v>
       </c>
       <c r="W51" s="9">
-        <f>AVERAGE(E51,H51,K51)</f>
+        <f t="shared" si="26"/>
         <v>489.66666666666669</v>
       </c>
       <c r="X51" s="2">
-        <f>STDEVA(C51,F51,I51)</f>
+        <f t="shared" si="27"/>
         <v>27.135462651912412</v>
       </c>
       <c r="Y51" s="2">
-        <f>STDEVA(D51,G51,J51)</f>
+        <f t="shared" si="28"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Z51" s="2">
-        <f>STDEVA(E51,H51,K51)</f>
+        <f t="shared" si="29"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA51" s="9">
-        <f>AVERAGE(C51+D51+E51,F51+G51+H51,I51+J51+K51)</f>
+        <f t="shared" si="30"/>
         <v>1281.6666666666667</v>
       </c>
       <c r="AB51" s="2">
-        <f>STDEVA(C51+D51+E51,F51+G51+H51,I51+J51+K51)</f>
+        <f t="shared" si="31"/>
         <v>40.8207463593371</v>
       </c>
       <c r="AC51" s="9">
-        <f>AVERAGE(L51:N51)</f>
+        <f t="shared" si="32"/>
         <v>719</v>
       </c>
       <c r="AD51" s="2">
-        <f>STDEVA(L51:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="2"/>
-      <c r="AG51" s="1">
-        <f>IF(SUM(C51,F51,I51)&gt;0,AA51-AC51,"-")</f>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2">
+        <f t="shared" si="12"/>
+        <v>234.33333333333331</v>
+      </c>
+      <c r="AF51" s="2">
+        <f t="shared" si="13"/>
+        <v>797</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="1">
+        <f t="shared" si="14"/>
         <v>562.66666666666674</v>
       </c>
-      <c r="AH51" s="21">
-        <f>IF(SUM(C51,F51,I51)&gt;0,AA51/AC51,"")</f>
+      <c r="AI51" s="21">
+        <f t="shared" si="15"/>
         <v>1.7825683820120539</v>
       </c>
+      <c r="AK51" s="1">
+        <f t="shared" si="16"/>
+        <v>562.66666666666674</v>
+      </c>
+      <c r="AL51" s="21">
+        <f t="shared" si="17"/>
+        <v>3.4011379800853487</v>
+      </c>
+      <c r="AM51" s="35">
+        <f t="shared" si="18"/>
+        <v>0.38561271434546213</v>
+      </c>
+      <c r="AN51" s="35">
+        <f t="shared" si="19"/>
+        <v>0.61438728565453793</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f>A$51</f>
         <v>Monitors</v>
@@ -6369,62 +7616,86 @@
         <v>97</v>
       </c>
       <c r="T52" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U52" s="10" t="e">
-        <f>AVERAGE(C52,F52,I52)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V52" s="9" t="e">
-        <f>AVERAGE(D52,G52,J52)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W52" s="9" t="e">
-        <f>AVERAGE(E52,H52,K52)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X52" s="2" t="e">
-        <f>STDEVA(C52,F52,I52)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y52" s="2" t="e">
-        <f>STDEVA(D52,G52,J52)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z52" s="2" t="e">
-        <f>STDEVA(E52,H52,K52)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA52" s="9">
-        <f>AVERAGE(C52+D52+E52,F52+G52+H52,I52+J52+K52)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB52" s="2">
-        <f>STDEVA(C52+D52+E52,F52+G52+H52,I52+J52+K52)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC52" s="9">
-        <f>AVERAGE(L52:N52)</f>
+        <f t="shared" si="32"/>
         <v>583.33333333333337</v>
       </c>
       <c r="AD52" s="2">
-        <f>STDEVA(L52:N52)</f>
+        <f t="shared" si="33"/>
         <v>8.3864970836060841</v>
       </c>
-      <c r="AE52" s="2"/>
-      <c r="AG52" s="1" t="str">
-        <f>IF(SUM(C52,F52,I52)&gt;0,AA52-AC52,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH52" s="21" t="str">
-        <f>IF(SUM(C52,F52,I52)&gt;0,AA52/AC52,"")</f>
+      <c r="AE52" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF52" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI52" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK52" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL52" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM52" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN52" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
-        <f t="shared" ref="A53:A59" si="6">A$51</f>
+        <f t="shared" ref="A53:A59" si="35">A$51</f>
         <v>Monitors</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -6456,62 +7727,86 @@
         <v>99</v>
       </c>
       <c r="T53" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U53" s="10" t="e">
-        <f>AVERAGE(C53,F53,I53)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V53" s="9" t="e">
-        <f>AVERAGE(D53,G53,J53)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W53" s="9" t="e">
-        <f>AVERAGE(E53,H53,K53)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X53" s="2" t="e">
-        <f>STDEVA(C53,F53,I53)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y53" s="2" t="e">
-        <f>STDEVA(D53,G53,J53)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z53" s="2" t="e">
-        <f>STDEVA(E53,H53,K53)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA53" s="9">
-        <f>AVERAGE(C53+D53+E53,F53+G53+H53,I53+J53+K53)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB53" s="2">
-        <f>STDEVA(C53+D53+E53,F53+G53+H53,I53+J53+K53)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC53" s="9">
-        <f>AVERAGE(L53:N53)</f>
+        <f t="shared" si="32"/>
         <v>1296.6666666666667</v>
       </c>
       <c r="AD53" s="2">
-        <f>STDEVA(L53:N53)</f>
+        <f t="shared" si="33"/>
         <v>0.57735026918962584</v>
       </c>
-      <c r="AE53" s="2"/>
-      <c r="AG53" s="1" t="str">
-        <f>IF(SUM(C53,F53,I53)&gt;0,AA53-AC53,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH53" s="21" t="str">
-        <f>IF(SUM(C53,F53,I53)&gt;0,AA53/AC53,"")</f>
+      <c r="AE53" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF53" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI53" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK53" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL53" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM53" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN53" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -6543,62 +7838,86 @@
         <v>99</v>
       </c>
       <c r="T54" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U54" s="10" t="e">
-        <f>AVERAGE(C54,F54,I54)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V54" s="9" t="e">
-        <f>AVERAGE(D54,G54,J54)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W54" s="9" t="e">
-        <f>AVERAGE(E54,H54,K54)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X54" s="2" t="e">
-        <f>STDEVA(C54,F54,I54)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y54" s="2" t="e">
-        <f>STDEVA(D54,G54,J54)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z54" s="2" t="e">
-        <f>STDEVA(E54,H54,K54)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA54" s="9">
-        <f>AVERAGE(C54+D54+E54,F54+G54+H54,I54+J54+K54)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB54" s="2">
-        <f>STDEVA(C54+D54+E54,F54+G54+H54,I54+J54+K54)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC54" s="9">
-        <f>AVERAGE(L54:N54)</f>
+        <f t="shared" si="32"/>
         <v>645.66666666666663</v>
       </c>
       <c r="AD54" s="2">
-        <f>STDEVA(L54:N54)</f>
+        <f t="shared" si="33"/>
         <v>8.9628864398325021</v>
       </c>
-      <c r="AE54" s="2"/>
-      <c r="AG54" s="1" t="str">
-        <f>IF(SUM(C54,F54,I54)&gt;0,AA54-AC54,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH54" s="21" t="str">
-        <f>IF(SUM(C54,F54,I54)&gt;0,AA54/AC54,"")</f>
+      <c r="AE54" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF54" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI54" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK54" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL54" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM54" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN54" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -6653,62 +7972,86 @@
         <v>0</v>
       </c>
       <c r="T55" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U55" s="10">
-        <f>AVERAGE(C55,F55,I55)</f>
+        <f t="shared" si="24"/>
         <v>531</v>
       </c>
       <c r="V55" s="9">
-        <f>AVERAGE(D55,G55,J55)</f>
+        <f t="shared" si="25"/>
         <v>370</v>
       </c>
       <c r="W55" s="9">
-        <f>AVERAGE(E55,H55,K55)</f>
+        <f t="shared" si="26"/>
         <v>567.33333333333337</v>
       </c>
       <c r="X55" s="2">
-        <f>STDEVA(C55,F55,I55)</f>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="Y55" s="2">
-        <f>STDEVA(D55,G55,J55)</f>
+        <f t="shared" si="28"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Z55" s="2">
-        <f>STDEVA(E55,H55,K55)</f>
+        <f t="shared" si="29"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="AA55" s="9">
-        <f>AVERAGE(C55+D55+E55,F55+G55+H55,I55+J55+K55)</f>
+        <f t="shared" si="30"/>
         <v>1468.3333333333333</v>
       </c>
       <c r="AB55" s="2">
-        <f>STDEVA(C55+D55+E55,F55+G55+H55,I55+J55+K55)</f>
+        <f t="shared" si="31"/>
         <v>15.50268793897798</v>
       </c>
       <c r="AC55" s="9">
-        <f>AVERAGE(L55:N55)</f>
+        <f t="shared" si="32"/>
         <v>880.33333333333337</v>
       </c>
       <c r="AD55" s="2">
-        <f>STDEVA(L55:N55)</f>
+        <f t="shared" si="33"/>
         <v>49.722563623905529</v>
       </c>
-      <c r="AE55" s="2"/>
-      <c r="AG55" s="1">
-        <f>IF(SUM(C55,F55,I55)&gt;0,AA55-AC55,"-")</f>
+      <c r="AE55" s="2">
+        <f t="shared" si="12"/>
+        <v>349.33333333333337</v>
+      </c>
+      <c r="AF55" s="2">
+        <f t="shared" si="13"/>
+        <v>937.33333333333337</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="1">
+        <f t="shared" si="14"/>
         <v>587.99999999999989</v>
       </c>
-      <c r="AH55" s="21">
-        <f>IF(SUM(C55,F55,I55)&gt;0,AA55/AC55,"")</f>
+      <c r="AI55" s="21">
+        <f t="shared" si="15"/>
         <v>1.6679288148428624</v>
       </c>
+      <c r="AK55" s="1">
+        <f t="shared" si="16"/>
+        <v>588</v>
+      </c>
+      <c r="AL55" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6832061068702289</v>
+      </c>
+      <c r="AM55" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="AN55" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60526315789473684</v>
+      </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -6734,62 +8077,86 @@
         <v>103</v>
       </c>
       <c r="T56" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U56" s="10" t="e">
-        <f>AVERAGE(C56,F56,I56)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V56" s="9" t="e">
-        <f>AVERAGE(D56,G56,J56)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W56" s="9" t="e">
-        <f>AVERAGE(E56,H56,K56)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X56" s="2" t="e">
-        <f>STDEVA(C56,F56,I56)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y56" s="2" t="e">
-        <f>STDEVA(D56,G56,J56)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z56" s="2" t="e">
-        <f>STDEVA(E56,H56,K56)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA56" s="9">
-        <f>AVERAGE(C56+D56+E56,F56+G56+H56,I56+J56+K56)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB56" s="2">
-        <f>STDEVA(C56+D56+E56,F56+G56+H56,I56+J56+K56)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC56" s="9" t="e">
-        <f>AVERAGE(L56:N56)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD56" s="2" t="e">
-        <f>STDEVA(L56:N56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE56" s="2"/>
-      <c r="AG56" s="1" t="str">
-        <f>IF(SUM(C56,F56,I56)&gt;0,AA56-AC56,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH56" s="21" t="str">
-        <f>IF(SUM(C56,F56,I56)&gt;0,AA56/AC56,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE56" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF56" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI56" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK56" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL56" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM56" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN56" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B57" s="13" t="s">
@@ -6815,62 +8182,86 @@
         <v>103</v>
       </c>
       <c r="T57" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U57" s="10" t="e">
-        <f>AVERAGE(C57,F57,I57)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V57" s="9" t="e">
-        <f>AVERAGE(D57,G57,J57)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W57" s="9" t="e">
-        <f>AVERAGE(E57,H57,K57)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X57" s="2" t="e">
-        <f>STDEVA(C57,F57,I57)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y57" s="2" t="e">
-        <f>STDEVA(D57,G57,J57)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z57" s="2" t="e">
-        <f>STDEVA(E57,H57,K57)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA57" s="9">
-        <f>AVERAGE(C57+D57+E57,F57+G57+H57,I57+J57+K57)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB57" s="2">
-        <f>STDEVA(C57+D57+E57,F57+G57+H57,I57+J57+K57)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC57" s="9" t="e">
-        <f>AVERAGE(L57:N57)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD57" s="2" t="e">
-        <f>STDEVA(L57:N57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE57" s="2"/>
-      <c r="AG57" s="1" t="str">
-        <f>IF(SUM(C57,F57,I57)&gt;0,AA57-AC57,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH57" s="21" t="str">
-        <f>IF(SUM(C57,F57,I57)&gt;0,AA57/AC57,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE57" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF57" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI57" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK57" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL57" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM57" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN57" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -6925,62 +8316,86 @@
         <v>0</v>
       </c>
       <c r="T58" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f>AVERAGE(C58,F58,I58)</f>
+        <f t="shared" si="24"/>
         <v>489.66666666666669</v>
       </c>
       <c r="V58" s="9">
-        <f>AVERAGE(D58,G58,J58)</f>
+        <f t="shared" si="25"/>
         <v>291.66666666666669</v>
       </c>
       <c r="W58" s="9">
-        <f>AVERAGE(E58,H58,K58)</f>
+        <f t="shared" si="26"/>
         <v>438</v>
       </c>
       <c r="X58" s="2">
-        <f>STDEVA(C58,F58,I58)</f>
+        <f t="shared" si="27"/>
         <v>17.897858344878397</v>
       </c>
       <c r="Y58" s="2">
-        <f>STDEVA(D58,G58,J58)</f>
+        <f t="shared" si="28"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Z58" s="2">
-        <f>STDEVA(E58,H58,K58)</f>
+        <f t="shared" si="29"/>
         <v>26.851443164195103</v>
       </c>
       <c r="AA58" s="9">
-        <f>AVERAGE(C58+D58+E58,F58+G58+H58,I58+J58+K58)</f>
+        <f t="shared" si="30"/>
         <v>1219.3333333333333</v>
       </c>
       <c r="AB58" s="2">
-        <f>STDEVA(C58+D58+E58,F58+G58+H58,I58+J58+K58)</f>
+        <f t="shared" si="31"/>
         <v>31.005375877955959</v>
       </c>
       <c r="AC58" s="9">
-        <f>AVERAGE(L58:N58)</f>
+        <f t="shared" si="32"/>
         <v>713.66666666666663</v>
       </c>
       <c r="AD58" s="2">
-        <f>STDEVA(L58:N58)</f>
+        <f t="shared" si="33"/>
         <v>23.459184413217208</v>
       </c>
-      <c r="AE58" s="2"/>
-      <c r="AG58" s="1">
-        <f>IF(SUM(C58,F58,I58)&gt;0,AA58-AC58,"-")</f>
+      <c r="AE58" s="2">
+        <f t="shared" si="12"/>
+        <v>223.99999999999994</v>
+      </c>
+      <c r="AF58" s="2">
+        <f t="shared" si="13"/>
+        <v>729.66666666666674</v>
+      </c>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="1">
+        <f t="shared" si="14"/>
         <v>505.66666666666663</v>
       </c>
-      <c r="AH58" s="21">
-        <f>IF(SUM(C58,F58,I58)&gt;0,AA58/AC58,"")</f>
+      <c r="AI58" s="21">
+        <f t="shared" si="15"/>
         <v>1.7085474077533862</v>
       </c>
+      <c r="AK58" s="1">
+        <f t="shared" si="16"/>
+        <v>505.6666666666668</v>
+      </c>
+      <c r="AL58" s="21">
+        <f t="shared" si="17"/>
+        <v>3.2574404761904772</v>
+      </c>
+      <c r="AM58" s="35">
+        <f t="shared" si="18"/>
+        <v>0.39972590223846505</v>
+      </c>
+      <c r="AN58" s="35">
+        <f t="shared" si="19"/>
+        <v>0.60027409776153484</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="35"/>
         <v>Monitors</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -7006,60 +8421,84 @@
         <v>103</v>
       </c>
       <c r="T59" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U59" s="10" t="e">
-        <f>AVERAGE(C59,F59,I59)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V59" s="9" t="e">
-        <f>AVERAGE(D59,G59,J59)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W59" s="9" t="e">
-        <f>AVERAGE(E59,H59,K59)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X59" s="2" t="e">
-        <f>STDEVA(C59,F59,I59)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y59" s="2" t="e">
-        <f>STDEVA(D59,G59,J59)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z59" s="2" t="e">
-        <f>STDEVA(E59,H59,K59)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA59" s="9">
-        <f>AVERAGE(C59+D59+E59,F59+G59+H59,I59+J59+K59)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB59" s="2">
-        <f>STDEVA(C59+D59+E59,F59+G59+H59,I59+J59+K59)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC59" s="9" t="e">
-        <f>AVERAGE(L59:N59)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD59" s="2" t="e">
-        <f>STDEVA(L59:N59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE59" s="2"/>
-      <c r="AG59" s="1" t="str">
-        <f>IF(SUM(C59,F59,I59)&gt;0,AA59-AC59,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH59" s="21" t="str">
-        <f>IF(SUM(C59,F59,I59)&gt;0,AA59/AC59,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE59" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF59" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI59" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK59" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL59" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM59" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN59" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>107</v>
       </c>
@@ -7115,60 +8554,84 @@
         <v>0</v>
       </c>
       <c r="T60" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U60" s="10">
-        <f>AVERAGE(C60,F60,I60)</f>
+        <f t="shared" si="24"/>
         <v>494.66666666666669</v>
       </c>
       <c r="V60" s="9">
-        <f>AVERAGE(D60,G60,J60)</f>
+        <f t="shared" si="25"/>
         <v>270.66666666666669</v>
       </c>
       <c r="W60" s="9">
-        <f>AVERAGE(E60,H60,K60)</f>
+        <f t="shared" si="26"/>
         <v>359.66666666666669</v>
       </c>
       <c r="X60" s="2">
-        <f>STDEVA(C60,F60,I60)</f>
+        <f t="shared" si="27"/>
         <v>9.2376043070340135</v>
       </c>
       <c r="Y60" s="2">
-        <f>STDEVA(D60,G60,J60)</f>
+        <f t="shared" si="28"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Z60" s="2">
-        <f>STDEVA(E60,H60,K60)</f>
+        <f t="shared" si="29"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="AA60" s="9">
-        <f>AVERAGE(C60+D60+E60,F60+G60+H60,I60+J60+K60)</f>
+        <f t="shared" si="30"/>
         <v>1125</v>
       </c>
       <c r="AB60" s="2">
-        <f>STDEVA(C60+D60+E60,F60+G60+H60,I60+J60+K60)</f>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AC60" s="9">
-        <f>AVERAGE(L60:N60)</f>
+        <f t="shared" si="32"/>
         <v>787</v>
       </c>
       <c r="AD60" s="2">
-        <f>STDEVA(L60:N60)</f>
+        <f t="shared" si="33"/>
         <v>8.6602540378443873</v>
       </c>
-      <c r="AE60" s="2"/>
-      <c r="AG60" s="1">
-        <f>IF(SUM(C60,F60,I60)&gt;0,AA60-AC60,"-")</f>
+      <c r="AE60" s="2">
+        <f t="shared" si="12"/>
+        <v>292.33333333333331</v>
+      </c>
+      <c r="AF60" s="2">
+        <f t="shared" si="13"/>
+        <v>630.33333333333337</v>
+      </c>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="1">
+        <f t="shared" si="14"/>
         <v>338</v>
       </c>
-      <c r="AH60" s="21">
-        <f>IF(SUM(C60,F60,I60)&gt;0,AA60/AC60,"")</f>
+      <c r="AI60" s="21">
+        <f t="shared" si="15"/>
         <v>1.4294790343074968</v>
       </c>
+      <c r="AK60" s="1">
+        <f t="shared" si="16"/>
+        <v>338.00000000000006</v>
+      </c>
+      <c r="AL60" s="21">
+        <f t="shared" si="17"/>
+        <v>2.1562143671607759</v>
+      </c>
+      <c r="AM60" s="35">
+        <f t="shared" si="18"/>
+        <v>0.42940243257535698</v>
+      </c>
+      <c r="AN60" s="35">
+        <f t="shared" si="19"/>
+        <v>0.57059756742464307</v>
+      </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f>A$60</f>
         <v>Misc</v>
@@ -7228,62 +8691,86 @@
         <v>47</v>
       </c>
       <c r="T61" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U61" s="10">
-        <f>AVERAGE(C61,F61,I61)</f>
+        <f t="shared" si="24"/>
         <v>536.66666666666663</v>
       </c>
       <c r="V61" s="9">
-        <f>AVERAGE(D61,G61,J61)</f>
+        <f t="shared" si="25"/>
         <v>380.66666666666669</v>
       </c>
       <c r="W61" s="9">
-        <f>AVERAGE(E61,H61,K61)</f>
+        <f t="shared" si="26"/>
         <v>636.66666666666663</v>
       </c>
       <c r="X61" s="2">
-        <f>STDEVA(C61,F61,I61)</f>
+        <f t="shared" si="27"/>
         <v>1.1547005383792517</v>
       </c>
       <c r="Y61" s="2">
-        <f>STDEVA(D61,G61,J61)</f>
+        <f t="shared" si="28"/>
         <v>4.0414518843273806</v>
       </c>
       <c r="Z61" s="2">
-        <f>STDEVA(E61,H61,K61)</f>
+        <f t="shared" si="29"/>
         <v>13.316656236958787</v>
       </c>
       <c r="AA61" s="9">
-        <f>AVERAGE(C61+D61+E61,F61+G61+H61,I61+J61+K61)</f>
+        <f t="shared" si="30"/>
         <v>1554</v>
       </c>
       <c r="AB61" s="2">
-        <f>STDEVA(C61+D61+E61,F61+G61+H61,I61+J61+K61)</f>
+        <f t="shared" si="31"/>
         <v>13.527749258468683</v>
       </c>
       <c r="AC61" s="9">
-        <f>AVERAGE(L61:N61)</f>
+        <f t="shared" si="32"/>
         <v>923</v>
       </c>
       <c r="AD61" s="2">
-        <f>STDEVA(L61:N61)</f>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
-      <c r="AE61" s="2"/>
-      <c r="AG61" s="1">
-        <f>IF(SUM(C61,F61,I61)&gt;0,AA61-AC61,"-")</f>
+      <c r="AE61" s="2">
+        <f t="shared" si="12"/>
+        <v>386.33333333333337</v>
+      </c>
+      <c r="AF61" s="2">
+        <f t="shared" si="13"/>
+        <v>1017.3333333333333</v>
+      </c>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="1">
+        <f t="shared" si="14"/>
         <v>631</v>
       </c>
-      <c r="AH61" s="21">
-        <f>IF(SUM(C61,F61,I61)&gt;0,AA61/AC61,"")</f>
+      <c r="AI61" s="21">
+        <f t="shared" si="15"/>
         <v>1.6836403033586131</v>
       </c>
+      <c r="AK61" s="1">
+        <f t="shared" si="16"/>
+        <v>630.99999999999989</v>
+      </c>
+      <c r="AL61" s="21">
+        <f t="shared" si="17"/>
+        <v>2.6333045729076785</v>
+      </c>
+      <c r="AM61" s="35">
+        <f t="shared" si="18"/>
+        <v>0.37418086500655312</v>
+      </c>
+      <c r="AN61" s="35">
+        <f t="shared" si="19"/>
+        <v>0.62581913499344688</v>
+      </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
-        <f t="shared" ref="A62:A71" si="7">A$60</f>
+        <f t="shared" ref="A62:A71" si="36">A$60</f>
         <v>Misc</v>
       </c>
       <c r="B62" s="13" t="s">
@@ -7338,62 +8825,86 @@
         <v>0</v>
       </c>
       <c r="T62" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U62" s="10">
-        <f>AVERAGE(C62,F62,I62)</f>
+        <f t="shared" si="24"/>
         <v>425.66666666666669</v>
       </c>
       <c r="V62" s="9">
-        <f>AVERAGE(D62,G62,J62)</f>
+        <f t="shared" si="25"/>
         <v>276</v>
       </c>
       <c r="W62" s="9">
-        <f>AVERAGE(E62,H62,K62)</f>
+        <f t="shared" si="26"/>
         <v>331.66666666666669</v>
       </c>
       <c r="X62" s="2">
-        <f>STDEVA(C62,F62,I62)</f>
+        <f t="shared" si="27"/>
         <v>2.0816659994661326</v>
       </c>
       <c r="Y62" s="2">
-        <f>STDEVA(D62,G62,J62)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Z62" s="2">
-        <f>STDEVA(E62,H62,K62)</f>
+        <f t="shared" si="29"/>
         <v>7.0237691685684931</v>
       </c>
       <c r="AA62" s="9">
-        <f>AVERAGE(C62+D62+E62,F62+G62+H62,I62+J62+K62)</f>
+        <f t="shared" si="30"/>
         <v>1033.3333333333333</v>
       </c>
       <c r="AB62" s="2">
-        <f>STDEVA(C62+D62+E62,F62+G62+H62,I62+J62+K62)</f>
+        <f t="shared" si="31"/>
         <v>6.1101009266077861</v>
       </c>
       <c r="AC62" s="9">
-        <f>AVERAGE(L62:N62)</f>
+        <f t="shared" si="32"/>
         <v>630.33333333333337</v>
       </c>
       <c r="AD62" s="2">
-        <f>STDEVA(L62:N62)</f>
+        <f t="shared" si="33"/>
         <v>8.5049005481153834</v>
       </c>
-      <c r="AE62" s="2"/>
-      <c r="AG62" s="1">
-        <f>IF(SUM(C62,F62,I62)&gt;0,AA62-AC62,"-")</f>
+      <c r="AE62" s="2">
+        <f t="shared" si="12"/>
+        <v>204.66666666666669</v>
+      </c>
+      <c r="AF62" s="2">
+        <f t="shared" si="13"/>
+        <v>607.66666666666674</v>
+      </c>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="1">
+        <f t="shared" si="14"/>
         <v>402.99999999999989</v>
       </c>
-      <c r="AH62" s="21">
-        <f>IF(SUM(C62,F62,I62)&gt;0,AA62/AC62,"")</f>
+      <c r="AI62" s="21">
+        <f t="shared" si="15"/>
         <v>1.6393442622950818</v>
       </c>
+      <c r="AK62" s="1">
+        <f t="shared" si="16"/>
+        <v>403.00000000000006</v>
+      </c>
+      <c r="AL62" s="21">
+        <f t="shared" si="17"/>
+        <v>2.9690553745928341</v>
+      </c>
+      <c r="AM62" s="35">
+        <f t="shared" si="18"/>
+        <v>0.45419637959407566</v>
+      </c>
+      <c r="AN62" s="35">
+        <f t="shared" si="19"/>
+        <v>0.54580362040592423</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -7448,62 +8959,86 @@
         <v>0</v>
       </c>
       <c r="T63" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U63" s="10">
-        <f>AVERAGE(C63,F63,I63)</f>
+        <f t="shared" si="24"/>
         <v>416.66666666666669</v>
       </c>
       <c r="V63" s="9">
-        <f>AVERAGE(D63,G63,J63)</f>
+        <f t="shared" si="25"/>
         <v>255</v>
       </c>
       <c r="W63" s="9">
-        <f>AVERAGE(E63,H63,K63)</f>
+        <f t="shared" si="26"/>
         <v>261.66666666666669</v>
       </c>
       <c r="X63" s="2">
-        <f>STDEVA(C63,F63,I63)</f>
+        <f t="shared" si="27"/>
         <v>33.306655991458129</v>
       </c>
       <c r="Y63" s="2">
-        <f>STDEVA(D63,G63,J63)</f>
+        <f t="shared" si="28"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Z63" s="2">
-        <f>STDEVA(E63,H63,K63)</f>
+        <f t="shared" si="29"/>
         <v>6.6583281184793934</v>
       </c>
       <c r="AA63" s="9">
-        <f>AVERAGE(C63+D63+E63,F63+G63+H63,I63+J63+K63)</f>
+        <f t="shared" si="30"/>
         <v>933.33333333333337</v>
       </c>
       <c r="AB63" s="2">
-        <f>STDEVA(C63+D63+E63,F63+G63+H63,I63+J63+K63)</f>
+        <f t="shared" si="31"/>
         <v>46.736851983561465</v>
       </c>
       <c r="AC63" s="9">
-        <f>AVERAGE(L63:N63)</f>
+        <f t="shared" si="32"/>
         <v>541.66666666666663</v>
       </c>
       <c r="AD63" s="2">
-        <f>STDEVA(L63:N63)</f>
+        <f t="shared" si="33"/>
         <v>45.324754090158429</v>
       </c>
-      <c r="AE63" s="2"/>
-      <c r="AG63" s="1">
-        <f>IF(SUM(C63,F63,I63)&gt;0,AA63-AC63,"-")</f>
+      <c r="AE63" s="2">
+        <f t="shared" si="12"/>
+        <v>124.99999999999994</v>
+      </c>
+      <c r="AF63" s="2">
+        <f t="shared" si="13"/>
+        <v>516.66666666666674</v>
+      </c>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="1">
+        <f t="shared" si="14"/>
         <v>391.66666666666674</v>
       </c>
-      <c r="AH63" s="21">
-        <f>IF(SUM(C63,F63,I63)&gt;0,AA63/AC63,"")</f>
+      <c r="AI63" s="21">
+        <f t="shared" si="15"/>
         <v>1.7230769230769232</v>
       </c>
+      <c r="AK63" s="1">
+        <f t="shared" si="16"/>
+        <v>391.6666666666668</v>
+      </c>
+      <c r="AL63" s="21">
+        <f t="shared" si="17"/>
+        <v>4.1333333333333355</v>
+      </c>
+      <c r="AM63" s="35">
+        <f t="shared" si="18"/>
+        <v>0.49354838709677412</v>
+      </c>
+      <c r="AN63" s="35">
+        <f t="shared" si="19"/>
+        <v>0.50645161290322582</v>
+      </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -7529,62 +9064,86 @@
         <v>68</v>
       </c>
       <c r="T64" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U64" s="10" t="e">
-        <f>AVERAGE(C64,F64,I64)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V64" s="9" t="e">
-        <f>AVERAGE(D64,G64,J64)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W64" s="9" t="e">
-        <f>AVERAGE(E64,H64,K64)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X64" s="2" t="e">
-        <f>STDEVA(C64,F64,I64)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y64" s="2" t="e">
-        <f>STDEVA(D64,G64,J64)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z64" s="2" t="e">
-        <f>STDEVA(E64,H64,K64)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA64" s="9">
-        <f>AVERAGE(C64+D64+E64,F64+G64+H64,I64+J64+K64)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB64" s="2">
-        <f>STDEVA(C64+D64+E64,F64+G64+H64,I64+J64+K64)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC64" s="9" t="e">
-        <f>AVERAGE(L64:N64)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD64" s="2" t="e">
-        <f>STDEVA(L64:N64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE64" s="2"/>
-      <c r="AG64" s="1" t="str">
-        <f>IF(SUM(C64,F64,I64)&gt;0,AA64-AC64,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH64" s="21" t="str">
-        <f>IF(SUM(C64,F64,I64)&gt;0,AA64/AC64,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE64" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF64" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI64" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK64" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL64" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM64" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN64" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -7610,62 +9169,86 @@
         <v>114</v>
       </c>
       <c r="T65" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U65" s="10" t="e">
-        <f>AVERAGE(C65,F65,I65)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V65" s="9" t="e">
-        <f>AVERAGE(D65,G65,J65)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W65" s="9" t="e">
-        <f>AVERAGE(E65,H65,K65)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X65" s="2" t="e">
-        <f>STDEVA(C65,F65,I65)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y65" s="2" t="e">
-        <f>STDEVA(D65,G65,J65)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z65" s="2" t="e">
-        <f>STDEVA(E65,H65,K65)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA65" s="9">
-        <f>AVERAGE(C65+D65+E65,F65+G65+H65,I65+J65+K65)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB65" s="2">
-        <f>STDEVA(C65+D65+E65,F65+G65+H65,I65+J65+K65)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC65" s="9" t="e">
-        <f>AVERAGE(L65:N65)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD65" s="2" t="e">
-        <f>STDEVA(L65:N65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE65" s="2"/>
-      <c r="AG65" s="1" t="str">
-        <f>IF(SUM(C65,F65,I65)&gt;0,AA65-AC65,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH65" s="21" t="str">
-        <f>IF(SUM(C65,F65,I65)&gt;0,AA65/AC65,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE65" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF65" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI65" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK65" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL65" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM65" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN65" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -7691,62 +9274,86 @@
         <v>36</v>
       </c>
       <c r="T66" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U66" s="10" t="e">
-        <f>AVERAGE(C66,F66,I66)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V66" s="9" t="e">
-        <f>AVERAGE(D66,G66,J66)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W66" s="9" t="e">
-        <f>AVERAGE(E66,H66,K66)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X66" s="2" t="e">
-        <f>STDEVA(C66,F66,I66)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y66" s="2" t="e">
-        <f>STDEVA(D66,G66,J66)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z66" s="2" t="e">
-        <f>STDEVA(E66,H66,K66)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA66" s="9">
-        <f>AVERAGE(C66+D66+E66,F66+G66+H66,I66+J66+K66)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB66" s="2">
-        <f>STDEVA(C66+D66+E66,F66+G66+H66,I66+J66+K66)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC66" s="9" t="e">
-        <f>AVERAGE(L66:N66)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD66" s="2" t="e">
-        <f>STDEVA(L66:N66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE66" s="2"/>
-      <c r="AG66" s="1" t="str">
-        <f>IF(SUM(C66,F66,I66)&gt;0,AA66-AC66,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH66" s="21" t="str">
-        <f>IF(SUM(C66,F66,I66)&gt;0,AA66/AC66,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE66" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF66" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="AI66" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="AK66" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="AL66" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AM66" s="35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AN66" s="35" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -7801,62 +9408,86 @@
         <v>0</v>
       </c>
       <c r="T67" s="20">
-        <f t="shared" ref="T67:T85" si="8">IF(S67="",0,Q67)</f>
+        <f t="shared" ref="T67:T85" si="37">IF(S67="",0,Q67)</f>
         <v>0</v>
       </c>
       <c r="U67" s="10">
-        <f>AVERAGE(C67,F67,I67)</f>
+        <f t="shared" si="24"/>
         <v>468.66666666666669</v>
       </c>
       <c r="V67" s="9">
-        <f>AVERAGE(D67,G67,J67)</f>
+        <f t="shared" si="25"/>
         <v>349</v>
       </c>
       <c r="W67" s="9">
-        <f>AVERAGE(E67,H67,K67)</f>
+        <f t="shared" si="26"/>
         <v>630</v>
       </c>
       <c r="X67" s="2">
-        <f>STDEVA(C67,F67,I67)</f>
+        <f t="shared" si="27"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="Y67" s="2">
-        <f>STDEVA(D67,G67,J67)</f>
+        <f t="shared" si="28"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Z67" s="2">
-        <f>STDEVA(E67,H67,K67)</f>
+        <f t="shared" si="29"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AA67" s="9">
-        <f>AVERAGE(C67+D67+E67,F67+G67+H67,I67+J67+K67)</f>
+        <f t="shared" si="30"/>
         <v>1447.6666666666667</v>
       </c>
       <c r="AB67" s="2">
-        <f>STDEVA(C67+D67+E67,F67+G67+H67,I67+J67+K67)</f>
+        <f t="shared" si="31"/>
         <v>8.5049005481153817</v>
       </c>
       <c r="AC67" s="9">
-        <f>AVERAGE(L67:N67)</f>
+        <f t="shared" si="32"/>
         <v>682.66666666666663</v>
       </c>
       <c r="AD67" s="2">
-        <f>STDEVA(L67:N67)</f>
+        <f t="shared" si="33"/>
         <v>9.2915732431775702</v>
       </c>
-      <c r="AE67" s="2"/>
-      <c r="AG67" s="1">
-        <f>IF(SUM(C67,F67,I67)&gt;0,AA67-AC67,"-")</f>
+      <c r="AE67" s="2">
+        <f t="shared" ref="AE67:AE85" si="38">AC67-U67</f>
+        <v>213.99999999999994</v>
+      </c>
+      <c r="AF67" s="2">
+        <f t="shared" ref="AF67:AF85" si="39">V67+W67</f>
+        <v>979</v>
+      </c>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="1">
+        <f t="shared" ref="AH67:AH85" si="40">IF(SUM(C67,F67,I67)&gt;0,AA67-AC67,"")</f>
         <v>765.00000000000011</v>
       </c>
-      <c r="AH67" s="21">
-        <f>IF(SUM(C67,F67,I67)&gt;0,AA67/AC67,"")</f>
+      <c r="AI67" s="21">
+        <f t="shared" ref="AI67:AI85" si="41">IF(SUM(C67,F67,I67)&gt;0,AA67/AC67,"")</f>
         <v>2.1206054687500004</v>
       </c>
+      <c r="AK67" s="1">
+        <f t="shared" ref="AK67:AK85" si="42">IF(Q67,AF67-AE67,"")</f>
+        <v>765</v>
+      </c>
+      <c r="AL67" s="21">
+        <f t="shared" ref="AL67:AL85" si="43">IF(Q67,AF67/AE67,"")</f>
+        <v>4.5747663551401878</v>
+      </c>
+      <c r="AM67" s="35">
+        <f t="shared" ref="AM67:AM85" si="44">IF(Q67,V67/AF67,"")</f>
+        <v>0.35648621041879469</v>
+      </c>
+      <c r="AN67" s="35">
+        <f t="shared" ref="AN67:AN85" si="45">IF(Q67,W67/AF67,"")</f>
+        <v>0.64351378958120531</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -7882,62 +9513,86 @@
         <v>118</v>
       </c>
       <c r="T68" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U68" s="10" t="e">
-        <f>AVERAGE(C68,F68,I68)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V68" s="9" t="e">
-        <f>AVERAGE(D68,G68,J68)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W68" s="9" t="e">
-        <f>AVERAGE(E68,H68,K68)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X68" s="2" t="e">
-        <f>STDEVA(C68,F68,I68)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y68" s="2" t="e">
-        <f>STDEVA(D68,G68,J68)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z68" s="2" t="e">
-        <f>STDEVA(E68,H68,K68)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA68" s="9">
-        <f>AVERAGE(C68+D68+E68,F68+G68+H68,I68+J68+K68)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB68" s="2">
-        <f>STDEVA(C68+D68+E68,F68+G68+H68,I68+J68+K68)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC68" s="9" t="e">
-        <f>AVERAGE(L68:N68)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD68" s="2" t="e">
-        <f>STDEVA(L68:N68)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE68" s="2"/>
-      <c r="AG68" s="1" t="str">
-        <f>IF(SUM(C68,F68,I68)&gt;0,AA68-AC68,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH68" s="21" t="str">
-        <f>IF(SUM(C68,F68,I68)&gt;0,AA68/AC68,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE68" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF68" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI68" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK68" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL68" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM68" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN68" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B69" s="13" t="s">
@@ -7963,62 +9618,86 @@
         <v>114</v>
       </c>
       <c r="T69" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U69" s="10" t="e">
-        <f>AVERAGE(C69,F69,I69)</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V69" s="9" t="e">
-        <f>AVERAGE(D69,G69,J69)</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W69" s="9" t="e">
-        <f>AVERAGE(E69,H69,K69)</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X69" s="2" t="e">
-        <f>STDEVA(C69,F69,I69)</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y69" s="2" t="e">
-        <f>STDEVA(D69,G69,J69)</f>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z69" s="2" t="e">
-        <f>STDEVA(E69,H69,K69)</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA69" s="9">
-        <f>AVERAGE(C69+D69+E69,F69+G69+H69,I69+J69+K69)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB69" s="2">
-        <f>STDEVA(C69+D69+E69,F69+G69+H69,I69+J69+K69)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC69" s="9" t="e">
-        <f>AVERAGE(L69:N69)</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD69" s="2" t="e">
-        <f>STDEVA(L69:N69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AG69" s="1" t="str">
-        <f>IF(SUM(C69,F69,I69)&gt;0,AA69-AC69,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH69" s="21" t="str">
-        <f>IF(SUM(C69,F69,I69)&gt;0,AA69/AC69,"")</f>
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE69" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF69" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI69" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK69" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL69" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM69" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN69" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B70" s="13" t="s">
@@ -8073,62 +9752,86 @@
         <v>0</v>
       </c>
       <c r="T70" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U70" s="10">
-        <f>AVERAGE(C70,F70,I70)</f>
+        <f t="shared" si="24"/>
         <v>526</v>
       </c>
       <c r="V70" s="9">
-        <f>AVERAGE(D70,G70,J70)</f>
+        <f t="shared" si="25"/>
         <v>317.66666666666669</v>
       </c>
       <c r="W70" s="9">
-        <f>AVERAGE(E70,H70,K70)</f>
+        <f t="shared" si="26"/>
         <v>635.33333333333337</v>
       </c>
       <c r="X70" s="2">
-        <f>STDEVA(C70,F70,I70)</f>
+        <f t="shared" si="27"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Y70" s="2">
-        <f>STDEVA(D70,G70,J70)</f>
+        <f t="shared" si="28"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="Z70" s="2">
-        <f>STDEVA(E70,H70,K70)</f>
+        <f t="shared" si="29"/>
         <v>8.9628864398325021</v>
       </c>
       <c r="AA70" s="9">
-        <f>AVERAGE(C70+D70+E70,F70+G70+H70,I70+J70+K70)</f>
+        <f t="shared" si="30"/>
         <v>1479</v>
       </c>
       <c r="AB70" s="2">
-        <f>STDEVA(C70+D70+E70,F70+G70+H70,I70+J70+K70)</f>
+        <f t="shared" si="31"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="AC70" s="9">
-        <f>AVERAGE(L70:N70)</f>
+        <f t="shared" si="32"/>
         <v>932.33333333333337</v>
       </c>
       <c r="AD70" s="2">
-        <f>STDEVA(L70:N70)</f>
+        <f t="shared" si="33"/>
         <v>8.9628864398325021</v>
       </c>
-      <c r="AE70" s="2"/>
-      <c r="AG70" s="1">
-        <f>IF(SUM(C70,F70,I70)&gt;0,AA70-AC70,"-")</f>
+      <c r="AE70" s="2">
+        <f t="shared" si="38"/>
+        <v>406.33333333333337</v>
+      </c>
+      <c r="AF70" s="2">
+        <f t="shared" si="39"/>
+        <v>953</v>
+      </c>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="1">
+        <f t="shared" si="40"/>
         <v>546.66666666666663</v>
       </c>
-      <c r="AH70" s="21">
-        <f>IF(SUM(C70,F70,I70)&gt;0,AA70/AC70,"")</f>
+      <c r="AI70" s="21">
+        <f t="shared" si="41"/>
         <v>1.5863425098319628</v>
       </c>
+      <c r="AK70" s="1">
+        <f t="shared" si="42"/>
+        <v>546.66666666666663</v>
+      </c>
+      <c r="AL70" s="21">
+        <f t="shared" si="43"/>
+        <v>2.3453650533223951</v>
+      </c>
+      <c r="AM70" s="35">
+        <f t="shared" si="44"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AN70" s="35">
+        <f t="shared" si="45"/>
+        <v>0.66666666666666674</v>
+      </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="36"/>
         <v>Misc</v>
       </c>
       <c r="B71" s="13" t="s">
@@ -8142,7 +9845,7 @@
         <v>118</v>
       </c>
       <c r="T71" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U71" s="10">
@@ -8185,17 +9888,41 @@
         <f>STDEVA(L72:N72)</f>
         <v>2.0816659994661326</v>
       </c>
-      <c r="AE71" s="2"/>
-      <c r="AG71" s="1">
-        <f>IF(SUM(C72,F72,I72)&gt;0,AA71-AC71,"-")</f>
-        <v>514.33333333333337</v>
-      </c>
-      <c r="AH71" s="21">
-        <f>IF(SUM(C72,F72,I72)&gt;0,AA71/AC71,"")</f>
-        <v>1.5794217048441608</v>
+      <c r="AE71" s="2">
+        <f t="shared" si="38"/>
+        <v>357.33333333333326</v>
+      </c>
+      <c r="AF71" s="2">
+        <f t="shared" si="39"/>
+        <v>871.66666666666674</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI71" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK71" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL71" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM71" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN71" s="35" t="str">
+        <f t="shared" si="45"/>
+        <v/>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>121</v>
       </c>
@@ -8251,60 +9978,84 @@
         <v>0</v>
       </c>
       <c r="T72" s="20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="10" t="e">
-        <f>AVERAGE(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V72" s="9" t="e">
-        <f>AVERAGE(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W72" s="9" t="e">
-        <f>AVERAGE(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X72" s="2" t="e">
-        <f>STDEVA(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y72" s="2" t="e">
-        <f>STDEVA(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z72" s="2" t="e">
-        <f>STDEVA(#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA72" s="9" t="e">
-        <f>AVERAGE(#REF!+#REF!+#REF!,#REF!+#REF!+#REF!,#REF!+#REF!+#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB72" s="2" t="e">
-        <f>STDEVA(#REF!+#REF!+#REF!,#REF!+#REF!+#REF!,#REF!+#REF!+#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC72" s="9" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD72" s="2" t="e">
-        <f>STDEVA(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AG72" s="1" t="e">
-        <f>IF(SUM(#REF!,#REF!,#REF!)&gt;0,AA72-AC72,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH72" s="21" t="e">
-        <f>IF(SUM(#REF!,#REF!,#REF!)&gt;0,AA72/AC72,"")</f>
-        <v>#REF!</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="10">
+        <f t="shared" ref="U72:U73" si="46">AVERAGE(C73,F73,I73)</f>
+        <v>510.33333333333331</v>
+      </c>
+      <c r="V72" s="9">
+        <f t="shared" ref="V72:V73" si="47">AVERAGE(D73,G73,J73)</f>
+        <v>307.66666666666669</v>
+      </c>
+      <c r="W72" s="9">
+        <f t="shared" ref="W72:W73" si="48">AVERAGE(E73,H73,K73)</f>
+        <v>395.66666666666669</v>
+      </c>
+      <c r="X72" s="2">
+        <f t="shared" ref="X72:X73" si="49">STDEVA(C73,F73,I73)</f>
+        <v>24.006943440041116</v>
+      </c>
+      <c r="Y72" s="2">
+        <f t="shared" ref="Y72:Y73" si="50">STDEVA(D73,G73,J73)</f>
+        <v>9.2376043070340135</v>
+      </c>
+      <c r="Z72" s="2">
+        <f t="shared" ref="Z72:Z73" si="51">STDEVA(E73,H73,K73)</f>
+        <v>8.9628864398325021</v>
+      </c>
+      <c r="AA72" s="9">
+        <f t="shared" ref="AA72:AA73" si="52">AVERAGE(C73+D73+E73,F73+G73+H73,I73+J73+K73)</f>
+        <v>1213.6666666666667</v>
+      </c>
+      <c r="AB72" s="2">
+        <f t="shared" ref="AB72:AB73" si="53">STDEVA(C73+D73+E73,F73+G73+H73,I73+J73+K73)</f>
+        <v>32.347076117221683</v>
+      </c>
+      <c r="AC72" s="9">
+        <f t="shared" ref="AC72:AC73" si="54">AVERAGE(L73:N73)</f>
+        <v>719</v>
+      </c>
+      <c r="AD72" s="2">
+        <f t="shared" ref="AD72:AD73" si="55">STDEVA(L73:N73)</f>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="2">
+        <f t="shared" ref="AE72:AE73" si="56">AC72-U72</f>
+        <v>208.66666666666669</v>
+      </c>
+      <c r="AF72" s="2">
+        <f t="shared" ref="AF72:AF73" si="57">V72+W72</f>
+        <v>703.33333333333337</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="1">
+        <f t="shared" si="40"/>
+        <v>494.66666666666674</v>
+      </c>
+      <c r="AI72" s="21">
+        <f t="shared" si="41"/>
+        <v>1.687992582290218</v>
+      </c>
+      <c r="AK72" s="1">
+        <f t="shared" si="42"/>
+        <v>494.66666666666669</v>
+      </c>
+      <c r="AL72" s="21">
+        <f t="shared" ref="AL72:AL73" si="58">IF(Q72,AF72/AE72,"")</f>
+        <v>3.3706070287539935</v>
+      </c>
+      <c r="AM72" s="35">
+        <f t="shared" si="44"/>
+        <v>0.43744075829383888</v>
+      </c>
+      <c r="AN72" s="35">
+        <f t="shared" si="45"/>
+        <v>0.56255924170616112</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f>A$72</f>
         <v>VariousFeatures</v>
@@ -8361,62 +10112,86 @@
         <v>0</v>
       </c>
       <c r="T73" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U73" s="10">
-        <f>AVERAGE(C73,F73,I73)</f>
-        <v>510.33333333333331</v>
+        <f t="shared" si="46"/>
+        <v>533</v>
       </c>
       <c r="V73" s="9">
-        <f>AVERAGE(D73,G73,J73)</f>
-        <v>307.66666666666669</v>
+        <f t="shared" si="47"/>
+        <v>321.33333333333331</v>
       </c>
       <c r="W73" s="9">
-        <f>AVERAGE(E73,H73,K73)</f>
-        <v>395.66666666666669</v>
+        <f t="shared" si="48"/>
+        <v>559</v>
       </c>
       <c r="X73" s="2">
-        <f>STDEVA(C73,F73,I73)</f>
-        <v>24.006943440041116</v>
+        <f t="shared" si="49"/>
+        <v>74.484897798144289</v>
       </c>
       <c r="Y73" s="2">
-        <f>STDEVA(D73,G73,J73)</f>
-        <v>9.2376043070340135</v>
+        <f t="shared" si="50"/>
+        <v>0.57735026918962584</v>
       </c>
       <c r="Z73" s="2">
-        <f>STDEVA(E73,H73,K73)</f>
-        <v>8.9628864398325021</v>
+        <f t="shared" si="51"/>
+        <v>3.6055512754639891</v>
       </c>
       <c r="AA73" s="9">
-        <f>AVERAGE(C73+D73+E73,F73+G73+H73,I73+J73+K73)</f>
-        <v>1213.6666666666667</v>
+        <f t="shared" si="52"/>
+        <v>1413.3333333333333</v>
       </c>
       <c r="AB73" s="2">
-        <f>STDEVA(C73+D73+E73,F73+G73+H73,I73+J73+K73)</f>
-        <v>32.347076117221683</v>
+        <f t="shared" si="53"/>
+        <v>78.545103815154093</v>
       </c>
       <c r="AC73" s="9">
-        <f>AVERAGE(L73:N73)</f>
-        <v>719</v>
+        <f t="shared" si="54"/>
+        <v>774</v>
       </c>
       <c r="AD73" s="2">
-        <f>STDEVA(L73:N73)</f>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AG73" s="1">
-        <f>IF(SUM(C73,F73,I73)&gt;0,AA73-AC73,"-")</f>
-        <v>494.66666666666674</v>
-      </c>
-      <c r="AH73" s="21">
-        <f>IF(SUM(C73,F73,I73)&gt;0,AA73/AC73,"")</f>
-        <v>1.687992582290218</v>
+        <f t="shared" si="55"/>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="AE73" s="2">
+        <f t="shared" si="56"/>
+        <v>241</v>
+      </c>
+      <c r="AF73" s="2">
+        <f t="shared" si="57"/>
+        <v>880.33333333333326</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="1">
+        <f t="shared" si="40"/>
+        <v>639.33333333333326</v>
+      </c>
+      <c r="AI73" s="21">
+        <f t="shared" si="41"/>
+        <v>1.826012058570198</v>
+      </c>
+      <c r="AK73" s="1">
+        <f t="shared" si="42"/>
+        <v>639.33333333333326</v>
+      </c>
+      <c r="AL73" s="21">
+        <f t="shared" si="58"/>
+        <v>3.6528354080221299</v>
+      </c>
+      <c r="AM73" s="35">
+        <f t="shared" si="44"/>
+        <v>0.36501325255585004</v>
+      </c>
+      <c r="AN73" s="35">
+        <f t="shared" si="45"/>
+        <v>0.63498674744414996</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
-        <f t="shared" ref="A74:A85" si="9">A$72</f>
+        <f t="shared" ref="A74:A85" si="59">A$72</f>
         <v>VariousFeatures</v>
       </c>
       <c r="B74" s="13" t="s">
@@ -8471,62 +10246,86 @@
         <v>0</v>
       </c>
       <c r="T74" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U74" s="10">
-        <f>AVERAGE(C74,F74,I74)</f>
+        <f t="shared" ref="U73:U85" si="60">AVERAGE(C74,F74,I74)</f>
         <v>533</v>
       </c>
       <c r="V74" s="9">
-        <f>AVERAGE(D74,G74,J74)</f>
+        <f t="shared" ref="V73:V85" si="61">AVERAGE(D74,G74,J74)</f>
         <v>321.33333333333331</v>
       </c>
       <c r="W74" s="9">
-        <f>AVERAGE(E74,H74,K74)</f>
+        <f t="shared" ref="W73:W85" si="62">AVERAGE(E74,H74,K74)</f>
         <v>559</v>
       </c>
       <c r="X74" s="2">
-        <f>STDEVA(C74,F74,I74)</f>
+        <f t="shared" ref="X73:X85" si="63">STDEVA(C74,F74,I74)</f>
         <v>74.484897798144289</v>
       </c>
       <c r="Y74" s="2">
-        <f>STDEVA(D74,G74,J74)</f>
+        <f t="shared" ref="Y73:Y85" si="64">STDEVA(D74,G74,J74)</f>
         <v>0.57735026918962584</v>
       </c>
       <c r="Z74" s="2">
-        <f>STDEVA(E74,H74,K74)</f>
+        <f t="shared" ref="Z73:Z85" si="65">STDEVA(E74,H74,K74)</f>
         <v>3.6055512754639891</v>
       </c>
       <c r="AA74" s="9">
-        <f>AVERAGE(C74+D74+E74,F74+G74+H74,I74+J74+K74)</f>
+        <f t="shared" ref="AA73:AA85" si="66">AVERAGE(C74+D74+E74,F74+G74+H74,I74+J74+K74)</f>
         <v>1413.3333333333333</v>
       </c>
       <c r="AB74" s="2">
-        <f>STDEVA(C74+D74+E74,F74+G74+H74,I74+J74+K74)</f>
+        <f t="shared" ref="AB73:AB85" si="67">STDEVA(C74+D74+E74,F74+G74+H74,I74+J74+K74)</f>
         <v>78.545103815154093</v>
       </c>
       <c r="AC74" s="9">
-        <f>AVERAGE(L74:N74)</f>
+        <f t="shared" ref="AC73:AC85" si="68">AVERAGE(L74:N74)</f>
         <v>774</v>
       </c>
       <c r="AD74" s="2">
-        <f>STDEVA(L74:N74)</f>
+        <f t="shared" ref="AD73:AD85" si="69">STDEVA(L74:N74)</f>
         <v>6.0827625302982193</v>
       </c>
-      <c r="AE74" s="2"/>
-      <c r="AG74" s="1">
-        <f>IF(SUM(C74,F74,I74)&gt;0,AA74-AC74,"-")</f>
+      <c r="AE74" s="2">
+        <f t="shared" si="38"/>
+        <v>241</v>
+      </c>
+      <c r="AF74" s="2">
+        <f t="shared" si="39"/>
+        <v>880.33333333333326</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="1">
+        <f t="shared" si="40"/>
         <v>639.33333333333326</v>
       </c>
-      <c r="AH74" s="21">
-        <f>IF(SUM(C74,F74,I74)&gt;0,AA74/AC74,"")</f>
+      <c r="AI74" s="21">
+        <f t="shared" si="41"/>
         <v>1.826012058570198</v>
       </c>
+      <c r="AK74" s="1">
+        <f t="shared" si="42"/>
+        <v>639.33333333333326</v>
+      </c>
+      <c r="AL74" s="21">
+        <f t="shared" si="43"/>
+        <v>3.6528354080221299</v>
+      </c>
+      <c r="AM74" s="35">
+        <f t="shared" si="44"/>
+        <v>0.36501325255585004</v>
+      </c>
+      <c r="AN74" s="35">
+        <f t="shared" si="45"/>
+        <v>0.63498674744414996</v>
+      </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B75" s="13" t="s">
@@ -8552,62 +10351,86 @@
         <v>127</v>
       </c>
       <c r="T75" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U75" s="10" t="e">
-        <f>AVERAGE(C75,F75,I75)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V75" s="9" t="e">
-        <f>AVERAGE(D75,G75,J75)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W75" s="9" t="e">
-        <f>AVERAGE(E75,H75,K75)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X75" s="2" t="e">
-        <f>STDEVA(C75,F75,I75)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y75" s="2" t="e">
-        <f>STDEVA(D75,G75,J75)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z75" s="2" t="e">
-        <f>STDEVA(E75,H75,K75)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA75" s="9">
-        <f>AVERAGE(C75+D75+E75,F75+G75+H75,I75+J75+K75)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB75" s="2">
-        <f>STDEVA(C75+D75+E75,F75+G75+H75,I75+J75+K75)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC75" s="9" t="e">
-        <f>AVERAGE(L75:N75)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD75" s="2" t="e">
-        <f>STDEVA(L75:N75)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AG75" s="1" t="str">
-        <f>IF(SUM(C75,F75,I75)&gt;0,AA75-AC75,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH75" s="21" t="str">
-        <f>IF(SUM(C75,F75,I75)&gt;0,AA75/AC75,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE75" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF75" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI75" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK75" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL75" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM75" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN75" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B76" s="13" t="s">
@@ -8633,62 +10456,86 @@
         <v>68</v>
       </c>
       <c r="T76" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U76" s="10" t="e">
-        <f>AVERAGE(C76,F76,I76)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V76" s="9" t="e">
-        <f>AVERAGE(D76,G76,J76)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W76" s="9" t="e">
-        <f>AVERAGE(E76,H76,K76)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X76" s="2" t="e">
-        <f>STDEVA(C76,F76,I76)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y76" s="2" t="e">
-        <f>STDEVA(D76,G76,J76)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z76" s="2" t="e">
-        <f>STDEVA(E76,H76,K76)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA76" s="9">
-        <f>AVERAGE(C76+D76+E76,F76+G76+H76,I76+J76+K76)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB76" s="2">
-        <f>STDEVA(C76+D76+E76,F76+G76+H76,I76+J76+K76)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC76" s="9" t="e">
-        <f>AVERAGE(L76:N76)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD76" s="2" t="e">
-        <f>STDEVA(L76:N76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AG76" s="1" t="str">
-        <f>IF(SUM(C76,F76,I76)&gt;0,AA76-AC76,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH76" s="21" t="str">
-        <f>IF(SUM(C76,F76,I76)&gt;0,AA76/AC76,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE76" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF76" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI76" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK76" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL76" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM76" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN76" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B77" s="13" t="s">
@@ -8743,62 +10590,86 @@
         <v>0</v>
       </c>
       <c r="T77" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U77" s="10">
-        <f>AVERAGE(C77,F77,I77)</f>
+        <f t="shared" si="60"/>
         <v>451</v>
       </c>
       <c r="V77" s="9">
-        <f>AVERAGE(D77,G77,J77)</f>
+        <f t="shared" si="61"/>
         <v>262.33333333333331</v>
       </c>
       <c r="W77" s="9">
-        <f>AVERAGE(E77,H77,K77)</f>
+        <f t="shared" si="62"/>
         <v>358.33333333333331</v>
       </c>
       <c r="X77" s="2">
-        <f>STDEVA(C77,F77,I77)</f>
+        <f t="shared" si="63"/>
         <v>7.810249675906654</v>
       </c>
       <c r="Y77" s="2">
-        <f>STDEVA(D77,G77,J77)</f>
+        <f t="shared" si="64"/>
         <v>2.3094010767585029</v>
       </c>
       <c r="Z77" s="2">
-        <f>STDEVA(E77,H77,K77)</f>
+        <f t="shared" si="65"/>
         <v>1.5275252316519465</v>
       </c>
       <c r="AA77" s="9">
-        <f>AVERAGE(C77+D77+E77,F77+G77+H77,I77+J77+K77)</f>
+        <f t="shared" si="66"/>
         <v>1071.6666666666667</v>
       </c>
       <c r="AB77" s="2">
-        <f>STDEVA(C77+D77+E77,F77+G77+H77,I77+J77+K77)</f>
+        <f t="shared" si="67"/>
         <v>11.590225767142472</v>
       </c>
       <c r="AC77" s="9">
-        <f>AVERAGE(L77:N77)</f>
+        <f t="shared" si="68"/>
         <v>648</v>
       </c>
       <c r="AD77" s="2">
-        <f>STDEVA(L77:N77)</f>
+        <f t="shared" si="69"/>
         <v>10.583005244258363</v>
       </c>
-      <c r="AE77" s="2"/>
-      <c r="AG77" s="1">
-        <f>IF(SUM(C77,F77,I77)&gt;0,AA77-AC77,"-")</f>
+      <c r="AE77" s="2">
+        <f t="shared" si="38"/>
+        <v>197</v>
+      </c>
+      <c r="AF77" s="2">
+        <f t="shared" si="39"/>
+        <v>620.66666666666663</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="1">
+        <f t="shared" si="40"/>
         <v>423.66666666666674</v>
       </c>
-      <c r="AH77" s="21">
-        <f>IF(SUM(C77,F77,I77)&gt;0,AA77/AC77,"")</f>
+      <c r="AI77" s="21">
+        <f t="shared" si="41"/>
         <v>1.6538065843621401</v>
       </c>
+      <c r="AK77" s="1">
+        <f t="shared" si="42"/>
+        <v>423.66666666666663</v>
+      </c>
+      <c r="AL77" s="21">
+        <f t="shared" si="43"/>
+        <v>3.1505922165820639</v>
+      </c>
+      <c r="AM77" s="35">
+        <f t="shared" si="44"/>
+        <v>0.42266380236305046</v>
+      </c>
+      <c r="AN77" s="35">
+        <f t="shared" si="45"/>
+        <v>0.57733619763694954</v>
+      </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B78" s="13" t="s">
@@ -8853,62 +10724,86 @@
         <v>0</v>
       </c>
       <c r="T78" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U78" s="10">
-        <f>AVERAGE(C78,F78,I78)</f>
+        <f t="shared" si="60"/>
         <v>427</v>
       </c>
       <c r="V78" s="9">
-        <f>AVERAGE(D78,G78,J78)</f>
+        <f t="shared" si="61"/>
         <v>256</v>
       </c>
       <c r="W78" s="9">
-        <f>AVERAGE(E78,H78,K78)</f>
+        <f t="shared" si="62"/>
         <v>354.66666666666669</v>
       </c>
       <c r="X78" s="2">
-        <f>STDEVA(C78,F78,I78)</f>
+        <f t="shared" si="63"/>
         <v>8.6602540378443873</v>
       </c>
       <c r="Y78" s="2">
-        <f>STDEVA(D78,G78,J78)</f>
+        <f t="shared" si="64"/>
         <v>9.5393920141694561</v>
       </c>
       <c r="Z78" s="2">
-        <f>STDEVA(E78,H78,K78)</f>
+        <f t="shared" si="65"/>
         <v>10.214368964029708</v>
       </c>
       <c r="AA78" s="9">
-        <f>AVERAGE(C78+D78+E78,F78+G78+H78,I78+J78+K78)</f>
+        <f t="shared" si="66"/>
         <v>1037.6666666666667</v>
       </c>
       <c r="AB78" s="2">
-        <f>STDEVA(C78+D78+E78,F78+G78+H78,I78+J78+K78)</f>
+        <f t="shared" si="67"/>
         <v>10.692676621563626</v>
       </c>
       <c r="AC78" s="9">
-        <f>AVERAGE(L78:N78)</f>
+        <f t="shared" si="68"/>
         <v>615</v>
       </c>
       <c r="AD78" s="2">
-        <f>STDEVA(L78:N78)</f>
+        <f t="shared" si="69"/>
         <v>8.6602540378443873</v>
       </c>
-      <c r="AE78" s="2"/>
-      <c r="AG78" s="1">
-        <f>IF(SUM(C78,F78,I78)&gt;0,AA78-AC78,"-")</f>
+      <c r="AE78" s="2">
+        <f t="shared" si="38"/>
+        <v>188</v>
+      </c>
+      <c r="AF78" s="2">
+        <f t="shared" si="39"/>
+        <v>610.66666666666674</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="1">
+        <f t="shared" si="40"/>
         <v>422.66666666666674</v>
       </c>
-      <c r="AH78" s="21">
-        <f>IF(SUM(C78,F78,I78)&gt;0,AA78/AC78,"")</f>
+      <c r="AI78" s="21">
+        <f t="shared" si="41"/>
         <v>1.6872628726287264</v>
       </c>
+      <c r="AK78" s="1">
+        <f t="shared" si="42"/>
+        <v>422.66666666666674</v>
+      </c>
+      <c r="AL78" s="21">
+        <f t="shared" si="43"/>
+        <v>3.2482269503546104</v>
+      </c>
+      <c r="AM78" s="35">
+        <f t="shared" si="44"/>
+        <v>0.41921397379912656</v>
+      </c>
+      <c r="AN78" s="35">
+        <f t="shared" si="45"/>
+        <v>0.58078602620087327</v>
+      </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B79" s="13" t="s">
@@ -8934,62 +10829,86 @@
         <v>68</v>
       </c>
       <c r="T79" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U79" s="10" t="e">
-        <f>AVERAGE(C79,F79,I79)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V79" s="9" t="e">
-        <f>AVERAGE(D79,G79,J79)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W79" s="9" t="e">
-        <f>AVERAGE(E79,H79,K79)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X79" s="2" t="e">
-        <f>STDEVA(C79,F79,I79)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y79" s="2" t="e">
-        <f>STDEVA(D79,G79,J79)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z79" s="2" t="e">
-        <f>STDEVA(E79,H79,K79)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA79" s="9">
-        <f>AVERAGE(C79+D79+E79,F79+G79+H79,I79+J79+K79)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB79" s="2">
-        <f>STDEVA(C79+D79+E79,F79+G79+H79,I79+J79+K79)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC79" s="9" t="e">
-        <f>AVERAGE(L79:N79)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD79" s="2" t="e">
-        <f>STDEVA(L79:N79)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE79" s="2"/>
-      <c r="AG79" s="1" t="str">
-        <f>IF(SUM(C79,F79,I79)&gt;0,AA79-AC79,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH79" s="21" t="str">
-        <f>IF(SUM(C79,F79,I79)&gt;0,AA79/AC79,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE79" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF79" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI79" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK79" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL79" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM79" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN79" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B80" s="13" t="s">
@@ -9015,62 +10934,86 @@
         <v>68</v>
       </c>
       <c r="T80" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U80" s="10" t="e">
-        <f>AVERAGE(C80,F80,I80)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V80" s="9" t="e">
-        <f>AVERAGE(D80,G80,J80)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W80" s="9" t="e">
-        <f>AVERAGE(E80,H80,K80)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X80" s="2" t="e">
-        <f>STDEVA(C80,F80,I80)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y80" s="2" t="e">
-        <f>STDEVA(D80,G80,J80)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z80" s="2" t="e">
-        <f>STDEVA(E80,H80,K80)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA80" s="9">
-        <f>AVERAGE(C80+D80+E80,F80+G80+H80,I80+J80+K80)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB80" s="2">
-        <f>STDEVA(C80+D80+E80,F80+G80+H80,I80+J80+K80)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC80" s="9" t="e">
-        <f>AVERAGE(L80:N80)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD80" s="2" t="e">
-        <f>STDEVA(L80:N80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE80" s="2"/>
-      <c r="AG80" s="1" t="str">
-        <f>IF(SUM(C80,F80,I80)&gt;0,AA80-AC80,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH80" s="21" t="str">
-        <f>IF(SUM(C80,F80,I80)&gt;0,AA80/AC80,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE80" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF80" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI80" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK80" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL80" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM80" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN80" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B81" s="13" t="s">
@@ -9096,62 +11039,86 @@
         <v>68</v>
       </c>
       <c r="T81" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U81" s="10" t="e">
-        <f>AVERAGE(C81,F81,I81)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V81" s="9" t="e">
-        <f>AVERAGE(D81,G81,J81)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W81" s="9" t="e">
-        <f>AVERAGE(E81,H81,K81)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X81" s="2" t="e">
-        <f>STDEVA(C81,F81,I81)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y81" s="2" t="e">
-        <f>STDEVA(D81,G81,J81)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z81" s="2" t="e">
-        <f>STDEVA(E81,H81,K81)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA81" s="9">
-        <f>AVERAGE(C81+D81+E81,F81+G81+H81,I81+J81+K81)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB81" s="2">
-        <f>STDEVA(C81+D81+E81,F81+G81+H81,I81+J81+K81)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC81" s="9" t="e">
-        <f>AVERAGE(L81:N81)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD81" s="2" t="e">
-        <f>STDEVA(L81:N81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AG81" s="1" t="str">
-        <f>IF(SUM(C81,F81,I81)&gt;0,AA81-AC81,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH81" s="21" t="str">
-        <f>IF(SUM(C81,F81,I81)&gt;0,AA81/AC81,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE81" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF81" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI81" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK81" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL81" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM81" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN81" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B82" s="13" t="s">
@@ -9177,79 +11144,127 @@
         <v>36</v>
       </c>
       <c r="T82" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U82" s="10" t="e">
-        <f>AVERAGE(C82,F82,I82)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V82" s="9" t="e">
-        <f>AVERAGE(D82,G82,J82)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W82" s="9" t="e">
-        <f>AVERAGE(E82,H82,K82)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X82" s="2" t="e">
-        <f>STDEVA(C82,F82,I82)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y82" s="2" t="e">
-        <f>STDEVA(D82,G82,J82)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z82" s="2" t="e">
-        <f>STDEVA(E82,H82,K82)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA82" s="9">
-        <f>AVERAGE(C82+D82+E82,F82+G82+H82,I82+J82+K82)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB82" s="2">
-        <f>STDEVA(C82+D82+E82,F82+G82+H82,I82+J82+K82)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC82" s="9" t="e">
-        <f>AVERAGE(L82:N82)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD82" s="2" t="e">
-        <f>STDEVA(L82:N82)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE82" s="2"/>
-      <c r="AG82" s="1" t="str">
-        <f>IF(SUM(C82,F82,I82)&gt;0,AA82-AC82,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH82" s="21" t="str">
-        <f>IF(SUM(C82,F82,I82)&gt;0,AA82/AC82,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE82" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF82" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI82" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK82" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL82" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM82" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN82" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
+      <c r="C83" s="6">
+        <v>469</v>
+      </c>
+      <c r="D83" s="7">
+        <v>313</v>
+      </c>
+      <c r="E83" s="7">
+        <v>547</v>
+      </c>
+      <c r="F83" s="7">
+        <v>475</v>
+      </c>
+      <c r="G83" s="7">
+        <v>300</v>
+      </c>
+      <c r="H83" s="7">
+        <v>531</v>
+      </c>
+      <c r="I83" s="7">
+        <v>484</v>
+      </c>
+      <c r="J83" s="7">
+        <v>297</v>
+      </c>
+      <c r="K83" s="8">
+        <v>531</v>
+      </c>
+      <c r="L83" s="7">
+        <v>789</v>
+      </c>
+      <c r="M83" s="7">
+        <v>797</v>
+      </c>
+      <c r="N83" s="7">
+        <v>797</v>
+      </c>
       <c r="O83" s="16">
         <v>0</v>
       </c>
@@ -9266,62 +11281,86 @@
         <v>136</v>
       </c>
       <c r="T83" s="20">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="U83" s="10" t="e">
-        <f>AVERAGE(C83,F83,I83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V83" s="9" t="e">
-        <f>AVERAGE(D83,G83,J83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W83" s="9" t="e">
-        <f>AVERAGE(E83,H83,K83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X83" s="2" t="e">
-        <f>STDEVA(C83,F83,I83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y83" s="2" t="e">
-        <f>STDEVA(D83,G83,J83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z83" s="2" t="e">
-        <f>STDEVA(E83,H83,K83)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="U83" s="10">
+        <f t="shared" si="60"/>
+        <v>476</v>
+      </c>
+      <c r="V83" s="9">
+        <f t="shared" si="61"/>
+        <v>303.33333333333331</v>
+      </c>
+      <c r="W83" s="9">
+        <f t="shared" si="62"/>
+        <v>536.33333333333337</v>
+      </c>
+      <c r="X83" s="2">
+        <f t="shared" si="63"/>
+        <v>7.5498344352707498</v>
+      </c>
+      <c r="Y83" s="2">
+        <f t="shared" si="64"/>
+        <v>8.5049005481153834</v>
+      </c>
+      <c r="Z83" s="2">
+        <f t="shared" si="65"/>
+        <v>9.2376043070340135</v>
       </c>
       <c r="AA83" s="9">
-        <f>AVERAGE(C83+D83+E83,F83+G83+H83,I83+J83+K83)</f>
-        <v>0</v>
+        <f t="shared" si="66"/>
+        <v>1315.6666666666667</v>
       </c>
       <c r="AB83" s="2">
-        <f>STDEVA(C83+D83+E83,F83+G83+H83,I83+J83+K83)</f>
-        <v>0</v>
-      </c>
-      <c r="AC83" s="9" t="e">
-        <f>AVERAGE(L83:N83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD83" s="2" t="e">
-        <f>STDEVA(L83:N83)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE83" s="2"/>
-      <c r="AG83" s="1" t="str">
-        <f>IF(SUM(C83,F83,I83)&gt;0,AA83-AC83,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH83" s="21" t="str">
-        <f>IF(SUM(C83,F83,I83)&gt;0,AA83/AC83,"")</f>
-        <v/>
+        <f t="shared" si="67"/>
+        <v>11.930353445448855</v>
+      </c>
+      <c r="AC83" s="9">
+        <f t="shared" si="68"/>
+        <v>794.33333333333337</v>
+      </c>
+      <c r="AD83" s="2">
+        <f t="shared" si="69"/>
+        <v>4.6188021535170058</v>
+      </c>
+      <c r="AE83" s="2">
+        <f t="shared" si="38"/>
+        <v>318.33333333333337</v>
+      </c>
+      <c r="AF83" s="2">
+        <f t="shared" si="39"/>
+        <v>839.66666666666674</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="1">
+        <f t="shared" si="40"/>
+        <v>521.33333333333337</v>
+      </c>
+      <c r="AI83" s="21">
+        <f t="shared" si="41"/>
+        <v>1.6563155686109945</v>
+      </c>
+      <c r="AK83" s="1">
+        <f t="shared" si="42"/>
+        <v>521.33333333333337</v>
+      </c>
+      <c r="AL83" s="21">
+        <f t="shared" si="43"/>
+        <v>2.6376963350785338</v>
+      </c>
+      <c r="AM83" s="35">
+        <f t="shared" si="44"/>
+        <v>0.36125446605795947</v>
+      </c>
+      <c r="AN83" s="35">
+        <f t="shared" si="45"/>
+        <v>0.63874553394204048</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B84" s="13" t="s">
@@ -9376,62 +11415,86 @@
         <v>0</v>
       </c>
       <c r="T84" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U84" s="10">
-        <f>AVERAGE(C84,F84,I84)</f>
+        <f t="shared" si="60"/>
         <v>693</v>
       </c>
       <c r="V84" s="9">
-        <f>AVERAGE(D84,G84,J84)</f>
+        <f t="shared" si="61"/>
         <v>656.33333333333337</v>
       </c>
       <c r="W84" s="9">
-        <f>AVERAGE(E84,H84,K84)</f>
+        <f t="shared" si="62"/>
         <v>1182</v>
       </c>
       <c r="X84" s="2">
-        <f>STDEVA(C84,F84,I84)</f>
+        <f t="shared" si="63"/>
         <v>65.092242241299388</v>
       </c>
       <c r="Y84" s="2">
-        <f>STDEVA(D84,G84,J84)</f>
+        <f t="shared" si="64"/>
         <v>67.448745973022611</v>
       </c>
       <c r="Z84" s="2">
-        <f>STDEVA(E84,H84,K84)</f>
+        <f t="shared" si="65"/>
         <v>70.632853545641211</v>
       </c>
       <c r="AA84" s="9">
-        <f>AVERAGE(C84+D84+E84,F84+G84+H84,I84+J84+K84)</f>
+        <f t="shared" si="66"/>
         <v>2531.3333333333335</v>
       </c>
       <c r="AB84" s="2">
-        <f>STDEVA(C84+D84+E84,F84+G84+H84,I84+J84+K84)</f>
+        <f t="shared" si="67"/>
         <v>180.05647262271171</v>
       </c>
       <c r="AC84" s="9">
-        <f>AVERAGE(L84:N84)</f>
+        <f t="shared" si="68"/>
         <v>1227.3333333333333</v>
       </c>
       <c r="AD84" s="2">
-        <f>STDEVA(L84:N84)</f>
+        <f t="shared" si="69"/>
         <v>7.6376261582597333</v>
       </c>
-      <c r="AE84" s="2"/>
-      <c r="AG84" s="1">
-        <f>IF(SUM(C84,F84,I84)&gt;0,AA84-AC84,"-")</f>
+      <c r="AE84" s="2">
+        <f t="shared" si="38"/>
+        <v>534.33333333333326</v>
+      </c>
+      <c r="AF84" s="2">
+        <f t="shared" si="39"/>
+        <v>1838.3333333333335</v>
+      </c>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="1">
+        <f t="shared" si="40"/>
         <v>1304.0000000000002</v>
       </c>
-      <c r="AH84" s="21">
-        <f>IF(SUM(C84,F84,I84)&gt;0,AA84/AC84,"")</f>
+      <c r="AI84" s="21">
+        <f t="shared" si="41"/>
         <v>2.0624660510592072</v>
       </c>
+      <c r="AK84" s="1">
+        <f t="shared" si="42"/>
+        <v>1304.0000000000002</v>
+      </c>
+      <c r="AL84" s="21">
+        <f t="shared" si="43"/>
+        <v>3.4404242046163449</v>
+      </c>
+      <c r="AM84" s="35">
+        <f t="shared" si="44"/>
+        <v>0.35702629193109697</v>
+      </c>
+      <c r="AN84" s="35">
+        <f t="shared" si="45"/>
+        <v>0.64297370806890297</v>
+      </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="59"/>
         <v>VariousFeatures</v>
       </c>
       <c r="B85" s="13" t="s">
@@ -9457,60 +11520,84 @@
         <v>68</v>
       </c>
       <c r="T85" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U85" s="10" t="e">
-        <f>AVERAGE(C85,F85,I85)</f>
+        <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V85" s="9" t="e">
-        <f>AVERAGE(D85,G85,J85)</f>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W85" s="9" t="e">
-        <f>AVERAGE(E85,H85,K85)</f>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X85" s="2" t="e">
-        <f>STDEVA(C85,F85,I85)</f>
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y85" s="2" t="e">
-        <f>STDEVA(D85,G85,J85)</f>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z85" s="2" t="e">
-        <f>STDEVA(E85,H85,K85)</f>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA85" s="9">
-        <f>AVERAGE(C85+D85+E85,F85+G85+H85,I85+J85+K85)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AB85" s="2">
-        <f>STDEVA(C85+D85+E85,F85+G85+H85,I85+J85+K85)</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC85" s="9" t="e">
-        <f>AVERAGE(L85:N85)</f>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD85" s="2" t="e">
-        <f>STDEVA(L85:N85)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AG85" s="1" t="str">
-        <f>IF(SUM(C85,F85,I85)&gt;0,AA85-AC85,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="AH85" s="21" t="str">
-        <f>IF(SUM(C85,F85,I85)&gt;0,AA85/AC85,"")</f>
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE85" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF85" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AI85" s="21" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AK85" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AL85" s="21" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AM85" s="35" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AN85" s="35" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="24">
         <f>COUNTA(B2:B85)</f>
@@ -9538,7 +11625,7 @@
       </c>
       <c r="T86" s="29">
         <f>SUM(T2:T85)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U86" s="25"/>
       <c r="V86" s="26"/>
@@ -9554,8 +11641,9 @@
       <c r="AF86" s="26"/>
       <c r="AG86" s="26"/>
       <c r="AH86" s="26"/>
+      <c r="AI86" s="4"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="O87" s="28">
         <f>COUNTIF(O2:O85,"=1")/COUNTA(O2:O85)</f>
         <v>0.9107142857142857</v>
@@ -9566,7 +11654,7 @@
       </c>
       <c r="Q87" s="22">
         <f>COUNTIF(Q2:Q85,"=1")/COUNTA(Q2:Q85)</f>
-        <v>0.65476190476190477</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R87" s="22">
         <f>COUNTIF(R2:R85,"=1")/COUNTA(R2:R85)</f>
@@ -9575,7 +11663,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q60:Q71">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9587,7 +11675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O71">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9599,7 +11687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:Q85 Q2:Q59">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9611,7 +11699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:O85 O2:O59">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9623,7 +11711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P85">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9635,7 +11723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R85">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9647,13 +11735,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T85">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AN85">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AL84">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>

--- a/chalice2sil/doc/report/benchmark.xlsx
+++ b/chalice2sil/doc/report/benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Pivot-2" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$AN$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Data-present'!$A$1:$I$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="178">
   <si>
     <t>ToSIL-1</t>
   </si>
@@ -554,6 +555,21 @@
   <si>
     <t>Syxc</t>
   </si>
+  <si>
+    <t>exception in Chalice2SIL during translation of expression involving 'waitlevel'</t>
+  </si>
+  <si>
+    <t>exception in Chalice2SIL during resolution of a field name</t>
+  </si>
+  <si>
+    <t>exception in Chalice2SIL during translation of a type expression</t>
+  </si>
+  <si>
+    <t>exception in Chalice2SIL during substitution of program variables</t>
+  </si>
+  <si>
+    <t>channels not supported by Chalice2SIL</t>
+  </si>
 </sst>
 </file>
 
@@ -828,10 +844,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -839,148 +852,13 @@
       <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0\ &quot;ms&quot;"/>
+      <numFmt numFmtId="169" formatCode="0\ &quot;ms&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0\ &quot;ms&quot;"/>
@@ -1716,11 +1594,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="643052176"/>
-        <c:axId val="415240856"/>
+        <c:axId val="483939480"/>
+        <c:axId val="483941832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="643052176"/>
+        <c:axId val="483939480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415240856"/>
+        <c:crossAx val="483941832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1773,7 +1651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415240856"/>
+        <c:axId val="483941832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643052176"/>
+        <c:crossAx val="483939480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1849,7 +1727,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6269,7 +6146,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="39">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="39">
   <location ref="A9:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="7" colPageCount="1"/>
   <pivotFields count="39">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6539,13 +6416,13 @@
     <dataField name="Silicon" fld="23" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="36">
+    <format dxfId="5">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="55">
@@ -6608,7 +6485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="22">
@@ -6732,7 +6609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A8:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="5" colPageCount="1"/>
   <pivotFields count="39">
     <pivotField showAll="0"/>
@@ -6878,10 +6755,10 @@
     <dataField name="Count of comment" fld="18" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="50">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7597,10 +7474,10 @@
   <dimension ref="A1:AN228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG45" sqref="AG45"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7619,7 +7496,7 @@
     <col min="15" max="15" width="7.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="71.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5703125" style="27" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" style="3" customWidth="1"/>
@@ -11765,7 +11642,7 @@
       </c>
       <c r="R31" s="20"/>
       <c r="S31" s="15" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="T31" s="20">
         <f t="shared" si="10"/>
@@ -12303,7 +12180,7 @@
       </c>
       <c r="R35" s="20"/>
       <c r="S35" s="15" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="T35" s="20">
         <f t="shared" si="10"/>
@@ -14115,7 +13992,7 @@
       </c>
       <c r="R48" s="20"/>
       <c r="S48" s="15" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="T48" s="20">
         <f t="shared" si="10"/>
@@ -14371,7 +14248,7 @@
       </c>
       <c r="R50" s="20"/>
       <c r="S50" s="15" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="T50" s="20">
         <f t="shared" si="10"/>
@@ -16161,7 +16038,7 @@
       </c>
       <c r="R64" s="20"/>
       <c r="S64" s="15" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="T64" s="20">
         <f t="shared" si="10"/>
@@ -17637,7 +17514,7 @@
       </c>
       <c r="R76" s="20"/>
       <c r="S76" s="15" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="T76" s="20">
         <f t="shared" si="37"/>
@@ -18031,7 +17908,7 @@
       </c>
       <c r="R79" s="20"/>
       <c r="S79" s="15" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="T79" s="20">
         <f t="shared" si="37"/>
@@ -18143,7 +18020,7 @@
       </c>
       <c r="R80" s="20"/>
       <c r="S80" s="15" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="T80" s="20">
         <f t="shared" si="37"/>
@@ -18255,7 +18132,7 @@
       </c>
       <c r="R81" s="20"/>
       <c r="S81" s="15" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="T81" s="20">
         <f t="shared" si="37"/>
@@ -18764,7 +18641,7 @@
       </c>
       <c r="R85" s="20"/>
       <c r="S85" s="15" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="T85" s="20">
         <f t="shared" si="37"/>
@@ -19966,6 +19843,7 @@
       <c r="S228" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN88"/>
   <conditionalFormatting sqref="Q60:Q71">
     <cfRule type="colorScale" priority="9">
       <colorScale>
